--- a/result/NCDC_weather_data/stations_imputed/57328099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57328099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O2" t="n">
         <v>120.02</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O3" t="n">
         <v>132.44</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -681,7 +689,9 @@
       <c r="M4" t="n">
         <v>1.80054</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O4" t="n">
         <v>132.44</v>
       </c>
@@ -691,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -737,7 +749,9 @@
       <c r="M5" t="n">
         <v>1.080324</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O5" t="n">
         <v>117.5</v>
       </c>
@@ -747,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -793,7 +809,9 @@
       <c r="M6" t="n">
         <v>1.2861</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O6" t="n">
         <v>123.62</v>
       </c>
@@ -803,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -849,7 +869,9 @@
       <c r="M7" t="n">
         <v>1.2861</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O7" t="n">
         <v>123.62</v>
       </c>
@@ -859,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -905,7 +929,9 @@
       <c r="M8" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O8" t="n">
         <v>121.1</v>
       </c>
@@ -915,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -961,7 +989,9 @@
       <c r="M9" t="n">
         <v>1.2861</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O9" t="n">
         <v>124.52</v>
       </c>
@@ -971,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1017,7 +1049,9 @@
       <c r="M10" t="n">
         <v>1.2861</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>6.104573897338403</v>
+      </c>
       <c r="O10" t="n">
         <v>125.96</v>
       </c>
@@ -1027,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1085,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1143,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1201,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1259,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1375,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1433,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1491,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1549,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1607,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1665,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1723,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1781,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1839,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1897,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1955,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2013,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2071,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0.005333999999999999</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2129,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0.00254</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2187,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2245,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2303,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2361,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2419,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2477,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2535,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2593,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2651,7 +2741,9 @@
       <c r="Q38" t="n">
         <v>0.00508</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2709,7 +2801,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2767,7 +2861,9 @@
       <c r="Q40" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2825,7 +2921,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2883,7 +2981,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2941,7 +3041,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2999,7 +3101,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3057,7 +3161,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3115,7 +3221,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3173,7 +3281,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3231,7 +3341,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3289,7 +3401,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3347,7 +3461,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3405,7 +3521,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3463,7 +3581,9 @@
       <c r="Q52" t="n">
         <v>0.00254</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3521,7 +3641,9 @@
       <c r="Q53" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3579,7 +3701,9 @@
       <c r="Q54" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3637,7 +3761,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3695,7 +3821,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3753,7 +3881,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3811,7 +3941,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3869,7 +4001,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3927,7 +4061,9 @@
       <c r="Q60" t="n">
         <v>0.00254</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3985,7 +4121,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4043,7 +4181,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4101,7 +4241,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4159,7 +4301,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4217,7 +4361,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4275,7 +4421,9 @@
       <c r="Q66" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4333,7 +4481,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4391,7 +4541,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4449,7 +4601,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4507,7 +4661,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4565,7 +4721,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4623,7 +4781,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4681,7 +4841,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4739,7 +4901,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4797,7 +4961,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4855,7 +5021,9 @@
       <c r="Q76" t="n">
         <v>0.012954</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4913,7 +5081,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4971,7 +5141,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5029,7 +5201,9 @@
       <c r="Q79" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5087,7 +5261,9 @@
       <c r="Q80" t="n">
         <v>0.019558</v>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">

--- a/result/NCDC_weather_data/stations_imputed/57328099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57328099999.xlsx
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>35.8</v>
+        <v>2.11111111111111</v>
       </c>
       <c r="I2" t="n">
         <v>103.09</v>
@@ -590,7 +590,7 @@
         <v>0.01016</v>
       </c>
       <c r="S2" t="n">
-        <v>674.8800328573325</v>
+        <v>81.57449501541225</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>7.166666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>36.2</v>
+        <v>2.333333333333335</v>
       </c>
       <c r="I3" t="n">
         <v>102.53</v>
@@ -653,7 +653,7 @@
         <v>0.01016</v>
       </c>
       <c r="S3" t="n">
-        <v>594.0159787069848</v>
+        <v>71.35679834876775</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>7.444444444444444</v>
       </c>
       <c r="H4" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>102.23</v>
@@ -716,7 +716,7 @@
         <v>0.01016</v>
       </c>
       <c r="S4" t="n">
-        <v>653.6304150897404</v>
+        <v>76.0477743672531</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>42.5</v>
+        <v>5.833333333333334</v>
       </c>
       <c r="I5" t="n">
         <v>102.16</v>
@@ -779,7 +779,7 @@
         <v>0.01016</v>
       </c>
       <c r="S5" t="n">
-        <v>814.8213212429459</v>
+        <v>89.17355656730075</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>9.111111111111111</v>
       </c>
       <c r="H6" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I6" t="n">
         <v>102.27</v>
@@ -842,7 +842,7 @@
         <v>0.01016</v>
       </c>
       <c r="S6" t="n">
-        <v>761.7392608461539</v>
+        <v>82.43098269498135</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +872,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H7" t="n">
-        <v>44.5</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="I7" t="n">
         <v>102.61</v>
@@ -905,7 +905,7 @@
         <v>0.01016</v>
       </c>
       <c r="S7" t="n">
-        <v>870.9501608424887</v>
+        <v>92.69241324405237</v>
       </c>
     </row>
     <row r="8">
@@ -935,7 +935,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I8" t="n">
         <v>102.62</v>
@@ -968,7 +968,7 @@
         <v>0.01016</v>
       </c>
       <c r="S8" t="n">
-        <v>819.1189098916503</v>
+        <v>87.9021294113136</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>9.222222222222223</v>
       </c>
       <c r="H9" t="n">
-        <v>43.7</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="I9" t="n">
         <v>102.49</v>
@@ -1031,7 +1031,7 @@
         <v>0.01016</v>
       </c>
       <c r="S9" t="n">
-        <v>772.0198618014753</v>
+        <v>83.07839949853636</v>
       </c>
     </row>
     <row r="10">
@@ -1061,7 +1061,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I10" t="n">
         <v>102.01</v>
@@ -1094,7 +1094,7 @@
         <v>0.01016</v>
       </c>
       <c r="S10" t="n">
-        <v>742.054884156489</v>
+        <v>80.30085418819434</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>9.388888888888889</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I11" t="n">
         <v>102.54</v>
@@ -1157,7 +1157,7 @@
         <v>0.01016</v>
       </c>
       <c r="S11" t="n">
-        <v>505.2561615852285</v>
+        <v>60.88247115604282</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H12" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I12" t="n">
         <v>102.36</v>
@@ -1220,7 +1220,7 @@
         <v>0.01016</v>
       </c>
       <c r="S12" t="n">
-        <v>588.3247777944053</v>
+        <v>69.5973859676299</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I13" t="n">
         <v>102.48</v>
@@ -1283,7 +1283,7 @@
         <v>0.01016</v>
       </c>
       <c r="S13" t="n">
-        <v>622.5497048105718</v>
+        <v>72.64957906994188</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1313,7 @@
         <v>7.611111111111113</v>
       </c>
       <c r="H14" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I14" t="n">
         <v>102.35</v>
@@ -1346,7 +1346,7 @@
         <v>0.01016</v>
       </c>
       <c r="S14" t="n">
-        <v>649.7439590578149</v>
+        <v>75.48235751246523</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>102.19</v>
@@ -1409,7 +1409,7 @@
         <v>0.01016</v>
       </c>
       <c r="S15" t="n">
-        <v>705.4222078293789</v>
+        <v>82.07358111891536</v>
       </c>
     </row>
     <row r="16">
@@ -1439,7 +1439,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I16" t="n">
         <v>102.53</v>
@@ -1472,7 +1472,7 @@
         <v>0.01016</v>
       </c>
       <c r="S16" t="n">
-        <v>686.1136323355083</v>
+        <v>80.1879086318697</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1502,7 @@
         <v>7.555555555555556</v>
       </c>
       <c r="H17" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I17" t="n">
         <v>102.77</v>
@@ -1535,7 +1535,7 @@
         <v>0.01016</v>
       </c>
       <c r="S17" t="n">
-        <v>641.692809377407</v>
+        <v>74.88351875078331</v>
       </c>
     </row>
     <row r="18">
@@ -1565,7 +1565,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H18" t="n">
-        <v>38.7</v>
+        <v>3.722222222222224</v>
       </c>
       <c r="I18" t="n">
         <v>102.73</v>
@@ -1598,7 +1598,7 @@
         <v>0.01016</v>
       </c>
       <c r="S18" t="n">
-        <v>647.9872719253124</v>
+        <v>74.94142476560678</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1628,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H19" t="n">
-        <v>39.6</v>
+        <v>4.222222222222223</v>
       </c>
       <c r="I19" t="n">
         <v>102.47</v>
@@ -1661,7 +1661,7 @@
         <v>0.01016</v>
       </c>
       <c r="S19" t="n">
-        <v>657.4493111705431</v>
+        <v>75.02793279931694</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1691,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H20" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I20" t="n">
         <v>101.95</v>
@@ -1724,7 +1724,7 @@
         <v>0.01016</v>
       </c>
       <c r="S20" t="n">
-        <v>591.5381971879497</v>
+        <v>68.00703979203078</v>
       </c>
     </row>
     <row r="21">
@@ -1754,7 +1754,7 @@
         <v>8.944444444444446</v>
       </c>
       <c r="H21" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I21" t="n">
         <v>101.68</v>
@@ -1787,7 +1787,7 @@
         <v>0.01016</v>
       </c>
       <c r="S21" t="n">
-        <v>719.4866867741121</v>
+        <v>79.30126989642251</v>
       </c>
     </row>
     <row r="22">
@@ -1817,7 +1817,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H22" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I22" t="n">
         <v>101.67</v>
@@ -1850,7 +1850,7 @@
         <v>0.01016</v>
       </c>
       <c r="S22" t="n">
-        <v>784.4360898632511</v>
+        <v>85.24500264041602</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1880,7 @@
         <v>8.277777777777777</v>
       </c>
       <c r="H23" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I23" t="n">
         <v>101.4</v>
@@ -1913,7 +1913,7 @@
         <v>0.01016</v>
       </c>
       <c r="S23" t="n">
-        <v>676.7823235269436</v>
+        <v>76.78164525724388</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>7.555555555555556</v>
       </c>
       <c r="H24" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I24" t="n">
         <v>101.88</v>
@@ -1976,7 +1976,7 @@
         <v>0.01016</v>
       </c>
       <c r="S24" t="n">
-        <v>604.3726376591369</v>
+        <v>71.714253234404</v>
       </c>
     </row>
     <row r="25">
@@ -2006,7 +2006,7 @@
         <v>7.5</v>
       </c>
       <c r="H25" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I25" t="n">
         <v>101.98</v>
@@ -2039,7 +2039,7 @@
         <v>0.01016</v>
       </c>
       <c r="S25" t="n">
-        <v>713.5866201505694</v>
+        <v>80.95713026780224</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H26" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I26" t="n">
         <v>101.82</v>
@@ -2102,7 +2102,7 @@
         <v>0.01016</v>
       </c>
       <c r="S26" t="n">
-        <v>745.3100998091398</v>
+        <v>83.21454431936394</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H27" t="n">
-        <v>40.7</v>
+        <v>4.833333333333335</v>
       </c>
       <c r="I27" t="n">
         <v>101.94</v>
@@ -2165,7 +2165,7 @@
         <v>0.01016</v>
       </c>
       <c r="S27" t="n">
-        <v>729.618717039313</v>
+        <v>81.93544467585251</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2195,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H28" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I28" t="n">
         <v>102.33</v>
@@ -2228,7 +2228,7 @@
         <v>0.01016</v>
       </c>
       <c r="S28" t="n">
-        <v>704.7597625380766</v>
+        <v>82.36713101509491</v>
       </c>
     </row>
     <row r="29">
@@ -2258,7 +2258,7 @@
         <v>5.111111111111112</v>
       </c>
       <c r="H29" t="n">
-        <v>35.6</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="I29" t="n">
         <v>102.48</v>
@@ -2291,7 +2291,7 @@
         <v>0.01016</v>
       </c>
       <c r="S29" t="n">
-        <v>662.3257534249861</v>
+        <v>80.30643845662317</v>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2321,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H30" t="n">
-        <v>34.8</v>
+        <v>1.555555555555554</v>
       </c>
       <c r="I30" t="n">
         <v>102.32</v>
@@ -2354,7 +2354,7 @@
         <v>0.01016</v>
       </c>
       <c r="S30" t="n">
-        <v>656.1039963581981</v>
+        <v>80.55504112235197</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2384,7 @@
         <v>7.277777777777779</v>
       </c>
       <c r="H31" t="n">
-        <v>35.8</v>
+        <v>2.11111111111111</v>
       </c>
       <c r="I31" t="n">
         <v>102.42</v>
@@ -2417,7 +2417,7 @@
         <v>0.01016</v>
       </c>
       <c r="S31" t="n">
-        <v>576.6700023768101</v>
+        <v>69.70359463037975</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2447,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H32" t="n">
-        <v>35.4</v>
+        <v>1.888888888888888</v>
       </c>
       <c r="I32" t="n">
         <v>102.39</v>
@@ -2480,7 +2480,7 @@
         <v>0.01016</v>
       </c>
       <c r="S32" t="n">
-        <v>532.9095048000746</v>
+        <v>64.8166910319533</v>
       </c>
     </row>
     <row r="33">
@@ -2510,7 +2510,7 @@
         <v>7.333333333333335</v>
       </c>
       <c r="H33" t="n">
-        <v>34.8</v>
+        <v>1.555555555555554</v>
       </c>
       <c r="I33" t="n">
         <v>102.56</v>
@@ -2543,7 +2543,7 @@
         <v>0.01016</v>
       </c>
       <c r="S33" t="n">
-        <v>543.546814054427</v>
+        <v>66.73551174983736</v>
       </c>
     </row>
     <row r="34">
@@ -2573,7 +2573,7 @@
         <v>5.388888888888891</v>
       </c>
       <c r="H34" t="n">
-        <v>36.3</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="I34" t="n">
         <v>102.76</v>
@@ -2606,7 +2606,7 @@
         <v>0.01016</v>
       </c>
       <c r="S34" t="n">
-        <v>675.2006228830242</v>
+        <v>80.98409777113208</v>
       </c>
     </row>
     <row r="35">
@@ -2636,7 +2636,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H35" t="n">
-        <v>34.3</v>
+        <v>1.277777777777776</v>
       </c>
       <c r="I35" t="n">
         <v>102.62</v>
@@ -2669,7 +2669,7 @@
         <v>0.01016</v>
       </c>
       <c r="S35" t="n">
-        <v>559.7371220606159</v>
+        <v>69.26850385709804</v>
       </c>
     </row>
     <row r="36">
@@ -2699,7 +2699,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H36" t="n">
-        <v>34.2</v>
+        <v>1.222222222222224</v>
       </c>
       <c r="I36" t="n">
         <v>102.71</v>
@@ -2732,7 +2732,7 @@
         <v>0.01016</v>
       </c>
       <c r="S36" t="n">
-        <v>500.428162533925</v>
+        <v>62.02726547877239</v>
       </c>
     </row>
     <row r="37">
@@ -2762,7 +2762,7 @@
         <v>8.944444444444446</v>
       </c>
       <c r="H37" t="n">
-        <v>32.2</v>
+        <v>0.1111111111111127</v>
       </c>
       <c r="I37" t="n">
         <v>102.4</v>
@@ -2795,7 +2795,7 @@
         <v>0.01016</v>
       </c>
       <c r="S37" t="n">
-        <v>421.0879175476529</v>
+        <v>53.90146923484085</v>
       </c>
     </row>
     <row r="38">
@@ -2825,7 +2825,7 @@
         <v>4.722222222222222</v>
       </c>
       <c r="H38" t="n">
-        <v>35.1</v>
+        <v>1.722222222222223</v>
       </c>
       <c r="I38" t="n">
         <v>102.21</v>
@@ -2858,7 +2858,7 @@
         <v>0.01016</v>
       </c>
       <c r="S38" t="n">
-        <v>661.959741973261</v>
+        <v>80.89171368864798</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>4.944444444444444</v>
       </c>
       <c r="H39" t="n">
-        <v>32.1</v>
+        <v>0.05555555555555635</v>
       </c>
       <c r="I39" t="n">
         <v>102.45</v>
@@ -2921,7 +2921,7 @@
         <v>0.01016</v>
       </c>
       <c r="S39" t="n">
-        <v>550.9198239517837</v>
+        <v>70.63595571933283</v>
       </c>
     </row>
     <row r="40">
@@ -2951,7 +2951,7 @@
         <v>5.166666666666665</v>
       </c>
       <c r="H40" t="n">
-        <v>34.2</v>
+        <v>1.222222222222224</v>
       </c>
       <c r="I40" t="n">
         <v>102.57</v>
@@ -2984,7 +2984,7 @@
         <v>0.01016</v>
       </c>
       <c r="S40" t="n">
-        <v>610.4350107609969</v>
+        <v>75.66243729826611</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H41" t="n">
-        <v>34.6</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="I41" t="n">
         <v>102.33</v>
@@ -3047,7 +3047,7 @@
         <v>0.01016</v>
       </c>
       <c r="S41" t="n">
-        <v>566.995569259362</v>
+        <v>69.8344165025719</v>
       </c>
     </row>
     <row r="42">
@@ -3077,7 +3077,7 @@
         <v>6.944444444444445</v>
       </c>
       <c r="H42" t="n">
-        <v>35.4</v>
+        <v>1.888888888888888</v>
       </c>
       <c r="I42" t="n">
         <v>102.02</v>
@@ -3110,7 +3110,7 @@
         <v>0.01016</v>
       </c>
       <c r="S42" t="n">
-        <v>577.0978112735238</v>
+        <v>70.19122419774723</v>
       </c>
     </row>
     <row r="43">
@@ -3140,7 +3140,7 @@
         <v>7.222222222222222</v>
       </c>
       <c r="H43" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I43" t="n">
         <v>102.24</v>
@@ -3173,7 +3173,7 @@
         <v>0.01016</v>
       </c>
       <c r="S43" t="n">
-        <v>638.8803402810649</v>
+        <v>75.12016443377698</v>
       </c>
     </row>
     <row r="44">
@@ -3203,7 +3203,7 @@
         <v>7.166666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>37.5</v>
+        <v>3.055555555555556</v>
       </c>
       <c r="I44" t="n">
         <v>102.24</v>
@@ -3236,7 +3236,7 @@
         <v>0.01016</v>
       </c>
       <c r="S44" t="n">
-        <v>637.8310601317612</v>
+        <v>75.11055864149972</v>
       </c>
     </row>
     <row r="45">
@@ -3266,7 +3266,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H45" t="n">
-        <v>37.3</v>
+        <v>2.944444444444443</v>
       </c>
       <c r="I45" t="n">
         <v>102.14</v>
@@ -3299,7 +3299,7 @@
         <v>0.01016</v>
       </c>
       <c r="S45" t="n">
-        <v>621.3931593567746</v>
+        <v>73.3974862437537</v>
       </c>
     </row>
     <row r="46">
@@ -3329,7 +3329,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H46" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I46" t="n">
         <v>102</v>
@@ -3362,7 +3362,7 @@
         <v>0.01016</v>
       </c>
       <c r="S46" t="n">
-        <v>571.7222870209308</v>
+        <v>66.41838752812194</v>
       </c>
     </row>
     <row r="47">
@@ -3392,7 +3392,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H47" t="n">
-        <v>39.6</v>
+        <v>4.222222222222223</v>
       </c>
       <c r="I47" t="n">
         <v>101.63</v>
@@ -3425,7 +3425,7 @@
         <v>0.01016</v>
       </c>
       <c r="S47" t="n">
-        <v>525.9858159158127</v>
+        <v>60.02535523181739</v>
       </c>
     </row>
     <row r="48">
@@ -3455,7 +3455,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H48" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>101.38</v>
@@ -3488,7 +3488,7 @@
         <v>0.01016</v>
       </c>
       <c r="S48" t="n">
-        <v>493.4722901688881</v>
+        <v>58.19924302499351</v>
       </c>
     </row>
     <row r="49">
@@ -3518,7 +3518,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H49" t="n">
-        <v>34.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I49" t="n">
         <v>101.74</v>
@@ -3551,7 +3551,7 @@
         <v>0.01016</v>
       </c>
       <c r="S49" t="n">
-        <v>481.85770987227</v>
+        <v>59.53635876072083</v>
       </c>
     </row>
     <row r="50">
@@ -3581,7 +3581,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H50" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I50" t="n">
         <v>102.39</v>
@@ -3614,7 +3614,7 @@
         <v>0.01016</v>
       </c>
       <c r="S50" t="n">
-        <v>396.8050746192514</v>
+        <v>52.41524458864863</v>
       </c>
     </row>
     <row r="51">
@@ -3644,7 +3644,7 @@
         <v>7.055555555555557</v>
       </c>
       <c r="H51" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I51" t="n">
         <v>103</v>
@@ -3677,7 +3677,7 @@
         <v>0.01016</v>
       </c>
       <c r="S51" t="n">
-        <v>532.8007953893458</v>
+        <v>66.14483106574687</v>
       </c>
     </row>
     <row r="52">
@@ -3707,7 +3707,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>35.5</v>
+        <v>1.944444444444445</v>
       </c>
       <c r="I52" t="n">
         <v>102.92</v>
@@ -3740,7 +3740,7 @@
         <v>0.01016</v>
       </c>
       <c r="S52" t="n">
-        <v>591.473832591392</v>
+        <v>71.82756138980895</v>
       </c>
     </row>
     <row r="53">
@@ -3770,7 +3770,7 @@
         <v>6.722222222222223</v>
       </c>
       <c r="H53" t="n">
-        <v>35.8</v>
+        <v>2.11111111111111</v>
       </c>
       <c r="I53" t="n">
         <v>103.06</v>
@@ -3803,7 +3803,7 @@
         <v>0.01016</v>
       </c>
       <c r="S53" t="n">
-        <v>599.0610053436977</v>
+        <v>72.41005306889542</v>
       </c>
     </row>
     <row r="54">
@@ -3833,7 +3833,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H54" t="n">
-        <v>36.8</v>
+        <v>2.666666666666665</v>
       </c>
       <c r="I54" t="n">
         <v>103.25</v>
@@ -3866,7 +3866,7 @@
         <v>0.01016</v>
       </c>
       <c r="S54" t="n">
-        <v>640.2020042067933</v>
+        <v>76.19847831229478</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +3896,7 @@
         <v>7.055555555555557</v>
       </c>
       <c r="H55" t="n">
-        <v>33.7</v>
+        <v>0.9444444444444461</v>
       </c>
       <c r="I55" t="n">
         <v>103.17</v>
@@ -3929,7 +3929,7 @@
         <v>0.01016</v>
       </c>
       <c r="S55" t="n">
-        <v>521.0165960230081</v>
+        <v>65.09577905643555</v>
       </c>
     </row>
     <row r="56">
@@ -3959,7 +3959,7 @@
         <v>8.277777777777777</v>
       </c>
       <c r="H56" t="n">
-        <v>32.7</v>
+        <v>0.3888888888888905</v>
       </c>
       <c r="I56" t="n">
         <v>102.88</v>
@@ -3992,7 +3992,7 @@
         <v>0.01016</v>
       </c>
       <c r="S56" t="n">
-        <v>453.1498784731108</v>
+        <v>57.53557175499583</v>
       </c>
     </row>
     <row r="57">
@@ -4022,7 +4022,7 @@
         <v>9.166666666666668</v>
       </c>
       <c r="H57" t="n">
-        <v>35.9</v>
+        <v>2.166666666666666</v>
       </c>
       <c r="I57" t="n">
         <v>102.54</v>
@@ -4055,7 +4055,7 @@
         <v>0.01016</v>
       </c>
       <c r="S57" t="n">
-        <v>510.0556191805269</v>
+        <v>61.55612923162542</v>
       </c>
     </row>
     <row r="58">
@@ -4085,7 +4085,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H58" t="n">
-        <v>37.5</v>
+        <v>3.055555555555556</v>
       </c>
       <c r="I58" t="n">
         <v>102.38</v>
@@ -4118,7 +4118,7 @@
         <v>0.01016</v>
       </c>
       <c r="S58" t="n">
-        <v>472.9714369261916</v>
+        <v>55.69679977902052</v>
       </c>
     </row>
     <row r="59">
@@ -4148,7 +4148,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I59" t="n">
         <v>101.58</v>
@@ -4181,7 +4181,7 @@
         <v>0.01016</v>
       </c>
       <c r="S59" t="n">
-        <v>508.2878648072472</v>
+        <v>58.43604557081508</v>
       </c>
     </row>
     <row r="60">
@@ -4211,7 +4211,7 @@
         <v>10.94444444444445</v>
       </c>
       <c r="H60" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I60" t="n">
         <v>101.97</v>
@@ -4244,7 +4244,7 @@
         <v>0.01016</v>
       </c>
       <c r="S60" t="n">
-        <v>659.7934857178882</v>
+        <v>71.80094401441859</v>
       </c>
     </row>
     <row r="61">
@@ -4274,7 +4274,7 @@
         <v>10.55555555555556</v>
       </c>
       <c r="H61" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I61" t="n">
         <v>102.32</v>
@@ -4307,7 +4307,7 @@
         <v>0.01016</v>
       </c>
       <c r="S61" t="n">
-        <v>615.7214225387917</v>
+        <v>68.74585171642909</v>
       </c>
     </row>
     <row r="62">
@@ -4337,7 +4337,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H62" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I62" t="n">
         <v>101.9</v>
@@ -4370,7 +4370,7 @@
         <v>0.01016</v>
       </c>
       <c r="S62" t="n">
-        <v>574.7304274595137</v>
+        <v>64.72947597922382</v>
       </c>
     </row>
     <row r="63">
@@ -4400,7 +4400,7 @@
         <v>10.5</v>
       </c>
       <c r="H63" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I63" t="n">
         <v>101.72</v>
@@ -4433,7 +4433,7 @@
         <v>0.01016</v>
       </c>
       <c r="S63" t="n">
-        <v>658.5077909061348</v>
+        <v>72.27124282588355</v>
       </c>
     </row>
     <row r="64">
@@ -4463,7 +4463,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H64" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I64" t="n">
         <v>101.74</v>
@@ -4496,7 +4496,7 @@
         <v>0.01016</v>
       </c>
       <c r="S64" t="n">
-        <v>611.5797727702027</v>
+        <v>64.99899643189254</v>
       </c>
     </row>
     <row r="65">
@@ -4526,7 +4526,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>46.9</v>
+        <v>8.277777777777777</v>
       </c>
       <c r="I65" t="n">
         <v>101.56</v>
@@ -4559,7 +4559,7 @@
         <v>0.01016</v>
       </c>
       <c r="S65" t="n">
-        <v>765.0870384911992</v>
+        <v>78.82281246043323</v>
       </c>
     </row>
     <row r="66">
@@ -4589,7 +4589,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H66" t="n">
-        <v>46.6</v>
+        <v>8.111111111111112</v>
       </c>
       <c r="I66" t="n">
         <v>102.1</v>
@@ -4622,7 +4622,7 @@
         <v>0.01016</v>
       </c>
       <c r="S66" t="n">
-        <v>708.0873367653149</v>
+        <v>73.24298171914026</v>
       </c>
     </row>
     <row r="67">
@@ -4652,7 +4652,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H67" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I67" t="n">
         <v>101.76</v>
@@ -4685,7 +4685,7 @@
         <v>0.01016</v>
       </c>
       <c r="S67" t="n">
-        <v>586.1929391229575</v>
+        <v>61.29009496159473</v>
       </c>
     </row>
     <row r="68">
@@ -4715,7 +4715,7 @@
         <v>18.27777777777778</v>
       </c>
       <c r="H68" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I68" t="n">
         <v>100.83</v>
@@ -4748,7 +4748,7 @@
         <v>0.01016</v>
       </c>
       <c r="S68" t="n">
-        <v>477.6192633635259</v>
+        <v>49.93804608229369</v>
       </c>
     </row>
     <row r="69">
@@ -4778,7 +4778,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H69" t="n">
-        <v>50.2</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="I69" t="n">
         <v>100.97</v>
@@ -4811,7 +4811,7 @@
         <v>0.01016</v>
       </c>
       <c r="S69" t="n">
-        <v>526.8956545588711</v>
+        <v>52.00166755618215</v>
       </c>
     </row>
     <row r="70">
@@ -4841,7 +4841,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H70" t="n">
-        <v>53.9</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="I70" t="n">
         <v>100.99</v>
@@ -4874,7 +4874,7 @@
         <v>0.01016</v>
       </c>
       <c r="S70" t="n">
-        <v>682.1128986599895</v>
+        <v>64.30327369877504</v>
       </c>
     </row>
     <row r="71">
@@ -4904,7 +4904,7 @@
         <v>21.66666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I71" t="n">
         <v>100.62</v>
@@ -4937,7 +4937,7 @@
         <v>0.01016</v>
       </c>
       <c r="S71" t="n">
-        <v>586.1341924897094</v>
+        <v>55.12216834297266</v>
       </c>
     </row>
     <row r="72">
@@ -4967,7 +4967,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I72" t="n">
         <v>100.67</v>
@@ -5000,7 +5000,7 @@
         <v>0.01016</v>
       </c>
       <c r="S72" t="n">
-        <v>652.9609192634613</v>
+        <v>60.24763545842698</v>
       </c>
     </row>
     <row r="73">
@@ -5030,7 +5030,7 @@
         <v>23.27777777777778</v>
       </c>
       <c r="H73" t="n">
-        <v>58.5</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="I73" t="n">
         <v>100.64</v>
@@ -5063,7 +5063,7 @@
         <v>0.01016</v>
       </c>
       <c r="S73" t="n">
-        <v>656.0257092053077</v>
+        <v>58.6039533640205</v>
       </c>
     </row>
     <row r="74">
@@ -5093,7 +5093,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I74" t="n">
         <v>100.89</v>
@@ -5126,7 +5126,7 @@
         <v>0.01016</v>
       </c>
       <c r="S74" t="n">
-        <v>567.921937789707</v>
+        <v>51.73179685933561</v>
       </c>
     </row>
     <row r="75">
@@ -5156,7 +5156,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H75" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I75" t="n">
         <v>100.47</v>
@@ -5189,7 +5189,7 @@
         <v>0.01016</v>
       </c>
       <c r="S75" t="n">
-        <v>552.6676421678062</v>
+        <v>50.63612657418977</v>
       </c>
     </row>
     <row r="76">
@@ -5219,7 +5219,7 @@
         <v>20.55555555555556</v>
       </c>
       <c r="H76" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I76" t="n">
         <v>100.39</v>
@@ -5252,7 +5252,7 @@
         <v>0.01016</v>
       </c>
       <c r="S76" t="n">
-        <v>846.8674378456882</v>
+        <v>74.06239043180024</v>
       </c>
     </row>
     <row r="77">
@@ -5282,7 +5282,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I77" t="n">
         <v>100.77</v>
@@ -5315,7 +5315,7 @@
         <v>0.01016</v>
       </c>
       <c r="S77" t="n">
-        <v>676.6559499054339</v>
+        <v>61.28114490265991</v>
       </c>
     </row>
     <row r="78">
@@ -5345,7 +5345,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H78" t="n">
-        <v>58.5</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="I78" t="n">
         <v>100.39</v>
@@ -5378,7 +5378,7 @@
         <v>0.01016</v>
       </c>
       <c r="S78" t="n">
-        <v>706.5755854018355</v>
+        <v>63.11966447962133</v>
       </c>
     </row>
     <row r="79">
@@ -5408,7 +5408,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H79" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I79" t="n">
         <v>100.04</v>
@@ -5441,7 +5441,7 @@
         <v>0.01016</v>
       </c>
       <c r="S79" t="n">
-        <v>606.44614410483</v>
+        <v>57.03237735423529</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +5471,7 @@
         <v>12.5</v>
       </c>
       <c r="H80" t="n">
-        <v>47</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I80" t="n">
         <v>100.79</v>
@@ -5504,7 +5504,7 @@
         <v>0.01016</v>
       </c>
       <c r="S80" t="n">
-        <v>735.9828533427948</v>
+        <v>75.72355908126136</v>
       </c>
     </row>
     <row r="81">
@@ -5534,7 +5534,7 @@
         <v>10.61111111111111</v>
       </c>
       <c r="H81" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I81" t="n">
         <v>101.54</v>
@@ -5567,7 +5567,7 @@
         <v>0.01016</v>
       </c>
       <c r="S81" t="n">
-        <v>784.2314969518017</v>
+        <v>81.99625023113333</v>
       </c>
     </row>
     <row r="82">
@@ -5597,7 +5597,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I82" t="n">
         <v>102.12</v>
@@ -5630,7 +5630,7 @@
         <v>0.01016</v>
       </c>
       <c r="S82" t="n">
-        <v>774.8088320783862</v>
+        <v>80.2517906573194</v>
       </c>
     </row>
     <row r="83">
@@ -5660,7 +5660,7 @@
         <v>14.5</v>
       </c>
       <c r="H83" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I83" t="n">
         <v>101.49</v>
@@ -5693,7 +5693,7 @@
         <v>0.01016</v>
       </c>
       <c r="S83" t="n">
-        <v>656.0245054706916</v>
+        <v>67.22873063698947</v>
       </c>
     </row>
     <row r="84">
@@ -5723,7 +5723,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H84" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I84" t="n">
         <v>100.3</v>
@@ -5756,7 +5756,7 @@
         <v>0.01016</v>
       </c>
       <c r="S84" t="n">
-        <v>741.1286290610515</v>
+        <v>71.68825452941886</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +5786,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>56.9</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="I85" t="n">
         <v>101.08</v>
@@ -5819,7 +5819,7 @@
         <v>0.01016</v>
       </c>
       <c r="S85" t="n">
-        <v>997.5912303867906</v>
+        <v>90.76494503427639</v>
       </c>
     </row>
     <row r="86">
@@ -5849,7 +5849,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H86" t="n">
-        <v>50.2</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="I86" t="n">
         <v>102.07</v>
@@ -5882,7 +5882,7 @@
         <v>0.01016</v>
       </c>
       <c r="S86" t="n">
-        <v>821.9442870219599</v>
+        <v>81.12132486498503</v>
       </c>
     </row>
     <row r="87">
@@ -5912,7 +5912,7 @@
         <v>15.22222222222222</v>
       </c>
       <c r="H87" t="n">
-        <v>48</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="I87" t="n">
         <v>101.98</v>
@@ -5945,7 +5945,7 @@
         <v>0.01016</v>
       </c>
       <c r="S87" t="n">
-        <v>648.8327777027048</v>
+        <v>65.88134234368532</v>
       </c>
     </row>
     <row r="88">
@@ -5975,7 +5975,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H88" t="n">
-        <v>46.1</v>
+        <v>7.833333333333335</v>
       </c>
       <c r="I88" t="n">
         <v>101.28</v>
@@ -6008,7 +6008,7 @@
         <v>0.01016</v>
       </c>
       <c r="S88" t="n">
-        <v>514.7771963608333</v>
+        <v>53.60576273090886</v>
       </c>
     </row>
     <row r="89">
@@ -6038,7 +6038,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H89" t="n">
-        <v>49.8</v>
+        <v>9.888888888888888</v>
       </c>
       <c r="I89" t="n">
         <v>101.3</v>
@@ -6071,7 +6071,7 @@
         <v>0.01016</v>
       </c>
       <c r="S89" t="n">
-        <v>616.5471702129894</v>
+        <v>61.16092952659103</v>
       </c>
     </row>
     <row r="90">
@@ -6101,7 +6101,7 @@
         <v>14.5</v>
       </c>
       <c r="H90" t="n">
-        <v>54.9</v>
+        <v>12.72222222222222</v>
       </c>
       <c r="I90" t="n">
         <v>101.99</v>
@@ -6134,7 +6134,7 @@
         <v>0.01016</v>
       </c>
       <c r="S90" t="n">
-        <v>956.2670184556333</v>
+        <v>89.07321706984587</v>
       </c>
     </row>
     <row r="91">
@@ -6164,7 +6164,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H91" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I91" t="n">
         <v>103.03</v>
@@ -6197,7 +6197,7 @@
         <v>0.01016</v>
       </c>
       <c r="S91" t="n">
-        <v>929.5175381333429</v>
+        <v>89.91082957850854</v>
       </c>
     </row>
     <row r="92">
@@ -6227,7 +6227,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H92" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I92" t="n">
         <v>103.24</v>
@@ -6260,7 +6260,7 @@
         <v>0.01016</v>
       </c>
       <c r="S92" t="n">
-        <v>724.7790916848908</v>
+        <v>72.92373434605273</v>
       </c>
     </row>
     <row r="93">
@@ -6290,7 +6290,7 @@
         <v>14.11111111111111</v>
       </c>
       <c r="H93" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I93" t="n">
         <v>102.85</v>
@@ -6323,7 +6323,7 @@
         <v>0.01016</v>
       </c>
       <c r="S93" t="n">
-        <v>733.1620655324679</v>
+        <v>73.48101004197977</v>
       </c>
     </row>
     <row r="94">
@@ -6353,7 +6353,7 @@
         <v>17.72222222222222</v>
       </c>
       <c r="H94" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I94" t="n">
         <v>102.2</v>
@@ -6386,7 +6386,7 @@
         <v>0.01016</v>
       </c>
       <c r="S94" t="n">
-        <v>539.5062699155218</v>
+        <v>55.1420650640711</v>
       </c>
     </row>
     <row r="95">
@@ -6416,7 +6416,7 @@
         <v>14.44444444444444</v>
       </c>
       <c r="H95" t="n">
-        <v>52.2</v>
+        <v>11.22222222222222</v>
       </c>
       <c r="I95" t="n">
         <v>102.49</v>
@@ -6449,7 +6449,7 @@
         <v>0.01016</v>
       </c>
       <c r="S95" t="n">
-        <v>841.3186249291556</v>
+        <v>80.97679550337638</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>14.66666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I96" t="n">
         <v>102.5</v>
@@ -6512,7 +6512,7 @@
         <v>0.01016</v>
       </c>
       <c r="S96" t="n">
-        <v>813.1394584068803</v>
+        <v>78.65375344633232</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H97" t="n">
-        <v>52.9</v>
+        <v>11.61111111111111</v>
       </c>
       <c r="I97" t="n">
         <v>102.37</v>
@@ -6575,7 +6575,7 @@
         <v>0.01016</v>
       </c>
       <c r="S97" t="n">
-        <v>757.777345018412</v>
+        <v>72.31033232648552</v>
       </c>
     </row>
     <row r="98">
@@ -6605,7 +6605,7 @@
         <v>18.88888888888889</v>
       </c>
       <c r="H98" t="n">
-        <v>53.8</v>
+        <v>12.11111111111111</v>
       </c>
       <c r="I98" t="n">
         <v>101.9</v>
@@ -6638,7 +6638,7 @@
         <v>0.01016</v>
       </c>
       <c r="S98" t="n">
-        <v>685.9042785588606</v>
+        <v>64.73888592242648</v>
       </c>
     </row>
     <row r="99">
@@ -6668,7 +6668,7 @@
         <v>21.5</v>
       </c>
       <c r="H99" t="n">
-        <v>51.3</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="I99" t="n">
         <v>101.14</v>
@@ -6701,7 +6701,7 @@
         <v>0.01016</v>
       </c>
       <c r="S99" t="n">
-        <v>516.1689422326848</v>
+        <v>50.24075072639443</v>
       </c>
     </row>
     <row r="100">
@@ -6731,7 +6731,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H100" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I100" t="n">
         <v>100.85</v>
@@ -6764,7 +6764,7 @@
         <v>0.01016</v>
       </c>
       <c r="S100" t="n">
-        <v>546.1703371909952</v>
+        <v>52.05414797850226</v>
       </c>
     </row>
     <row r="101">
@@ -6794,7 +6794,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H101" t="n">
-        <v>56.1</v>
+        <v>13.38888888888889</v>
       </c>
       <c r="I101" t="n">
         <v>100.63</v>
@@ -6827,7 +6827,7 @@
         <v>0.01016</v>
       </c>
       <c r="S101" t="n">
-        <v>599.2118874764476</v>
+        <v>55.02915101332108</v>
       </c>
     </row>
     <row r="102">
@@ -6857,7 +6857,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H102" t="n">
-        <v>55.9</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="I102" t="n">
         <v>100.24</v>
@@ -6890,7 +6890,7 @@
         <v>0.01016</v>
       </c>
       <c r="S102" t="n">
-        <v>499.0675060188382</v>
+        <v>45.9399456152079</v>
       </c>
     </row>
     <row r="103">
@@ -6920,7 +6920,7 @@
         <v>16.55555555555555</v>
       </c>
       <c r="H103" t="n">
-        <v>58.1</v>
+        <v>14.5</v>
       </c>
       <c r="I103" t="n">
         <v>100.86</v>
@@ -6953,7 +6953,7 @@
         <v>0.01016</v>
       </c>
       <c r="S103" t="n">
-        <v>976.7250601732283</v>
+        <v>87.64993932150632</v>
       </c>
     </row>
     <row r="104">
@@ -6983,7 +6983,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H104" t="n">
-        <v>56.5</v>
+        <v>13.61111111111111</v>
       </c>
       <c r="I104" t="n">
         <v>100.86</v>
@@ -7016,7 +7016,7 @@
         <v>0.01016</v>
       </c>
       <c r="S104" t="n">
-        <v>721.6368844972305</v>
+        <v>65.96324890460345</v>
       </c>
     </row>
     <row r="105">
@@ -7046,7 +7046,7 @@
         <v>17.61111111111111</v>
       </c>
       <c r="H105" t="n">
-        <v>53.1</v>
+        <v>11.72222222222222</v>
       </c>
       <c r="I105" t="n">
         <v>101.24</v>
@@ -7079,7 +7079,7 @@
         <v>0.01016</v>
       </c>
       <c r="S105" t="n">
-        <v>718.2569874145191</v>
+        <v>68.37169146613691</v>
       </c>
     </row>
     <row r="106">
@@ -7109,7 +7109,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H106" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I106" t="n">
         <v>101.93</v>
@@ -7142,7 +7142,7 @@
         <v>0.01016</v>
       </c>
       <c r="S106" t="n">
-        <v>824.4714156325125</v>
+        <v>83.38744033393189</v>
       </c>
     </row>
     <row r="107">
@@ -7172,7 +7172,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H107" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I107" t="n">
         <v>102.02</v>
@@ -7205,7 +7205,7 @@
         <v>0.01016</v>
       </c>
       <c r="S107" t="n">
-        <v>712.7133005492667</v>
+        <v>74.01835311624293</v>
       </c>
     </row>
     <row r="108">
@@ -7235,7 +7235,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>49.2</v>
+        <v>9.555555555555557</v>
       </c>
       <c r="I108" t="n">
         <v>102.28</v>
@@ -7268,7 +7268,7 @@
         <v>0.01016</v>
       </c>
       <c r="S108" t="n">
-        <v>778.9894599893867</v>
+        <v>77.87269579622313</v>
       </c>
     </row>
     <row r="109">
@@ -7298,7 +7298,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H109" t="n">
-        <v>51.9</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="I109" t="n">
         <v>102.32</v>
@@ -7331,7 +7331,7 @@
         <v>0.01016</v>
       </c>
       <c r="S109" t="n">
-        <v>811.3222208982908</v>
+        <v>78.38050892539231</v>
       </c>
     </row>
     <row r="110">
@@ -7361,7 +7361,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H110" t="n">
-        <v>52.1</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I110" t="n">
         <v>102.01</v>
@@ -7394,7 +7394,7 @@
         <v>0.01016</v>
       </c>
       <c r="S110" t="n">
-        <v>622.4299424430117</v>
+        <v>59.98297738996341</v>
       </c>
     </row>
     <row r="111">
@@ -7424,7 +7424,7 @@
         <v>20</v>
       </c>
       <c r="H111" t="n">
-        <v>48.5</v>
+        <v>9.166666666666668</v>
       </c>
       <c r="I111" t="n">
         <v>100.94</v>
@@ -7457,7 +7457,7 @@
         <v>0.01016</v>
       </c>
       <c r="S111" t="n">
-        <v>492.2113015361838</v>
+        <v>49.65284652531609</v>
       </c>
     </row>
     <row r="112">
@@ -7487,7 +7487,7 @@
         <v>25.5</v>
       </c>
       <c r="H112" t="n">
-        <v>55.4</v>
+        <v>13</v>
       </c>
       <c r="I112" t="n">
         <v>100.5</v>
@@ -7520,7 +7520,7 @@
         <v>0.01016</v>
       </c>
       <c r="S112" t="n">
-        <v>495.3188002031611</v>
+        <v>45.86437017976176</v>
       </c>
     </row>
     <row r="113">
@@ -7550,7 +7550,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H113" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I113" t="n">
         <v>100.18</v>
@@ -7583,7 +7583,7 @@
         <v>0.01016</v>
       </c>
       <c r="S113" t="n">
-        <v>686.2036860930092</v>
+        <v>58.40717989842361</v>
       </c>
     </row>
     <row r="114">
@@ -7613,7 +7613,7 @@
         <v>20.11111111111111</v>
       </c>
       <c r="H114" t="n">
-        <v>65.5</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="I114" t="n">
         <v>100.26</v>
@@ -7646,7 +7646,7 @@
         <v>0.01016</v>
       </c>
       <c r="S114" t="n">
-        <v>1099.59114219158</v>
+        <v>91.08230712128216</v>
       </c>
     </row>
     <row r="115">
@@ -7676,7 +7676,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H115" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I115" t="n">
         <v>100.46</v>
@@ -7709,7 +7709,7 @@
         <v>0.01016</v>
       </c>
       <c r="S115" t="n">
-        <v>688.3950058850415</v>
+        <v>60.0707772198083</v>
       </c>
     </row>
     <row r="116">
@@ -7739,7 +7739,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H116" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I116" t="n">
         <v>100.5</v>
@@ -7772,7 +7772,7 @@
         <v>0.01016</v>
       </c>
       <c r="S116" t="n">
-        <v>720.4979575410046</v>
+        <v>61.19586684378044</v>
       </c>
     </row>
     <row r="117">
@@ -7802,7 +7802,7 @@
         <v>19.94444444444445</v>
       </c>
       <c r="H117" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I117" t="n">
         <v>101.24</v>
@@ -7835,7 +7835,7 @@
         <v>0.01016</v>
       </c>
       <c r="S117" t="n">
-        <v>658.0852014451485</v>
+        <v>61.7400092231437</v>
       </c>
     </row>
     <row r="118">
@@ -7865,7 +7865,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>53.3</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="I118" t="n">
         <v>102.29</v>
@@ -7898,7 +7898,7 @@
         <v>0.01016</v>
       </c>
       <c r="S118" t="n">
-        <v>786.5351080976135</v>
+        <v>74.68876106842873</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>14.11111111111111</v>
       </c>
       <c r="H119" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I119" t="n">
         <v>102.39</v>
@@ -7961,7 +7961,7 @@
         <v>0.01016</v>
       </c>
       <c r="S119" t="n">
-        <v>842.8966059358139</v>
+        <v>81.53211744749942</v>
       </c>
     </row>
     <row r="120">
@@ -7991,7 +7991,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I120" t="n">
         <v>102.09</v>
@@ -8024,7 +8024,7 @@
         <v>0.01016</v>
       </c>
       <c r="S120" t="n">
-        <v>601.878416393163</v>
+        <v>58.29128720326622</v>
       </c>
     </row>
     <row r="121">
@@ -8054,7 +8054,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H121" t="n">
-        <v>50.1</v>
+        <v>10.05555555555556</v>
       </c>
       <c r="I121" t="n">
         <v>101.75</v>
@@ -8087,7 +8087,7 @@
         <v>0.01016</v>
       </c>
       <c r="S121" t="n">
-        <v>468.4478175194257</v>
+        <v>46.29205896622152</v>
       </c>
     </row>
     <row r="122">
@@ -8117,7 +8117,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H122" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I122" t="n">
         <v>101.15</v>
@@ -8150,7 +8150,7 @@
         <v>0.01016</v>
       </c>
       <c r="S122" t="n">
-        <v>525.8469249714889</v>
+        <v>51.11873677453224</v>
       </c>
     </row>
     <row r="123">
@@ -8180,7 +8180,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>52.8</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="I123" t="n">
         <v>100.82</v>
@@ -8213,7 +8213,7 @@
         <v>0.01016</v>
       </c>
       <c r="S123" t="n">
-        <v>454.2404529612949</v>
+        <v>43.398707608747</v>
       </c>
     </row>
     <row r="124">
@@ -8243,7 +8243,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H124" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I124" t="n">
         <v>100.72</v>
@@ -8276,7 +8276,7 @@
         <v>0.01016</v>
       </c>
       <c r="S124" t="n">
-        <v>553.9379159864141</v>
+        <v>50.93103771616073</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8306,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H125" t="n">
-        <v>61</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="I125" t="n">
         <v>100.83</v>
@@ -8339,7 +8339,7 @@
         <v>0.01016</v>
       </c>
       <c r="S125" t="n">
-        <v>610.3148636320354</v>
+        <v>53.02418411572726</v>
       </c>
     </row>
     <row r="126">
@@ -8369,7 +8369,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H126" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I126" t="n">
         <v>100.78</v>
@@ -8402,7 +8402,7 @@
         <v>0.01016</v>
       </c>
       <c r="S126" t="n">
-        <v>635.2667050023315</v>
+        <v>55.31304352491577</v>
       </c>
     </row>
     <row r="127">
@@ -8432,7 +8432,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H127" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I127" t="n">
         <v>100.61</v>
@@ -8465,7 +8465,7 @@
         <v>0.01016</v>
       </c>
       <c r="S127" t="n">
-        <v>760.7648285224146</v>
+        <v>65.10054230243638</v>
       </c>
     </row>
     <row r="128">
@@ -8495,7 +8495,7 @@
         <v>15.83333333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>54.6</v>
+        <v>12.55555555555556</v>
       </c>
       <c r="I128" t="n">
         <v>101.64</v>
@@ -8528,7 +8528,7 @@
         <v>0.01016</v>
       </c>
       <c r="S128" t="n">
-        <v>865.0468917989198</v>
+        <v>80.86538457111257</v>
       </c>
     </row>
     <row r="129">
@@ -8558,7 +8558,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H129" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I129" t="n">
         <v>101.98</v>
@@ -8591,7 +8591,7 @@
         <v>0.01016</v>
       </c>
       <c r="S129" t="n">
-        <v>689.096760740548</v>
+        <v>66.9886125632261</v>
       </c>
     </row>
     <row r="130">
@@ -8621,7 +8621,7 @@
         <v>19.88888888888889</v>
       </c>
       <c r="H130" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I130" t="n">
         <v>101.65</v>
@@ -8654,7 +8654,7 @@
         <v>0.01016</v>
       </c>
       <c r="S130" t="n">
-        <v>641.372789832757</v>
+        <v>60.60910350199682</v>
       </c>
     </row>
     <row r="131">
@@ -8684,7 +8684,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H131" t="n">
-        <v>56.2</v>
+        <v>13.44444444444445</v>
       </c>
       <c r="I131" t="n">
         <v>101.42</v>
@@ -8717,7 +8717,7 @@
         <v>0.01016</v>
       </c>
       <c r="S131" t="n">
-        <v>631.2510407385115</v>
+        <v>57.90368035799459</v>
       </c>
     </row>
     <row r="132">
@@ -8747,7 +8747,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H132" t="n">
-        <v>60.3</v>
+        <v>15.72222222222222</v>
       </c>
       <c r="I132" t="n">
         <v>101.46</v>
@@ -8780,7 +8780,7 @@
         <v>0.01016</v>
       </c>
       <c r="S132" t="n">
-        <v>1023.675340445298</v>
+        <v>89.62391514854494</v>
       </c>
     </row>
     <row r="133">
@@ -8810,7 +8810,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H133" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I133" t="n">
         <v>101.35</v>
@@ -8843,7 +8843,7 @@
         <v>0.01016</v>
       </c>
       <c r="S133" t="n">
-        <v>781.6870639887592</v>
+        <v>69.28069420108336</v>
       </c>
     </row>
     <row r="134">
@@ -8873,7 +8873,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H134" t="n">
-        <v>62</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I134" t="n">
         <v>101.08</v>
@@ -8906,7 +8906,7 @@
         <v>0.01016</v>
       </c>
       <c r="S134" t="n">
-        <v>788.0815404588485</v>
+        <v>67.72887505174032</v>
       </c>
     </row>
     <row r="135">
@@ -8936,7 +8936,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H135" t="n">
-        <v>63.6</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="I135" t="n">
         <v>100.92</v>
@@ -8969,7 +8969,7 @@
         <v>0.01016</v>
       </c>
       <c r="S135" t="n">
-        <v>935.6278657383872</v>
+        <v>79.04859309733808</v>
       </c>
     </row>
     <row r="136">
@@ -8999,7 +8999,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H136" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I136" t="n">
         <v>100.78</v>
@@ -9032,7 +9032,7 @@
         <v>0.01016</v>
       </c>
       <c r="S136" t="n">
-        <v>974.7993980354958</v>
+        <v>82.61964421216345</v>
       </c>
     </row>
     <row r="137">
@@ -9062,7 +9062,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H137" t="n">
-        <v>62.5</v>
+        <v>16.94444444444445</v>
       </c>
       <c r="I137" t="n">
         <v>100.77</v>
@@ -9095,7 +9095,7 @@
         <v>0.01016</v>
       </c>
       <c r="S137" t="n">
-        <v>774.5721224561526</v>
+        <v>66.21106041939674</v>
       </c>
     </row>
     <row r="138">
@@ -9125,7 +9125,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H138" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I138" t="n">
         <v>100.75</v>
@@ -9158,7 +9158,7 @@
         <v>0.01016</v>
       </c>
       <c r="S138" t="n">
-        <v>1077.377333193842</v>
+        <v>89.51822934648834</v>
       </c>
     </row>
     <row r="139">
@@ -9188,7 +9188,7 @@
         <v>22.38888888888889</v>
       </c>
       <c r="H139" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I139" t="n">
         <v>100.56</v>
@@ -9221,7 +9221,7 @@
         <v>0.01016</v>
       </c>
       <c r="S139" t="n">
-        <v>849.5541740503203</v>
+        <v>72.31098357942682</v>
       </c>
     </row>
     <row r="140">
@@ -9251,7 +9251,7 @@
         <v>19.5</v>
       </c>
       <c r="H140" t="n">
-        <v>64.7</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="I140" t="n">
         <v>100.49</v>
@@ -9284,7 +9284,7 @@
         <v>0.01016</v>
       </c>
       <c r="S140" t="n">
-        <v>1101.552450363144</v>
+        <v>92.00176915199393</v>
       </c>
     </row>
     <row r="141">
@@ -9314,7 +9314,7 @@
         <v>21</v>
       </c>
       <c r="H141" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I141" t="n">
         <v>100.28</v>
@@ -9347,7 +9347,7 @@
         <v>0.01016</v>
       </c>
       <c r="S141" t="n">
-        <v>1026.909995035024</v>
+        <v>85.3249475568899</v>
       </c>
     </row>
     <row r="142">
@@ -9377,7 +9377,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H142" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I142" t="n">
         <v>100.46</v>
@@ -9410,7 +9410,7 @@
         <v>0.01016</v>
       </c>
       <c r="S142" t="n">
-        <v>956.0118181802087</v>
+        <v>77.75681607643099</v>
       </c>
     </row>
     <row r="143">
@@ -9440,7 +9440,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H143" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I143" t="n">
         <v>100.66</v>
@@ -9473,7 +9473,7 @@
         <v>0.01016</v>
       </c>
       <c r="S143" t="n">
-        <v>872.9437470555654</v>
+        <v>70.85866097168751</v>
       </c>
     </row>
     <row r="144">
@@ -9503,7 +9503,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H144" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I144" t="n">
         <v>100.42</v>
@@ -9536,7 +9536,7 @@
         <v>0.01016</v>
       </c>
       <c r="S144" t="n">
-        <v>914.3787018886073</v>
+        <v>74.44516373835221</v>
       </c>
     </row>
     <row r="145">
@@ -9566,7 +9566,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H145" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I145" t="n">
         <v>100.19</v>
@@ -9599,7 +9599,7 @@
         <v>0.01016</v>
       </c>
       <c r="S145" t="n">
-        <v>840.1959655842657</v>
+        <v>67.92936217471146</v>
       </c>
     </row>
     <row r="146">
@@ -9629,7 +9629,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H146" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I146" t="n">
         <v>99.91</v>
@@ -9662,7 +9662,7 @@
         <v>0.01016</v>
       </c>
       <c r="S146" t="n">
-        <v>1024.016407638961</v>
+        <v>79.20947104499777</v>
       </c>
     </row>
     <row r="147">
@@ -9692,7 +9692,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H147" t="n">
-        <v>73.59999999999999</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="I147" t="n">
         <v>99.83</v>
@@ -9725,7 +9725,7 @@
         <v>0.01016</v>
       </c>
       <c r="S147" t="n">
-        <v>951.6690060093753</v>
+        <v>72.8693900190157</v>
       </c>
     </row>
     <row r="148">
@@ -9755,7 +9755,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H148" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I148" t="n">
         <v>100.17</v>
@@ -9788,7 +9788,7 @@
         <v>0.01016</v>
       </c>
       <c r="S148" t="n">
-        <v>800.7640001895235</v>
+        <v>65.59019068832288</v>
       </c>
     </row>
     <row r="149">
@@ -9818,7 +9818,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H149" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I149" t="n">
         <v>100.59</v>
@@ -9851,7 +9851,7 @@
         <v>0.01016</v>
       </c>
       <c r="S149" t="n">
-        <v>941.2071274717123</v>
+        <v>76.4761202335648</v>
       </c>
     </row>
     <row r="150">
@@ -9881,7 +9881,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>69.59999999999999</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="I150" t="n">
         <v>100.56</v>
@@ -9914,7 +9914,7 @@
         <v>0.01016</v>
       </c>
       <c r="S150" t="n">
-        <v>905.6529196479225</v>
+        <v>72.01037135941047</v>
       </c>
     </row>
     <row r="151">
@@ -9944,7 +9944,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H151" t="n">
-        <v>65.59999999999999</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="I151" t="n">
         <v>100.4</v>
@@ -9977,7 +9977,7 @@
         <v>0.01016</v>
       </c>
       <c r="S151" t="n">
-        <v>634.1459393293977</v>
+        <v>52.47425801058755</v>
       </c>
     </row>
     <row r="152">
@@ -10007,7 +10007,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H152" t="n">
-        <v>66.8</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I152" t="n">
         <v>100.57</v>
@@ -10040,7 +10040,7 @@
         <v>0.01016</v>
       </c>
       <c r="S152" t="n">
-        <v>904.2065817545746</v>
+        <v>73.91369300569974</v>
       </c>
     </row>
     <row r="153">
@@ -10070,7 +10070,7 @@
         <v>24</v>
       </c>
       <c r="H153" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I153" t="n">
         <v>100.65</v>
@@ -10103,7 +10103,7 @@
         <v>0.01016</v>
       </c>
       <c r="S153" t="n">
-        <v>931.8166300523513</v>
+        <v>75.94105683698173</v>
       </c>
     </row>
     <row r="154">
@@ -10133,7 +10133,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H154" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I154" t="n">
         <v>100.7</v>
@@ -10166,7 +10166,7 @@
         <v>0.01016</v>
       </c>
       <c r="S154" t="n">
-        <v>1067.129565505436</v>
+        <v>86.62112805099311</v>
       </c>
     </row>
     <row r="155">
@@ -10196,7 +10196,7 @@
         <v>23</v>
       </c>
       <c r="H155" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I155" t="n">
         <v>100.67</v>
@@ -10229,7 +10229,7 @@
         <v>0.01016</v>
       </c>
       <c r="S155" t="n">
-        <v>994.2113036424589</v>
+        <v>80.9448242148581</v>
       </c>
     </row>
     <row r="156">
@@ -10259,7 +10259,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H156" t="n">
-        <v>69.09999999999999</v>
+        <v>20.61111111111111</v>
       </c>
       <c r="I156" t="n">
         <v>100.77</v>
@@ -10292,7 +10292,7 @@
         <v>0.01016</v>
       </c>
       <c r="S156" t="n">
-        <v>946.3452692818875</v>
+        <v>75.61281300995404</v>
       </c>
     </row>
     <row r="157">
@@ -10322,7 +10322,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H157" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I157" t="n">
         <v>100.66</v>
@@ -10355,7 +10355,7 @@
         <v>0.01016</v>
       </c>
       <c r="S157" t="n">
-        <v>784.6821538419841</v>
+        <v>63.25280523355554</v>
       </c>
     </row>
     <row r="158">
@@ -10385,7 +10385,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H158" t="n">
-        <v>65.90000000000001</v>
+        <v>18.83333333333334</v>
       </c>
       <c r="I158" t="n">
         <v>100.52</v>
@@ -10418,7 +10418,7 @@
         <v>0.01016</v>
       </c>
       <c r="S158" t="n">
-        <v>668.0675135948077</v>
+        <v>55.11173634813682</v>
       </c>
     </row>
     <row r="159">
@@ -10448,7 +10448,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H159" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I159" t="n">
         <v>100.35</v>
@@ -10481,7 +10481,7 @@
         <v>0.01016</v>
       </c>
       <c r="S159" t="n">
-        <v>661.8018018430294</v>
+        <v>55.73752101087364</v>
       </c>
     </row>
     <row r="160">
@@ -10511,7 +10511,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H160" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I160" t="n">
         <v>100.03</v>
@@ -10544,7 +10544,7 @@
         <v>0.01016</v>
       </c>
       <c r="S160" t="n">
-        <v>820.7060366581311</v>
+        <v>65.83156382849475</v>
       </c>
     </row>
     <row r="161">
@@ -10574,7 +10574,7 @@
         <v>27</v>
       </c>
       <c r="H161" t="n">
-        <v>69.40000000000001</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="I161" t="n">
         <v>99.825</v>
@@ -10607,7 +10607,7 @@
         <v>0.01016</v>
       </c>
       <c r="S161" t="n">
-        <v>863.1370321180713</v>
+        <v>68.76322415750276</v>
       </c>
     </row>
     <row r="162">
@@ -10637,7 +10637,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H162" t="n">
-        <v>73</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="I162" t="n">
         <v>99.62</v>
@@ -10670,7 +10670,7 @@
         <v>0.01016</v>
       </c>
       <c r="S162" t="n">
-        <v>821.0761670432207</v>
+        <v>63.21791020205815</v>
       </c>
     </row>
     <row r="163">
@@ -10700,7 +10700,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H163" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I163" t="n">
         <v>100.32</v>
@@ -10733,7 +10733,7 @@
         <v>0.01016</v>
       </c>
       <c r="S163" t="n">
-        <v>1049.714716605503</v>
+        <v>79.86547146640635</v>
       </c>
     </row>
     <row r="164">
@@ -10763,7 +10763,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H164" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I164" t="n">
         <v>99.67</v>
@@ -10796,7 +10796,7 @@
         <v>0.01016</v>
       </c>
       <c r="S164" t="n">
-        <v>1106.956134717183</v>
+        <v>82.65460597982288</v>
       </c>
     </row>
     <row r="165">
@@ -10826,7 +10826,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I165" t="n">
         <v>99.81</v>
@@ -10859,7 +10859,7 @@
         <v>0.01016</v>
       </c>
       <c r="S165" t="n">
-        <v>1197.777934030034</v>
+        <v>90.8014334945405</v>
       </c>
     </row>
     <row r="166">
@@ -10889,7 +10889,7 @@
         <v>30.5</v>
       </c>
       <c r="H166" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I166" t="n">
         <v>99.83</v>
@@ -10922,7 +10922,7 @@
         <v>0.01016</v>
       </c>
       <c r="S166" t="n">
-        <v>792.3725670396921</v>
+        <v>61.52062218156473</v>
       </c>
     </row>
     <row r="167">
@@ -10952,7 +10952,7 @@
         <v>31</v>
       </c>
       <c r="H167" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I167" t="n">
         <v>99.99000000000001</v>
@@ -10985,7 +10985,7 @@
         <v>0.01016</v>
       </c>
       <c r="S167" t="n">
-        <v>793.6163509402219</v>
+        <v>61.2168517353109</v>
       </c>
     </row>
     <row r="168">
@@ -11015,7 +11015,7 @@
         <v>32.22222222222222</v>
       </c>
       <c r="H168" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I168" t="n">
         <v>100.15</v>
@@ -11048,7 +11048,7 @@
         <v>0.01016</v>
       </c>
       <c r="S168" t="n">
-        <v>624.7164455760128</v>
+        <v>50.0124238348636</v>
       </c>
     </row>
     <row r="169">
@@ -11078,7 +11078,7 @@
         <v>23.5</v>
       </c>
       <c r="H169" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I169" t="n">
         <v>100.57</v>
@@ -11111,7 +11111,7 @@
         <v>0.01016</v>
       </c>
       <c r="S169" t="n">
-        <v>1086.830313950215</v>
+        <v>86.16573909293189</v>
       </c>
     </row>
     <row r="170">
@@ -11141,7 +11141,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H170" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I170" t="n">
         <v>100.45</v>
@@ -11174,7 +11174,7 @@
         <v>0.01016</v>
       </c>
       <c r="S170" t="n">
-        <v>1077.613929308329</v>
+        <v>84.78148099923811</v>
       </c>
     </row>
     <row r="171">
@@ -11204,7 +11204,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H171" t="n">
-        <v>73.09999999999999</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I171" t="n">
         <v>100.03</v>
@@ -11237,7 +11237,7 @@
         <v>0.01016</v>
       </c>
       <c r="S171" t="n">
-        <v>940.5747371211689</v>
+        <v>72.35174391335583</v>
       </c>
     </row>
     <row r="172">
@@ -11267,7 +11267,7 @@
         <v>31.27777777777778</v>
       </c>
       <c r="H172" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I172" t="n">
         <v>99.77000000000001</v>
@@ -11300,7 +11300,7 @@
         <v>0.01016</v>
       </c>
       <c r="S172" t="n">
-        <v>840.0616299429316</v>
+        <v>63.79874270960562</v>
       </c>
     </row>
     <row r="173">
@@ -11330,7 +11330,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H173" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I173" t="n">
         <v>99.92999999999999</v>
@@ -11363,7 +11363,7 @@
         <v>0.01016</v>
       </c>
       <c r="S173" t="n">
-        <v>802.6016684447632</v>
+        <v>63.14483903050691</v>
       </c>
     </row>
     <row r="174">
@@ -11393,7 +11393,7 @@
         <v>31.77777777777778</v>
       </c>
       <c r="H174" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I174" t="n">
         <v>100.02</v>
@@ -11426,7 +11426,7 @@
         <v>0.01016</v>
       </c>
       <c r="S174" t="n">
-        <v>657.7956239106437</v>
+        <v>52.35347976966371</v>
       </c>
     </row>
     <row r="175">
@@ -11456,7 +11456,7 @@
         <v>33.61111111111111</v>
       </c>
       <c r="H175" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I175" t="n">
         <v>99.89000000000001</v>
@@ -11489,7 +11489,7 @@
         <v>0.01016</v>
       </c>
       <c r="S175" t="n">
-        <v>593.1734336886099</v>
+        <v>47.2102462097515</v>
       </c>
     </row>
     <row r="176">
@@ -11519,7 +11519,7 @@
         <v>33.00000000000001</v>
       </c>
       <c r="H176" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I176" t="n">
         <v>99.76000000000001</v>
@@ -11552,7 +11552,7 @@
         <v>0.01016</v>
       </c>
       <c r="S176" t="n">
-        <v>749.1223739842085</v>
+        <v>57.09914142898845</v>
       </c>
     </row>
     <row r="177">
@@ -11582,7 +11582,7 @@
         <v>33.66666666666666</v>
       </c>
       <c r="H177" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I177" t="n">
         <v>99.65000000000001</v>
@@ -11615,7 +11615,7 @@
         <v>0.01016</v>
       </c>
       <c r="S177" t="n">
-        <v>673.7634460780473</v>
+        <v>52.11678814438802</v>
       </c>
     </row>
     <row r="178">
@@ -11645,7 +11645,7 @@
         <v>34.88888888888889</v>
       </c>
       <c r="H178" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I178" t="n">
         <v>99.57000000000001</v>
@@ -11678,7 +11678,7 @@
         <v>0.01016</v>
       </c>
       <c r="S178" t="n">
-        <v>592.3706334071452</v>
+        <v>46.42777292146788</v>
       </c>
     </row>
     <row r="179">
@@ -11708,7 +11708,7 @@
         <v>35.05555555555556</v>
       </c>
       <c r="H179" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I179" t="n">
         <v>99.62</v>
@@ -11741,7 +11741,7 @@
         <v>0.01016</v>
       </c>
       <c r="S179" t="n">
-        <v>592.0399615565748</v>
+        <v>46.31398093019748</v>
       </c>
     </row>
     <row r="180">
@@ -11771,7 +11771,7 @@
         <v>33.33333333333334</v>
       </c>
       <c r="H180" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I180" t="n">
         <v>99.72</v>
@@ -11804,7 +11804,7 @@
         <v>0.01016</v>
       </c>
       <c r="S180" t="n">
-        <v>735.2167279731964</v>
+        <v>56.03923389476099</v>
       </c>
     </row>
     <row r="181">
@@ -11834,7 +11834,7 @@
         <v>36.38888888888889</v>
       </c>
       <c r="H181" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I181" t="n">
         <v>99.71000000000001</v>
@@ -11867,7 +11867,7 @@
         <v>0.01016</v>
       </c>
       <c r="S181" t="n">
-        <v>526.5968530938538</v>
+        <v>41.58903975750685</v>
       </c>
     </row>
     <row r="182">
@@ -11897,7 +11897,7 @@
         <v>33.05555555555556</v>
       </c>
       <c r="H182" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I182" t="n">
         <v>99.69</v>
@@ -11930,7 +11930,7 @@
         <v>0.01016</v>
       </c>
       <c r="S182" t="n">
-        <v>644.9536640605045</v>
+        <v>50.74185227916581</v>
       </c>
     </row>
     <row r="183">
@@ -11960,7 +11960,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H183" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I183" t="n">
         <v>99.965</v>
@@ -11993,7 +11993,7 @@
         <v>0.01016</v>
       </c>
       <c r="S183" t="n">
-        <v>828.720207563648</v>
+        <v>64.16268655277594</v>
       </c>
     </row>
     <row r="184">
@@ -12023,7 +12023,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H184" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I184" t="n">
         <v>100.24</v>
@@ -12056,7 +12056,7 @@
         <v>0.01016</v>
       </c>
       <c r="S184" t="n">
-        <v>1146.231682244925</v>
+        <v>88.91142354240108</v>
       </c>
     </row>
     <row r="185">
@@ -12086,7 +12086,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H185" t="n">
-        <v>71</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="I185" t="n">
         <v>100.62</v>
@@ -12119,7 +12119,7 @@
         <v>0.01016</v>
       </c>
       <c r="S185" t="n">
-        <v>910.6992336676908</v>
+        <v>71.44499254818663</v>
       </c>
     </row>
     <row r="186">
@@ -12149,7 +12149,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H186" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I186" t="n">
         <v>100.53</v>
@@ -12182,7 +12182,7 @@
         <v>0.01016</v>
       </c>
       <c r="S186" t="n">
-        <v>880.0187842028234</v>
+        <v>67.44493155165712</v>
       </c>
     </row>
     <row r="187">
@@ -12212,7 +12212,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H187" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I187" t="n">
         <v>100.68</v>
@@ -12245,7 +12245,7 @@
         <v>0.01016</v>
       </c>
       <c r="S187" t="n">
-        <v>1100.636117711428</v>
+        <v>85.69527856755921</v>
       </c>
     </row>
     <row r="188">
@@ -12275,7 +12275,7 @@
         <v>30.94444444444445</v>
       </c>
       <c r="H188" t="n">
-        <v>72.59999999999999</v>
+        <v>22.55555555555555</v>
       </c>
       <c r="I188" t="n">
         <v>100.25</v>
@@ -12308,7 +12308,7 @@
         <v>0.01016</v>
       </c>
       <c r="S188" t="n">
-        <v>789.3156694726212</v>
+        <v>60.99820854969455</v>
       </c>
     </row>
     <row r="189">
@@ -12338,7 +12338,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H189" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I189" t="n">
         <v>100.39</v>
@@ -12371,7 +12371,7 @@
         <v>0.01016</v>
       </c>
       <c r="S189" t="n">
-        <v>944.3925704623398</v>
+        <v>71.98290535432839</v>
       </c>
     </row>
     <row r="190">
@@ -12401,7 +12401,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I190" t="n">
         <v>100.53</v>
@@ -12434,7 +12434,7 @@
         <v>0.01016</v>
       </c>
       <c r="S190" t="n">
-        <v>940.8523873891136</v>
+        <v>73.39256614591199</v>
       </c>
     </row>
     <row r="191">
@@ -12464,7 +12464,7 @@
         <v>30.77777777777778</v>
       </c>
       <c r="H191" t="n">
-        <v>69.40000000000001</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="I191" t="n">
         <v>100.28</v>
@@ -12497,7 +12497,7 @@
         <v>0.01016</v>
       </c>
       <c r="S191" t="n">
-        <v>693.3173039564184</v>
+        <v>55.23425760940945</v>
       </c>
     </row>
     <row r="192">
@@ -12527,7 +12527,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H192" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I192" t="n">
         <v>100.15</v>
@@ -12560,7 +12560,7 @@
         <v>0.01016</v>
       </c>
       <c r="S192" t="n">
-        <v>789.8542395131085</v>
+        <v>61.32509663873682</v>
       </c>
     </row>
     <row r="193">
@@ -12590,7 +12590,7 @@
         <v>34.22222222222222</v>
       </c>
       <c r="H193" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I193" t="n">
         <v>100.11</v>
@@ -12623,7 +12623,7 @@
         <v>0.01016</v>
       </c>
       <c r="S193" t="n">
-        <v>583.3958904201943</v>
+        <v>46.2526094796964</v>
       </c>
     </row>
     <row r="194">
@@ -12653,7 +12653,7 @@
         <v>32.22222222222222</v>
       </c>
       <c r="H194" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I194" t="n">
         <v>100.07</v>
@@ -12686,7 +12686,7 @@
         <v>0.01016</v>
       </c>
       <c r="S194" t="n">
-        <v>641.4296607609917</v>
+        <v>51.05092455415081</v>
       </c>
     </row>
     <row r="195">
@@ -12716,7 +12716,7 @@
         <v>32.55555555555556</v>
       </c>
       <c r="H195" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I195" t="n">
         <v>100.32</v>
@@ -12749,7 +12749,7 @@
         <v>0.01016</v>
       </c>
       <c r="S195" t="n">
-        <v>623.9482316475203</v>
+        <v>49.7562387631065</v>
       </c>
     </row>
     <row r="196">
@@ -12779,7 +12779,7 @@
         <v>34.05555555555556</v>
       </c>
       <c r="H196" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I196" t="n">
         <v>100.16</v>
@@ -12812,7 +12812,7 @@
         <v>0.01016</v>
       </c>
       <c r="S196" t="n">
-        <v>586.2738434480264</v>
+        <v>46.52570138873403</v>
       </c>
     </row>
     <row r="197">
@@ -12842,7 +12842,7 @@
         <v>34.5</v>
       </c>
       <c r="H197" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I197" t="n">
         <v>100.13</v>
@@ -12875,7 +12875,7 @@
         <v>0.01016</v>
       </c>
       <c r="S197" t="n">
-        <v>584.5755331858616</v>
+        <v>46.16802198512097</v>
       </c>
     </row>
     <row r="198">
@@ -12905,7 +12905,7 @@
         <v>33.94444444444444</v>
       </c>
       <c r="H198" t="n">
-        <v>72</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I198" t="n">
         <v>100.11</v>
@@ -12938,7 +12938,7 @@
         <v>0.01016</v>
       </c>
       <c r="S198" t="n">
-        <v>649.2113785248304</v>
+        <v>50.45266571085253</v>
       </c>
     </row>
     <row r="199">
@@ -12968,7 +12968,7 @@
         <v>32.5</v>
       </c>
       <c r="H199" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I199" t="n">
         <v>100.04</v>
@@ -13001,7 +13001,7 @@
         <v>0.01016</v>
       </c>
       <c r="S199" t="n">
-        <v>760.7342030026014</v>
+        <v>58.14300942579874</v>
       </c>
     </row>
     <row r="200">
@@ -13031,7 +13031,7 @@
         <v>33.72222222222223</v>
       </c>
       <c r="H200" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I200" t="n">
         <v>100.01</v>
@@ -13064,7 +13064,7 @@
         <v>0.01016</v>
       </c>
       <c r="S200" t="n">
-        <v>632.1810210613862</v>
+        <v>49.54796074593139</v>
       </c>
     </row>
     <row r="201">
@@ -13094,7 +13094,7 @@
         <v>35.22222222222223</v>
       </c>
       <c r="H201" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I201" t="n">
         <v>99.92</v>
@@ -13127,7 +13127,7 @@
         <v>0.01016</v>
       </c>
       <c r="S201" t="n">
-        <v>530.4587845474547</v>
+        <v>42.42498708710727</v>
       </c>
     </row>
     <row r="202">
@@ -13157,7 +13157,7 @@
         <v>35.22222222222223</v>
       </c>
       <c r="H202" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I202" t="n">
         <v>99.97</v>
@@ -13190,7 +13190,7 @@
         <v>0.01016</v>
       </c>
       <c r="S202" t="n">
-        <v>494.1726441114029</v>
+        <v>40.15312405115431</v>
       </c>
     </row>
     <row r="203">
@@ -13220,7 +13220,7 @@
         <v>36.27777777777778</v>
       </c>
       <c r="H203" t="n">
-        <v>64.7</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="I203" t="n">
         <v>99.81</v>
@@ -13253,7 +13253,7 @@
         <v>0.01016</v>
       </c>
       <c r="S203" t="n">
-        <v>412.9818067295811</v>
+        <v>34.49228117479348</v>
       </c>
     </row>
     <row r="204">
@@ -13283,7 +13283,7 @@
         <v>35.44444444444444</v>
       </c>
       <c r="H204" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I204" t="n">
         <v>99.92</v>
@@ -13316,7 +13316,7 @@
         <v>0.01016</v>
       </c>
       <c r="S204" t="n">
-        <v>462.6466097118629</v>
+        <v>38.04918688901216</v>
       </c>
     </row>
     <row r="205">
@@ -13346,7 +13346,7 @@
         <v>37.5</v>
       </c>
       <c r="H205" t="n">
-        <v>68.3</v>
+        <v>20.16666666666666</v>
       </c>
       <c r="I205" t="n">
         <v>99.88</v>
@@ -13379,7 +13379,7 @@
         <v>0.01016</v>
       </c>
       <c r="S205" t="n">
-        <v>453.8194816578594</v>
+        <v>36.54601692674725</v>
       </c>
     </row>
     <row r="206">
@@ -13409,7 +13409,7 @@
         <v>36.38888888888889</v>
       </c>
       <c r="H206" t="n">
-        <v>69.7</v>
+        <v>20.94444444444445</v>
       </c>
       <c r="I206" t="n">
         <v>99.84</v>
@@ -13442,7 +13442,7 @@
         <v>0.01016</v>
       </c>
       <c r="S206" t="n">
-        <v>512.9447678967211</v>
+        <v>40.74582754114026</v>
       </c>
     </row>
     <row r="207">
@@ -13472,7 +13472,7 @@
         <v>35.77777777777779</v>
       </c>
       <c r="H207" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I207" t="n">
         <v>99.91</v>
@@ -13505,7 +13505,7 @@
         <v>0.01016</v>
       </c>
       <c r="S207" t="n">
-        <v>481.3653923013885</v>
+        <v>39.07343085008239</v>
       </c>
     </row>
     <row r="208">
@@ -13535,7 +13535,7 @@
         <v>36</v>
       </c>
       <c r="H208" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I208" t="n">
         <v>99.8</v>
@@ -13568,7 +13568,7 @@
         <v>0.01016</v>
       </c>
       <c r="S208" t="n">
-        <v>458.8381991975483</v>
+        <v>37.54525461879561</v>
       </c>
     </row>
     <row r="209">
@@ -13598,7 +13598,7 @@
         <v>34.61111111111111</v>
       </c>
       <c r="H209" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I209" t="n">
         <v>100.17</v>
@@ -13631,7 +13631,7 @@
         <v>0.01016</v>
       </c>
       <c r="S209" t="n">
-        <v>506.6889143435686</v>
+        <v>41.25264413399485</v>
       </c>
     </row>
     <row r="210">
@@ -13661,7 +13661,7 @@
         <v>30.66666666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>63.4</v>
+        <v>17.44444444444444</v>
       </c>
       <c r="I210" t="n">
         <v>100.13</v>
@@ -13694,7 +13694,7 @@
         <v>0.01016</v>
       </c>
       <c r="S210" t="n">
-        <v>533.2611199038738</v>
+        <v>45.14901930801402</v>
       </c>
     </row>
     <row r="211">
@@ -13724,7 +13724,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H211" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I211" t="n">
         <v>101.37</v>
@@ -13757,7 +13757,7 @@
         <v>0.01016</v>
       </c>
       <c r="S211" t="n">
-        <v>872.8869815830355</v>
+        <v>74.29698790251331</v>
       </c>
     </row>
     <row r="212">
@@ -13787,7 +13787,7 @@
         <v>21.5</v>
       </c>
       <c r="H212" t="n">
-        <v>65.59999999999999</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="I212" t="n">
         <v>101.37</v>
@@ -13820,7 +13820,7 @@
         <v>0.01016</v>
       </c>
       <c r="S212" t="n">
-        <v>1013.995516734753</v>
+        <v>83.90602078598191</v>
       </c>
     </row>
     <row r="213">
@@ -13850,7 +13850,7 @@
         <v>24.5</v>
       </c>
       <c r="H213" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I213" t="n">
         <v>101.2</v>
@@ -13883,7 +13883,7 @@
         <v>0.01016</v>
       </c>
       <c r="S213" t="n">
-        <v>797.2051151177217</v>
+        <v>66.86061060351463</v>
       </c>
     </row>
     <row r="214">
@@ -13913,7 +13913,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H214" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I214" t="n">
         <v>101.14</v>
@@ -13946,7 +13946,7 @@
         <v>0.01016</v>
       </c>
       <c r="S214" t="n">
-        <v>701.9358731300589</v>
+        <v>59.11764725922025</v>
       </c>
     </row>
     <row r="215">
@@ -13976,7 +13976,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H215" t="n">
-        <v>62.5</v>
+        <v>16.94444444444445</v>
       </c>
       <c r="I215" t="n">
         <v>101.24</v>
@@ -14009,7 +14009,7 @@
         <v>0.01016</v>
       </c>
       <c r="S215" t="n">
-        <v>649.8117821373806</v>
+        <v>55.54644418637666</v>
       </c>
     </row>
     <row r="216">
@@ -14039,7 +14039,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H216" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I216" t="n">
         <v>101.52</v>
@@ -14072,7 +14072,7 @@
         <v>0.01016</v>
       </c>
       <c r="S216" t="n">
-        <v>696.2018816082274</v>
+        <v>59.19515104457356</v>
       </c>
     </row>
     <row r="217">
@@ -14102,7 +14102,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H217" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I217" t="n">
         <v>101.87</v>
@@ -14135,7 +14135,7 @@
         <v>0.01016</v>
       </c>
       <c r="S217" t="n">
-        <v>849.4554647966045</v>
+        <v>71.24278304261315</v>
       </c>
     </row>
     <row r="218">
@@ -14165,7 +14165,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H218" t="n">
-        <v>65</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="I218" t="n">
         <v>101.72</v>
@@ -14198,7 +14198,7 @@
         <v>0.01016</v>
       </c>
       <c r="S218" t="n">
-        <v>785.5405190737966</v>
+        <v>65.40474974154682</v>
       </c>
     </row>
     <row r="219">
@@ -14228,7 +14228,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H219" t="n">
-        <v>64.5</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="I219" t="n">
         <v>101.15</v>
@@ -14261,7 +14261,7 @@
         <v>0.01016</v>
       </c>
       <c r="S219" t="n">
-        <v>762.8915437313071</v>
+        <v>63.84945019620665</v>
       </c>
     </row>
     <row r="220">
@@ -14291,7 +14291,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>64.09999999999999</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="I220" t="n">
         <v>100.85</v>
@@ -14324,7 +14324,7 @@
         <v>0.01016</v>
       </c>
       <c r="S220" t="n">
-        <v>594.4340225019579</v>
+        <v>49.95884226819968</v>
       </c>
     </row>
     <row r="221">
@@ -14354,7 +14354,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H221" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I221" t="n">
         <v>101.01</v>
@@ -14387,7 +14387,7 @@
         <v>0.01016</v>
       </c>
       <c r="S221" t="n">
-        <v>717.1717337979123</v>
+        <v>60.14830953791473</v>
       </c>
     </row>
     <row r="222">
@@ -14417,7 +14417,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H222" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I222" t="n">
         <v>100.78</v>
@@ -14450,7 +14450,7 @@
         <v>0.01016</v>
       </c>
       <c r="S222" t="n">
-        <v>942.2474235370196</v>
+        <v>77.41401914036229</v>
       </c>
     </row>
     <row r="223">
@@ -14480,7 +14480,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H223" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I223" t="n">
         <v>100.52</v>
@@ -14513,7 +14513,7 @@
         <v>0.01016</v>
       </c>
       <c r="S223" t="n">
-        <v>941.0822383847587</v>
+        <v>74.68269596989488</v>
       </c>
     </row>
     <row r="224">
@@ -14543,7 +14543,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H224" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I224" t="n">
         <v>100.65</v>
@@ -14576,7 +14576,7 @@
         <v>0.01016</v>
       </c>
       <c r="S224" t="n">
-        <v>962.9354213119835</v>
+        <v>75.97683675164077</v>
       </c>
     </row>
     <row r="225">
@@ -14606,7 +14606,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H225" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I225" t="n">
         <v>100.59</v>
@@ -14639,7 +14639,7 @@
         <v>0.01016</v>
       </c>
       <c r="S225" t="n">
-        <v>998.7188064272917</v>
+        <v>77.39676787323555</v>
       </c>
     </row>
     <row r="226">
@@ -14669,7 +14669,7 @@
         <v>21</v>
       </c>
       <c r="H226" t="n">
-        <v>64.5</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="I226" t="n">
         <v>101.6</v>
@@ -14702,7 +14702,7 @@
         <v>0.01016</v>
       </c>
       <c r="S226" t="n">
-        <v>994.8902300275581</v>
+        <v>83.26634986953036</v>
       </c>
     </row>
     <row r="227">
@@ -14732,7 +14732,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H227" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I227" t="n">
         <v>101.84</v>
@@ -14765,7 +14765,7 @@
         <v>0.01016</v>
       </c>
       <c r="S227" t="n">
-        <v>1058.911812877836</v>
+        <v>89.74863690758876</v>
       </c>
     </row>
     <row r="228">
@@ -14795,7 +14795,7 @@
         <v>19.61111111111111</v>
       </c>
       <c r="H228" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I228" t="n">
         <v>101.62</v>
@@ -14828,7 +14828,7 @@
         <v>0.01016</v>
       </c>
       <c r="S228" t="n">
-        <v>944.9155814178116</v>
+        <v>81.64811016216093</v>
       </c>
     </row>
     <row r="229">
@@ -14858,7 +14858,7 @@
         <v>18.5</v>
       </c>
       <c r="H229" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I229" t="n">
         <v>101.52</v>
@@ -14891,7 +14891,7 @@
         <v>0.01016</v>
       </c>
       <c r="S229" t="n">
-        <v>1100.16200265795</v>
+        <v>93.24481879915076</v>
       </c>
     </row>
     <row r="230">
@@ -14921,7 +14921,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H230" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I230" t="n">
         <v>101.46</v>
@@ -14954,7 +14954,7 @@
         <v>0.01016</v>
       </c>
       <c r="S230" t="n">
-        <v>948.2380413435076</v>
+        <v>81.6691952194589</v>
       </c>
     </row>
     <row r="231">
@@ -14984,7 +14984,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H231" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I231" t="n">
         <v>101.2</v>
@@ -15017,7 +15017,7 @@
         <v>0.01016</v>
       </c>
       <c r="S231" t="n">
-        <v>823.9097040331081</v>
+        <v>70.35313450098911</v>
       </c>
     </row>
     <row r="232">
@@ -15047,7 +15047,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H232" t="n">
-        <v>69.59999999999999</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="I232" t="n">
         <v>100.51</v>
@@ -15080,7 +15080,7 @@
         <v>0.01016</v>
       </c>
       <c r="S232" t="n">
-        <v>823.8710488123706</v>
+        <v>65.50772253934718</v>
       </c>
     </row>
     <row r="233">
@@ -15110,7 +15110,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H233" t="n">
-        <v>68.40000000000001</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I233" t="n">
         <v>100.8</v>
@@ -15143,7 +15143,7 @@
         <v>0.01016</v>
       </c>
       <c r="S233" t="n">
-        <v>809.8986465914752</v>
+        <v>65.1567018092201</v>
       </c>
     </row>
     <row r="234">
@@ -15173,7 +15173,7 @@
         <v>18.55555555555556</v>
       </c>
       <c r="H234" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I234" t="n">
         <v>101.48</v>
@@ -15206,7 +15206,7 @@
         <v>0.01016</v>
       </c>
       <c r="S234" t="n">
-        <v>1081.391974976694</v>
+        <v>91.94626298519132</v>
       </c>
     </row>
     <row r="235">
@@ -15236,7 +15236,7 @@
         <v>13.61111111111111</v>
       </c>
       <c r="H235" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I235" t="n">
         <v>102.26</v>
@@ -15269,7 +15269,7 @@
         <v>0.01016</v>
       </c>
       <c r="S235" t="n">
-        <v>969.7829147702738</v>
+        <v>91.31186069631386</v>
       </c>
     </row>
     <row r="236">
@@ -15299,7 +15299,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H236" t="n">
-        <v>56.5</v>
+        <v>13.61111111111111</v>
       </c>
       <c r="I236" t="n">
         <v>102.25</v>
@@ -15332,7 +15332,7 @@
         <v>0.01016</v>
       </c>
       <c r="S236" t="n">
-        <v>1014.349463042823</v>
+        <v>92.71946534933716</v>
       </c>
     </row>
     <row r="237">
@@ -15362,7 +15362,7 @@
         <v>14.27777777777778</v>
       </c>
       <c r="H237" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I237" t="n">
         <v>103.06</v>
@@ -15395,7 +15395,7 @@
         <v>0.01016</v>
       </c>
       <c r="S237" t="n">
-        <v>762.5643586338898</v>
+        <v>75.45276752003126</v>
       </c>
     </row>
     <row r="238">
@@ -15425,7 +15425,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H238" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I238" t="n">
         <v>102.69</v>
@@ -15458,7 +15458,7 @@
         <v>0.01016</v>
       </c>
       <c r="S238" t="n">
-        <v>641.209723660086</v>
+        <v>66.41409645857121</v>
       </c>
     </row>
     <row r="239">
@@ -15488,7 +15488,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H239" t="n">
-        <v>47</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I239" t="n">
         <v>102.09</v>
@@ -15521,7 +15521,7 @@
         <v>0.01016</v>
       </c>
       <c r="S239" t="n">
-        <v>509.6573815391658</v>
+        <v>52.43745919744506</v>
       </c>
     </row>
     <row r="240">
@@ -15551,7 +15551,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H240" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I240" t="n">
         <v>102.04</v>
@@ -15584,7 +15584,7 @@
         <v>0.01016</v>
       </c>
       <c r="S240" t="n">
-        <v>565.1576591449074</v>
+        <v>55.565983189081</v>
       </c>
     </row>
     <row r="241">
@@ -15614,7 +15614,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H241" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I241" t="n">
         <v>102.11</v>
@@ -15647,7 +15647,7 @@
         <v>0.01016</v>
       </c>
       <c r="S241" t="n">
-        <v>846.324715880448</v>
+        <v>76.64714624296207</v>
       </c>
     </row>
     <row r="242">
@@ -15677,7 +15677,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H242" t="n">
-        <v>58.5</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="I242" t="n">
         <v>102.28</v>
@@ -15710,7 +15710,7 @@
         <v>0.01016</v>
       </c>
       <c r="S242" t="n">
-        <v>947.4412124183571</v>
+        <v>84.63662299908415</v>
       </c>
     </row>
     <row r="243">
@@ -15740,7 +15740,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H243" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I243" t="n">
         <v>102.38</v>
@@ -15773,7 +15773,7 @@
         <v>0.01016</v>
       </c>
       <c r="S243" t="n">
-        <v>786.7776576942629</v>
+        <v>71.25428462437333</v>
       </c>
     </row>
     <row r="244">
@@ -15803,7 +15803,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H244" t="n">
-        <v>52.8</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="I244" t="n">
         <v>102.28</v>
@@ -15836,7 +15836,7 @@
         <v>0.01016</v>
       </c>
       <c r="S244" t="n">
-        <v>603.3073225632712</v>
+        <v>57.64074493904755</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>21.66666666666667</v>
       </c>
       <c r="H245" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I245" t="n">
         <v>102.07</v>
@@ -15899,7 +15899,7 @@
         <v>0.01016</v>
       </c>
       <c r="S245" t="n">
-        <v>518.5655517713166</v>
+        <v>50.28515018166755</v>
       </c>
     </row>
     <row r="246">
@@ -15929,7 +15929,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H246" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I246" t="n">
         <v>101.87</v>
@@ -15962,7 +15962,7 @@
         <v>0.01016</v>
       </c>
       <c r="S246" t="n">
-        <v>653.7275448186373</v>
+        <v>63.55029324866174</v>
       </c>
     </row>
     <row r="247">
@@ -15992,7 +15992,7 @@
         <v>21.5</v>
       </c>
       <c r="H247" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I247" t="n">
         <v>101.67</v>
@@ -16025,7 +16025,7 @@
         <v>0.01016</v>
       </c>
       <c r="S247" t="n">
-        <v>336.4214188197213</v>
+        <v>36.61050916809799</v>
       </c>
     </row>
     <row r="248">
@@ -16055,7 +16055,7 @@
         <v>18.94444444444444</v>
       </c>
       <c r="H248" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I248" t="n">
         <v>102.18</v>
@@ -16088,7 +16088,7 @@
         <v>0.01016</v>
       </c>
       <c r="S248" t="n">
-        <v>876.5981326796596</v>
+        <v>77.86736914536763</v>
       </c>
     </row>
     <row r="249">
@@ -16118,7 +16118,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H249" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I249" t="n">
         <v>102.14</v>
@@ -16151,7 +16151,7 @@
         <v>0.01016</v>
       </c>
       <c r="S249" t="n">
-        <v>941.3894638455535</v>
+        <v>85.45356380289579</v>
       </c>
     </row>
     <row r="250">
@@ -16181,7 +16181,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H250" t="n">
-        <v>55.8</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="I250" t="n">
         <v>101.87</v>
@@ -16214,7 +16214,7 @@
         <v>0.01016</v>
       </c>
       <c r="S250" t="n">
-        <v>910.0937038464464</v>
+        <v>83.87407701852439</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>16.55555555555555</v>
       </c>
       <c r="H251" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I251" t="n">
         <v>102.16</v>
@@ -16277,7 +16277,7 @@
         <v>0.01016</v>
       </c>
       <c r="S251" t="n">
-        <v>981.3544995004296</v>
+        <v>87.96519401886705</v>
       </c>
     </row>
     <row r="252">
@@ -16307,7 +16307,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H252" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I252" t="n">
         <v>102.1</v>
@@ -16340,7 +16340,7 @@
         <v>0.01016</v>
       </c>
       <c r="S252" t="n">
-        <v>794.991167946699</v>
+        <v>74.76382977180391</v>
       </c>
     </row>
     <row r="253">
@@ -16370,7 +16370,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H253" t="n">
-        <v>56.4</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="I253" t="n">
         <v>102.16</v>
@@ -16403,7 +16403,7 @@
         <v>0.01016</v>
       </c>
       <c r="S253" t="n">
-        <v>897.6708330556495</v>
+        <v>82.14982413807684</v>
       </c>
     </row>
     <row r="254">
@@ -16433,7 +16433,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H254" t="n">
-        <v>55.9</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="I254" t="n">
         <v>102.24</v>
@@ -16466,7 +16466,7 @@
         <v>0.01016</v>
       </c>
       <c r="S254" t="n">
-        <v>814.0176069041132</v>
+        <v>74.93159570598266</v>
       </c>
     </row>
     <row r="255">
@@ -16496,7 +16496,7 @@
         <v>18.5</v>
       </c>
       <c r="H255" t="n">
-        <v>56.2</v>
+        <v>13.44444444444445</v>
       </c>
       <c r="I255" t="n">
         <v>102.3</v>
@@ -16529,7 +16529,7 @@
         <v>0.01016</v>
       </c>
       <c r="S255" t="n">
-        <v>789.1629602711043</v>
+        <v>72.38869618091547</v>
       </c>
     </row>
     <row r="256">
@@ -16559,7 +16559,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H256" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I256" t="n">
         <v>101.78</v>
@@ -16592,7 +16592,7 @@
         <v>0.01016</v>
       </c>
       <c r="S256" t="n">
-        <v>687.3491330393923</v>
+        <v>64.56303328235359</v>
       </c>
     </row>
     <row r="257">
@@ -16622,7 +16622,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H257" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I257" t="n">
         <v>102.37</v>
@@ -16655,7 +16655,7 @@
         <v>0.01016</v>
       </c>
       <c r="S257" t="n">
-        <v>952.2785682291385</v>
+        <v>87.24899819645664</v>
       </c>
     </row>
     <row r="258">
@@ -16685,7 +16685,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H258" t="n">
-        <v>56.7</v>
+        <v>13.72222222222222</v>
       </c>
       <c r="I258" t="n">
         <v>102.14</v>
@@ -16718,7 +16718,7 @@
         <v>0.01016</v>
       </c>
       <c r="S258" t="n">
-        <v>910.6337808339377</v>
+        <v>83.04562735353423</v>
       </c>
     </row>
     <row r="259">
@@ -16748,7 +16748,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H259" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I259" t="n">
         <v>101.73</v>
@@ -16781,7 +16781,7 @@
         <v>0.01016</v>
       </c>
       <c r="S259" t="n">
-        <v>834.6031602123913</v>
+        <v>75.58558703923504</v>
       </c>
     </row>
     <row r="260">
@@ -16811,7 +16811,7 @@
         <v>18.5</v>
       </c>
       <c r="H260" t="n">
-        <v>58.7</v>
+        <v>14.83333333333334</v>
       </c>
       <c r="I260" t="n">
         <v>101.69</v>
@@ -16844,7 +16844,7 @@
         <v>0.01016</v>
       </c>
       <c r="S260" t="n">
-        <v>888.6819757496797</v>
+        <v>79.20816178038415</v>
       </c>
     </row>
     <row r="261">
@@ -16874,7 +16874,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H261" t="n">
-        <v>58.5</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="I261" t="n">
         <v>101.77</v>
@@ -16907,7 +16907,7 @@
         <v>0.01016</v>
       </c>
       <c r="S261" t="n">
-        <v>1016.717929026498</v>
+        <v>90.82523636034099</v>
       </c>
     </row>
     <row r="262">
@@ -16937,7 +16937,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="H262" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I262" t="n">
         <v>101.2</v>
@@ -16970,7 +16970,7 @@
         <v>0.01016</v>
       </c>
       <c r="S262" t="n">
-        <v>823.2269970073654</v>
+        <v>71.83649665642614</v>
       </c>
     </row>
     <row r="263">
@@ -17000,7 +17000,7 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H263" t="n">
-        <v>60.5</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I263" t="n">
         <v>101.09</v>
@@ -17033,7 +17033,7 @@
         <v>0.01016</v>
       </c>
       <c r="S263" t="n">
-        <v>770.766236711027</v>
+        <v>67.33273618257401</v>
       </c>
     </row>
     <row r="264">
@@ -17063,7 +17063,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H264" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I264" t="n">
         <v>101.86</v>
@@ -17096,7 +17096,7 @@
         <v>0.01016</v>
       </c>
       <c r="S264" t="n">
-        <v>590.5443613992644</v>
+        <v>62.50560927442352</v>
       </c>
     </row>
     <row r="265">
@@ -17126,7 +17126,7 @@
         <v>10.33333333333333</v>
       </c>
       <c r="H265" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I265" t="n">
         <v>102.37</v>
@@ -17159,7 +17159,7 @@
         <v>0.01016</v>
       </c>
       <c r="S265" t="n">
-        <v>866.9970000677379</v>
+        <v>88.7315126618407</v>
       </c>
     </row>
     <row r="266">
@@ -17189,7 +17189,7 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H266" t="n">
-        <v>49.4</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="I266" t="n">
         <v>102.27</v>
@@ -17222,7 +17222,7 @@
         <v>0.01016</v>
       </c>
       <c r="S266" t="n">
-        <v>907.3826596358376</v>
+        <v>90.47440048482093</v>
       </c>
     </row>
     <row r="267">
@@ -17252,7 +17252,7 @@
         <v>13.83333333333333</v>
       </c>
       <c r="H267" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I267" t="n">
         <v>101.92</v>
@@ -17285,7 +17285,7 @@
         <v>0.01016</v>
       </c>
       <c r="S267" t="n">
-        <v>804.6813046665849</v>
+        <v>79.11581330300392</v>
       </c>
     </row>
     <row r="268">
@@ -17315,7 +17315,7 @@
         <v>15</v>
       </c>
       <c r="H268" t="n">
-        <v>55.2</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="I268" t="n">
         <v>102.12</v>
@@ -17348,7 +17348,7 @@
         <v>0.01016</v>
       </c>
       <c r="S268" t="n">
-        <v>939.419275391124</v>
+        <v>87.19244772687831</v>
       </c>
     </row>
     <row r="269">
@@ -17378,7 +17378,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H269" t="n">
-        <v>53.4</v>
+        <v>11.88888888888889</v>
       </c>
       <c r="I269" t="n">
         <v>101.92</v>
@@ -17411,7 +17411,7 @@
         <v>0.01016</v>
       </c>
       <c r="S269" t="n">
-        <v>959.0508956518003</v>
+        <v>90.95995614842691</v>
       </c>
     </row>
     <row r="270">
@@ -17441,7 +17441,7 @@
         <v>15.22222222222222</v>
       </c>
       <c r="H270" t="n">
-        <v>55.4</v>
+        <v>13</v>
       </c>
       <c r="I270" t="n">
         <v>101.38</v>
@@ -17474,7 +17474,7 @@
         <v>0.01016</v>
       </c>
       <c r="S270" t="n">
-        <v>935.0535614970221</v>
+        <v>86.58189970744894</v>
       </c>
     </row>
     <row r="271">
@@ -17504,7 +17504,7 @@
         <v>14.88888888888889</v>
       </c>
       <c r="H271" t="n">
-        <v>57.6</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I271" t="n">
         <v>101.55</v>
@@ -17537,7 +17537,7 @@
         <v>0.01016</v>
       </c>
       <c r="S271" t="n">
-        <v>1061.284148977179</v>
+        <v>95.78401889515048</v>
       </c>
     </row>
     <row r="272">
@@ -17567,7 +17567,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H272" t="n">
-        <v>55.9</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="I272" t="n">
         <v>101.86</v>
@@ -17600,7 +17600,7 @@
         <v>0.01016</v>
       </c>
       <c r="S272" t="n">
-        <v>961.2314838802837</v>
+        <v>88.4828636617728</v>
       </c>
     </row>
     <row r="273">
@@ -17630,7 +17630,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H273" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I273" t="n">
         <v>101.92</v>
@@ -17663,7 +17663,7 @@
         <v>0.01016</v>
       </c>
       <c r="S273" t="n">
-        <v>1064.330647468355</v>
+        <v>98.20404707870745</v>
       </c>
     </row>
     <row r="274">
@@ -17693,7 +17693,7 @@
         <v>12.88888888888889</v>
       </c>
       <c r="H274" t="n">
-        <v>53.5</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="I274" t="n">
         <v>101.84</v>
@@ -17726,7 +17726,7 @@
         <v>0.01016</v>
       </c>
       <c r="S274" t="n">
-        <v>992.1397358657817</v>
+        <v>93.98393200805634</v>
       </c>
     </row>
     <row r="275">
@@ -17756,7 +17756,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H275" t="n">
-        <v>56.7</v>
+        <v>13.72222222222222</v>
       </c>
       <c r="I275" t="n">
         <v>100.9</v>
@@ -17789,7 +17789,7 @@
         <v>0.01016</v>
       </c>
       <c r="S275" t="n">
-        <v>1024.088088860582</v>
+        <v>93.39214028149239</v>
       </c>
     </row>
     <row r="276">
@@ -17819,7 +17819,7 @@
         <v>16.83333333333333</v>
       </c>
       <c r="H276" t="n">
-        <v>57.2</v>
+        <v>14</v>
       </c>
       <c r="I276" t="n">
         <v>100.28</v>
@@ -17852,7 +17852,7 @@
         <v>0.01016</v>
       </c>
       <c r="S276" t="n">
-        <v>919.5209997184571</v>
+        <v>83.37218976500169</v>
       </c>
     </row>
     <row r="277">
@@ -17882,7 +17882,7 @@
         <v>15.22222222222222</v>
       </c>
       <c r="H277" t="n">
-        <v>53.3</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="I277" t="n">
         <v>101.12</v>
@@ -17915,7 +17915,7 @@
         <v>0.01016</v>
       </c>
       <c r="S277" t="n">
-        <v>844.5068798310562</v>
+        <v>80.19371534591184</v>
       </c>
     </row>
     <row r="278">
@@ -17945,7 +17945,7 @@
         <v>9.944444444444445</v>
       </c>
       <c r="H278" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I278" t="n">
         <v>102.14</v>
@@ -17978,7 +17978,7 @@
         <v>0.01016</v>
       </c>
       <c r="S278" t="n">
-        <v>705.3170785178219</v>
+        <v>76.75497434166074</v>
       </c>
     </row>
     <row r="279">
@@ -18008,7 +18008,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H279" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I279" t="n">
         <v>103.1</v>
@@ -18041,7 +18041,7 @@
         <v>0.01016</v>
       </c>
       <c r="S279" t="n">
-        <v>729.2813326075262</v>
+        <v>86.53579415558617</v>
       </c>
     </row>
     <row r="280">
@@ -18071,7 +18071,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H280" t="n">
-        <v>41.7</v>
+        <v>5.388888888888891</v>
       </c>
       <c r="I280" t="n">
         <v>102.51</v>
@@ -18104,7 +18104,7 @@
         <v>0.01016</v>
       </c>
       <c r="S280" t="n">
-        <v>749.2964572665375</v>
+        <v>82.94143914863858</v>
       </c>
     </row>
     <row r="281">
@@ -18134,7 +18134,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H281" t="n">
-        <v>41.2</v>
+        <v>5.111111111111112</v>
       </c>
       <c r="I281" t="n">
         <v>103.02</v>
@@ -18167,7 +18167,7 @@
         <v>0.01016</v>
       </c>
       <c r="S281" t="n">
-        <v>766.5236044675687</v>
+        <v>85.45973470560318</v>
       </c>
     </row>
     <row r="282">
@@ -18197,7 +18197,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H282" t="n">
-        <v>39.6</v>
+        <v>4.222222222222223</v>
       </c>
       <c r="I282" t="n">
         <v>102.77</v>
@@ -18230,7 +18230,7 @@
         <v>0.01016</v>
       </c>
       <c r="S282" t="n">
-        <v>654.977622094645</v>
+        <v>74.7458643284304</v>
       </c>
     </row>
     <row r="283">
@@ -18260,7 +18260,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H283" t="n">
-        <v>42.4</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="I283" t="n">
         <v>102.43</v>
@@ -18293,7 +18293,7 @@
         <v>0.01016</v>
       </c>
       <c r="S283" t="n">
-        <v>760.0983835436464</v>
+        <v>83.30259611281046</v>
       </c>
     </row>
     <row r="284">
@@ -18323,7 +18323,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H284" t="n">
-        <v>44.1</v>
+        <v>6.722222222222223</v>
       </c>
       <c r="I284" t="n">
         <v>102.38</v>
@@ -18356,7 +18356,7 @@
         <v>0.01016</v>
       </c>
       <c r="S284" t="n">
-        <v>800.174895494467</v>
+        <v>85.63149183307605</v>
       </c>
     </row>
     <row r="285">
@@ -18386,7 +18386,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H285" t="n">
-        <v>44.7</v>
+        <v>7.055555555555557</v>
       </c>
       <c r="I285" t="n">
         <v>102.34</v>
@@ -18419,7 +18419,7 @@
         <v>0.01016</v>
       </c>
       <c r="S285" t="n">
-        <v>798.1529121739056</v>
+        <v>84.71164636273294</v>
       </c>
     </row>
     <row r="286">
@@ -18449,7 +18449,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H286" t="n">
-        <v>43.6</v>
+        <v>6.444444444444446</v>
       </c>
       <c r="I286" t="n">
         <v>102.17</v>
@@ -18482,7 +18482,7 @@
         <v>0.01016</v>
       </c>
       <c r="S286" t="n">
-        <v>756.6000433133</v>
+        <v>81.53252079357696</v>
       </c>
     </row>
     <row r="287">
@@ -18512,7 +18512,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H287" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I287" t="n">
         <v>102.3</v>
@@ -18545,7 +18545,7 @@
         <v>0.01016</v>
       </c>
       <c r="S287" t="n">
-        <v>753.7017136736854</v>
+        <v>80.10378560409779</v>
       </c>
     </row>
     <row r="288">
@@ -18575,7 +18575,7 @@
         <v>8.666666666666668</v>
       </c>
       <c r="H288" t="n">
-        <v>40.6</v>
+        <v>4.777777777777779</v>
       </c>
       <c r="I288" t="n">
         <v>102.8</v>
@@ -18608,7 +18608,7 @@
         <v>0.01016</v>
       </c>
       <c r="S288" t="n">
-        <v>680.6496154688768</v>
+        <v>76.54732880956122</v>
       </c>
     </row>
     <row r="289">
@@ -18638,7 +18638,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H289" t="n">
-        <v>44</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I289" t="n">
         <v>102.6</v>
@@ -18671,7 +18671,7 @@
         <v>0.01016</v>
       </c>
       <c r="S289" t="n">
-        <v>817.2227050419609</v>
+        <v>87.57709241080032</v>
       </c>
     </row>
     <row r="290">
@@ -18701,7 +18701,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H290" t="n">
-        <v>44.2</v>
+        <v>6.777777777777779</v>
       </c>
       <c r="I290" t="n">
         <v>102.14</v>
@@ -18734,7 +18734,7 @@
         <v>0.01016</v>
       </c>
       <c r="S290" t="n">
-        <v>813.4507920632979</v>
+        <v>86.93190559744686</v>
       </c>
     </row>
     <row r="291">
@@ -18764,7 +18764,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H291" t="n">
-        <v>26.6</v>
+        <v>-3</v>
       </c>
       <c r="I291" t="n">
         <v>103.58</v>
@@ -18797,7 +18797,7 @@
         <v>0.01016</v>
       </c>
       <c r="S291" t="n">
-        <v>327.2884265792476</v>
+        <v>46.07397736144259</v>
       </c>
     </row>
     <row r="292">
@@ -18827,7 +18827,7 @@
         <v>6.444444444444446</v>
       </c>
       <c r="H292" t="n">
-        <v>31.1</v>
+        <v>-0.4999999999999992</v>
       </c>
       <c r="I292" t="n">
         <v>102.24</v>
@@ -18860,7 +18860,7 @@
         <v>0.01016</v>
       </c>
       <c r="S292" t="n">
-        <v>469.0938471851352</v>
+        <v>61.1431346218591</v>
       </c>
     </row>
     <row r="293">
@@ -18890,7 +18890,7 @@
         <v>6.888888888888888</v>
       </c>
       <c r="H293" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I293" t="n">
         <v>102.56</v>
@@ -18923,7 +18923,7 @@
         <v>0.01016</v>
       </c>
       <c r="S293" t="n">
-        <v>602.1139974728142</v>
+        <v>72.44146054304159</v>
       </c>
     </row>
     <row r="294">
@@ -18953,7 +18953,7 @@
         <v>5.388888888888891</v>
       </c>
       <c r="H294" t="n">
-        <v>36.2</v>
+        <v>2.333333333333335</v>
       </c>
       <c r="I294" t="n">
         <v>102.45</v>
@@ -18986,7 +18986,7 @@
         <v>0.01016</v>
       </c>
       <c r="S294" t="n">
-        <v>671.4986360473391</v>
+        <v>80.66448459552042</v>
       </c>
     </row>
     <row r="295">
@@ -19016,7 +19016,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H295" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I295" t="n">
         <v>102.34</v>
@@ -19049,7 +19049,7 @@
         <v>0.01016</v>
       </c>
       <c r="S295" t="n">
-        <v>682.5340971119351</v>
+        <v>80.74211861491119</v>
       </c>
     </row>
     <row r="296">
@@ -19079,7 +19079,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H296" t="n">
-        <v>37.9</v>
+        <v>3.277777777777777</v>
       </c>
       <c r="I296" t="n">
         <v>102.54</v>
@@ -19112,7 +19112,7 @@
         <v>0.01016</v>
       </c>
       <c r="S296" t="n">
-        <v>777.9303974462271</v>
+        <v>91.05593459569012</v>
       </c>
     </row>
     <row r="297">
@@ -19142,7 +19142,7 @@
         <v>7.5</v>
       </c>
       <c r="H297" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I297" t="n">
         <v>102.29</v>
@@ -19175,7 +19175,7 @@
         <v>0.01016</v>
       </c>
       <c r="S297" t="n">
-        <v>651.154588956167</v>
+        <v>75.75972004353764</v>
       </c>
     </row>
     <row r="298">
@@ -19205,7 +19205,7 @@
         <v>6.944444444444445</v>
       </c>
       <c r="H298" t="n">
-        <v>38.7</v>
+        <v>3.722222222222224</v>
       </c>
       <c r="I298" t="n">
         <v>102.49</v>
@@ -19238,7 +19238,7 @@
         <v>0.01016</v>
       </c>
       <c r="S298" t="n">
-        <v>691.1900638388212</v>
+        <v>79.93794077776629</v>
       </c>
     </row>
     <row r="299">
@@ -19268,7 +19268,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H299" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I299" t="n">
         <v>102.69</v>
@@ -19301,7 +19301,7 @@
         <v>0.01016</v>
       </c>
       <c r="S299" t="n">
-        <v>765.9781548037558</v>
+        <v>86.39460563992161</v>
       </c>
     </row>
     <row r="300">
@@ -19331,7 +19331,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H300" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I300" t="n">
         <v>103.05</v>
@@ -19364,7 +19364,7 @@
         <v>0.01016</v>
       </c>
       <c r="S300" t="n">
-        <v>735.9570591882361</v>
+        <v>84.98856594511818</v>
       </c>
     </row>
     <row r="301">
@@ -19394,7 +19394,7 @@
         <v>7.333333333333335</v>
       </c>
       <c r="H301" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I301" t="n">
         <v>103.18</v>
@@ -19427,7 +19427,7 @@
         <v>0.01016</v>
       </c>
       <c r="S301" t="n">
-        <v>676.6675192336036</v>
+        <v>78.14179015381322</v>
       </c>
     </row>
     <row r="302">
@@ -19457,7 +19457,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H302" t="n">
-        <v>38.6</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I302" t="n">
         <v>103.06</v>
@@ -19490,7 +19490,7 @@
         <v>0.01016</v>
       </c>
       <c r="S302" t="n">
-        <v>597.7368468195333</v>
+        <v>69.23311022994112</v>
       </c>
     </row>
     <row r="303">
@@ -19520,7 +19520,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H303" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I303" t="n">
         <v>103.01</v>
@@ -19553,7 +19553,7 @@
         <v>0.01016</v>
       </c>
       <c r="S303" t="n">
-        <v>581.2474726062477</v>
+        <v>68.34363646201666</v>
       </c>
     </row>
     <row r="304">
@@ -19583,7 +19583,7 @@
         <v>8</v>
       </c>
       <c r="H304" t="n">
-        <v>41.3</v>
+        <v>5.166666666666665</v>
       </c>
       <c r="I304" t="n">
         <v>103.06</v>
@@ -19616,7 +19616,7 @@
         <v>0.01016</v>
       </c>
       <c r="S304" t="n">
-        <v>739.1499174849179</v>
+        <v>82.28926495955649</v>
       </c>
     </row>
     <row r="305">
@@ -19646,7 +19646,7 @@
         <v>8.166666666666668</v>
       </c>
       <c r="H305" t="n">
-        <v>42.2</v>
+        <v>5.666666666666669</v>
       </c>
       <c r="I305" t="n">
         <v>103.23</v>
@@ -19679,7 +19679,7 @@
         <v>0.01016</v>
       </c>
       <c r="S305" t="n">
-        <v>766.4445351218186</v>
+        <v>84.23684097007164</v>
       </c>
     </row>
     <row r="306">
@@ -19709,7 +19709,7 @@
         <v>8.277777777777777</v>
       </c>
       <c r="H306" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I306" t="n">
         <v>102.88</v>
@@ -19742,7 +19742,7 @@
         <v>0.01016</v>
       </c>
       <c r="S306" t="n">
-        <v>713.866152961229</v>
+        <v>79.81897006392919</v>
       </c>
     </row>
     <row r="307">
@@ -19772,7 +19772,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H307" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I307" t="n">
         <v>102.71</v>
@@ -19805,7 +19805,7 @@
         <v>0.01016</v>
       </c>
       <c r="S307" t="n">
-        <v>747.6232873893207</v>
+        <v>81.47353662483538</v>
       </c>
     </row>
     <row r="308">
@@ -19835,7 +19835,7 @@
         <v>9.166666666666668</v>
       </c>
       <c r="H308" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I308" t="n">
         <v>103.16</v>
@@ -19868,7 +19868,7 @@
         <v>0.01016</v>
       </c>
       <c r="S308" t="n">
-        <v>739.2668867296529</v>
+        <v>80.56288345674764</v>
       </c>
     </row>
     <row r="309">
@@ -19898,7 +19898,7 @@
         <v>7.611111111111113</v>
       </c>
       <c r="H309" t="n">
-        <v>41.9</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="I309" t="n">
         <v>103.26</v>
@@ -19931,7 +19931,7 @@
         <v>0.01016</v>
       </c>
       <c r="S309" t="n">
-        <v>783.4883967055105</v>
+        <v>86.47872085151087</v>
       </c>
     </row>
     <row r="310">
@@ -19961,7 +19961,7 @@
         <v>7.944444444444443</v>
       </c>
       <c r="H310" t="n">
-        <v>40.6</v>
+        <v>4.777777777777779</v>
       </c>
       <c r="I310" t="n">
         <v>102.38</v>
@@ -19994,7 +19994,7 @@
         <v>0.01016</v>
       </c>
       <c r="S310" t="n">
-        <v>714.8385758622267</v>
+        <v>80.39229328674527</v>
       </c>
     </row>
     <row r="311">
@@ -20024,7 +20024,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H311" t="n">
-        <v>41.3</v>
+        <v>5.166666666666665</v>
       </c>
       <c r="I311" t="n">
         <v>102.32</v>
@@ -20057,7 +20057,7 @@
         <v>0.01016</v>
       </c>
       <c r="S311" t="n">
-        <v>733.5867997166412</v>
+        <v>81.66992528135883</v>
       </c>
     </row>
     <row r="312">
@@ -20087,7 +20087,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H312" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I312" t="n">
         <v>102.53</v>
@@ -20120,7 +20120,7 @@
         <v>0.01016</v>
       </c>
       <c r="S312" t="n">
-        <v>756.1064251539277</v>
+        <v>82.98269482782693</v>
       </c>
     </row>
     <row r="313">
@@ -20150,7 +20150,7 @@
         <v>9.111111111111111</v>
       </c>
       <c r="H313" t="n">
-        <v>43.6</v>
+        <v>6.444444444444446</v>
       </c>
       <c r="I313" t="n">
         <v>102.06</v>
@@ -20183,7 +20183,7 @@
         <v>0.01016</v>
       </c>
       <c r="S313" t="n">
-        <v>773.7746265021382</v>
+        <v>83.38328339046083</v>
       </c>
     </row>
     <row r="314">
@@ -20213,7 +20213,7 @@
         <v>9.166666666666668</v>
       </c>
       <c r="H314" t="n">
-        <v>45.1</v>
+        <v>7.277777777777779</v>
       </c>
       <c r="I314" t="n">
         <v>101.23</v>
@@ -20246,7 +20246,7 @@
         <v>0.01016</v>
       </c>
       <c r="S314" t="n">
-        <v>833.3288540478973</v>
+        <v>87.96210903523833</v>
       </c>
     </row>
     <row r="315">
@@ -20276,7 +20276,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H315" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I315" t="n">
         <v>100.82</v>
@@ -20309,7 +20309,7 @@
         <v>0.01016</v>
       </c>
       <c r="S315" t="n">
-        <v>828.8430803409111</v>
+        <v>86.0789320914143</v>
       </c>
     </row>
     <row r="316">
@@ -20339,7 +20339,7 @@
         <v>9.833333333333336</v>
       </c>
       <c r="H316" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I316" t="n">
         <v>101.07</v>
@@ -20372,7 +20372,7 @@
         <v>0.01016</v>
       </c>
       <c r="S316" t="n">
-        <v>834.6091903428288</v>
+        <v>87.02827441061385</v>
       </c>
     </row>
     <row r="317">
@@ -20402,7 +20402,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H317" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I317" t="n">
         <v>102.47</v>
@@ -20435,7 +20435,7 @@
         <v>0.01016</v>
       </c>
       <c r="S317" t="n">
-        <v>654.122578816086</v>
+        <v>82.65050378032063</v>
       </c>
     </row>
     <row r="318">
@@ -20465,7 +20465,7 @@
         <v>1.722222222222223</v>
       </c>
       <c r="H318" t="n">
-        <v>31.9</v>
+        <v>-0.05555555555555635</v>
       </c>
       <c r="I318" t="n">
         <v>103.18</v>
@@ -20498,7 +20498,7 @@
         <v>0.01016</v>
       </c>
       <c r="S318" t="n">
-        <v>683.9021021462819</v>
+        <v>87.97383644770281</v>
       </c>
     </row>
     <row r="319">
@@ -20528,7 +20528,7 @@
         <v>2.611111111111113</v>
       </c>
       <c r="H319" t="n">
-        <v>33.7</v>
+        <v>0.9444444444444461</v>
       </c>
       <c r="I319" t="n">
         <v>103.07</v>
@@ -20561,7 +20561,7 @@
         <v>0.01016</v>
       </c>
       <c r="S319" t="n">
-        <v>710.4462549702266</v>
+        <v>88.76310811982594</v>
       </c>
     </row>
     <row r="320">
@@ -20591,7 +20591,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H320" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I320" t="n">
         <v>103.32</v>
@@ -20624,7 +20624,7 @@
         <v>0.01016</v>
       </c>
       <c r="S320" t="n">
-        <v>600.6509535084809</v>
+        <v>77.51895148545508</v>
       </c>
     </row>
     <row r="321">
@@ -20654,7 +20654,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H321" t="n">
-        <v>33.1</v>
+        <v>0.6111111111111119</v>
       </c>
       <c r="I321" t="n">
         <v>103.05</v>
@@ -20687,7 +20687,7 @@
         <v>0.01016</v>
       </c>
       <c r="S321" t="n">
-        <v>657.8129457864055</v>
+        <v>82.98278347845964</v>
       </c>
     </row>
     <row r="322">
@@ -20717,7 +20717,7 @@
         <v>4.111111111111111</v>
       </c>
       <c r="H322" t="n">
-        <v>33.3</v>
+        <v>0.7222222222222207</v>
       </c>
       <c r="I322" t="n">
         <v>102.96</v>
@@ -20750,7 +20750,7 @@
         <v>0.01016</v>
       </c>
       <c r="S322" t="n">
-        <v>624.8775799263251</v>
+        <v>78.57454541535313</v>
       </c>
     </row>
     <row r="323">
@@ -20780,7 +20780,7 @@
         <v>3.611111111111111</v>
       </c>
       <c r="H323" t="n">
-        <v>35.2</v>
+        <v>1.777777777777779</v>
       </c>
       <c r="I323" t="n">
         <v>102.75</v>
@@ -20813,7 +20813,7 @@
         <v>0.01016</v>
       </c>
       <c r="S323" t="n">
-        <v>719.593202646645</v>
+        <v>87.79683831476588</v>
       </c>
     </row>
     <row r="324">
@@ -20843,7 +20843,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H324" t="n">
-        <v>35.7</v>
+        <v>2.055555555555557</v>
       </c>
       <c r="I324" t="n">
         <v>102.23</v>
@@ -20876,7 +20876,7 @@
         <v>0.01016</v>
       </c>
       <c r="S324" t="n">
-        <v>760.3495105813532</v>
+        <v>92.04836330402671</v>
       </c>
     </row>
     <row r="325">
@@ -20906,7 +20906,7 @@
         <v>5.055555555555556</v>
       </c>
       <c r="H325" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I325" t="n">
         <v>102.38</v>
@@ -20939,7 +20939,7 @@
         <v>0.01016</v>
       </c>
       <c r="S325" t="n">
-        <v>718.0714713965125</v>
+        <v>85.20564322631368</v>
       </c>
     </row>
     <row r="326">
@@ -20969,7 +20969,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H326" t="n">
-        <v>34.2</v>
+        <v>1.222222222222224</v>
       </c>
       <c r="I326" t="n">
         <v>103.12</v>
@@ -21002,7 +21002,7 @@
         <v>0.01016</v>
       </c>
       <c r="S326" t="n">
-        <v>556.6239654953526</v>
+        <v>68.99264482799109</v>
       </c>
     </row>
     <row r="327">
@@ -21032,7 +21032,7 @@
         <v>6.444444444444446</v>
       </c>
       <c r="H327" t="n">
-        <v>24.7</v>
+        <v>-4.055555555555556</v>
       </c>
       <c r="I327" t="n">
         <v>103.14</v>
@@ -21065,7 +21065,7 @@
         <v>0.01016</v>
       </c>
       <c r="S327" t="n">
-        <v>322.7578111650216</v>
+        <v>47.00681291157813</v>
       </c>
     </row>
     <row r="328">
@@ -21095,7 +21095,7 @@
         <v>5.88888888888889</v>
       </c>
       <c r="H328" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I328" t="n">
         <v>102.15</v>
@@ -21128,7 +21128,7 @@
         <v>0.01016</v>
       </c>
       <c r="S328" t="n">
-        <v>473.6973441218</v>
+        <v>62.25892699647956</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H329" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I329" t="n">
         <v>102.96</v>
@@ -21191,7 +21191,7 @@
         <v>0.01016</v>
       </c>
       <c r="S329" t="n">
-        <v>520.4256902887016</v>
+        <v>65.75746943399125</v>
       </c>
     </row>
     <row r="330">
@@ -21221,7 +21221,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H330" t="n">
-        <v>27.8</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="I330" t="n">
         <v>103.4</v>
@@ -21254,7 +21254,7 @@
         <v>0.01016</v>
       </c>
       <c r="S330" t="n">
-        <v>393.6774796044954</v>
+        <v>54.2679447086021</v>
       </c>
     </row>
     <row r="331">
@@ -21284,7 +21284,7 @@
         <v>7.444444444444444</v>
       </c>
       <c r="H331" t="n">
-        <v>26.6</v>
+        <v>-3</v>
       </c>
       <c r="I331" t="n">
         <v>102.8</v>
@@ -21317,7 +21317,7 @@
         <v>0.01016</v>
       </c>
       <c r="S331" t="n">
-        <v>337.3614304178039</v>
+        <v>47.49200291055865</v>
       </c>
     </row>
     <row r="332">
@@ -21347,7 +21347,7 @@
         <v>6.388888888888889</v>
       </c>
       <c r="H332" t="n">
-        <v>30.5</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="I332" t="n">
         <v>102.61</v>
@@ -21380,7 +21380,7 @@
         <v>0.01016</v>
       </c>
       <c r="S332" t="n">
-        <v>455.0097249237233</v>
+        <v>59.90277245244386</v>
       </c>
     </row>
     <row r="333">
@@ -21410,7 +21410,7 @@
         <v>7.833333333333335</v>
       </c>
       <c r="H333" t="n">
-        <v>32.3</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="I333" t="n">
         <v>101.83</v>
@@ -21443,7 +21443,7 @@
         <v>0.01016</v>
       </c>
       <c r="S333" t="n">
-        <v>456.6188947787847</v>
+        <v>58.35432966614785</v>
       </c>
     </row>
     <row r="334">
@@ -21473,7 +21473,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H334" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I334" t="n">
         <v>101.8</v>
@@ -21506,7 +21506,7 @@
         <v>0.01016</v>
       </c>
       <c r="S334" t="n">
-        <v>549.1640517151911</v>
+        <v>63.13543520078311</v>
       </c>
     </row>
     <row r="335">
@@ -21536,7 +21536,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H335" t="n">
-        <v>33.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I335" t="n">
         <v>102.2</v>
@@ -21569,7 +21569,7 @@
         <v>0.01016</v>
       </c>
       <c r="S335" t="n">
-        <v>458.2175310922538</v>
+        <v>57.43331298211027</v>
       </c>
     </row>
     <row r="336">
@@ -21599,7 +21599,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H336" t="n">
-        <v>39.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I336" t="n">
         <v>101.93</v>
@@ -21632,7 +21632,7 @@
         <v>0.01016</v>
       </c>
       <c r="S336" t="n">
-        <v>613.5060939081243</v>
+        <v>70.11644354479472</v>
       </c>
     </row>
     <row r="337">
@@ -21662,7 +21662,7 @@
         <v>8.555555555555555</v>
       </c>
       <c r="H337" t="n">
-        <v>41.8</v>
+        <v>5.444444444444443</v>
       </c>
       <c r="I337" t="n">
         <v>101.93</v>
@@ -21695,7 +21695,7 @@
         <v>0.01016</v>
       </c>
       <c r="S337" t="n">
-        <v>730.8950454086379</v>
+        <v>80.78893346721469</v>
       </c>
     </row>
     <row r="338">
@@ -21725,7 +21725,7 @@
         <v>11</v>
       </c>
       <c r="H338" t="n">
-        <v>40.3</v>
+        <v>4.61111111111111</v>
       </c>
       <c r="I338" t="n">
         <v>101.62</v>
@@ -21758,7 +21758,7 @@
         <v>0.01016</v>
       </c>
       <c r="S338" t="n">
-        <v>572.8376145903176</v>
+        <v>64.7045751989759</v>
       </c>
     </row>
     <row r="339">
@@ -21788,7 +21788,7 @@
         <v>10.5</v>
       </c>
       <c r="H339" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I339" t="n">
         <v>101.79</v>
@@ -21821,7 +21821,7 @@
         <v>0.01016</v>
       </c>
       <c r="S339" t="n">
-        <v>853.0573543201097</v>
+        <v>87.42045855488503</v>
       </c>
     </row>
     <row r="340">
@@ -21851,7 +21851,7 @@
         <v>9.888888888888888</v>
       </c>
       <c r="H340" t="n">
-        <v>47.1</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="I340" t="n">
         <v>101.84</v>
@@ -21884,7 +21884,7 @@
         <v>0.01016</v>
       </c>
       <c r="S340" t="n">
-        <v>879.6268408450701</v>
+        <v>90.38260120452679</v>
       </c>
     </row>
     <row r="341">
@@ -21914,7 +21914,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H341" t="n">
-        <v>42.6</v>
+        <v>5.88888888888889</v>
       </c>
       <c r="I341" t="n">
         <v>101.87</v>
@@ -21947,7 +21947,7 @@
         <v>0.01016</v>
       </c>
       <c r="S341" t="n">
-        <v>654.2969351765387</v>
+        <v>71.5046720853493</v>
       </c>
     </row>
     <row r="342">
@@ -21977,7 +21977,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H342" t="n">
-        <v>44.3</v>
+        <v>6.833333333333332</v>
       </c>
       <c r="I342" t="n">
         <v>101.41</v>
@@ -22010,7 +22010,7 @@
         <v>0.01016</v>
       </c>
       <c r="S342" t="n">
-        <v>742.0592165187295</v>
+        <v>79.19297085074713</v>
       </c>
     </row>
     <row r="343">
@@ -22040,7 +22040,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H343" t="n">
-        <v>44.4</v>
+        <v>6.888888888888888</v>
       </c>
       <c r="I343" t="n">
         <v>100.84</v>
@@ -22073,7 +22073,7 @@
         <v>0.01016</v>
       </c>
       <c r="S343" t="n">
-        <v>675.1931082188802</v>
+        <v>71.95766526014349</v>
       </c>
     </row>
     <row r="344">
@@ -22103,7 +22103,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H344" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I344" t="n">
         <v>101.6</v>
@@ -22136,7 +22136,7 @@
         <v>0.01016</v>
       </c>
       <c r="S344" t="n">
-        <v>769.2134082490885</v>
+        <v>83.35645037532566</v>
       </c>
     </row>
     <row r="345">
@@ -22166,7 +22166,7 @@
         <v>7.055555555555557</v>
       </c>
       <c r="H345" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I345" t="n">
         <v>102.7</v>
@@ -22199,7 +22199,7 @@
         <v>0.01016</v>
       </c>
       <c r="S345" t="n">
-        <v>857.81412550804</v>
+        <v>93.35021538347746</v>
       </c>
     </row>
     <row r="346">
@@ -22229,7 +22229,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="H346" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I346" t="n">
         <v>102.82</v>
@@ -22262,7 +22262,7 @@
         <v>0.01016</v>
       </c>
       <c r="S346" t="n">
-        <v>778.0243836656689</v>
+        <v>84.90620372920648</v>
       </c>
     </row>
     <row r="347">
@@ -22292,7 +22292,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H347" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I347" t="n">
         <v>102.45</v>
@@ -22325,7 +22325,7 @@
         <v>0.01016</v>
       </c>
       <c r="S347" t="n">
-        <v>655.9634833966885</v>
+        <v>73.98606096901746</v>
       </c>
     </row>
     <row r="348">
@@ -22355,7 +22355,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H348" t="n">
-        <v>41.2</v>
+        <v>5.111111111111112</v>
       </c>
       <c r="I348" t="n">
         <v>101.77</v>
@@ -22388,7 +22388,7 @@
         <v>0.01016</v>
       </c>
       <c r="S348" t="n">
-        <v>609.9055010130113</v>
+        <v>67.99837866475671</v>
       </c>
     </row>
     <row r="349">
@@ -22418,7 +22418,7 @@
         <v>10.55555555555556</v>
       </c>
       <c r="H349" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I349" t="n">
         <v>102.52</v>
@@ -22451,7 +22451,7 @@
         <v>0.01016</v>
       </c>
       <c r="S349" t="n">
-        <v>751.4423202842801</v>
+        <v>79.53570152234448</v>
       </c>
     </row>
     <row r="350">
@@ -22481,7 +22481,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H350" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I350" t="n">
         <v>102.61</v>
@@ -22514,7 +22514,7 @@
         <v>0.01016</v>
       </c>
       <c r="S350" t="n">
-        <v>882.7277221284822</v>
+        <v>92.04579978288722</v>
       </c>
     </row>
     <row r="351">
@@ -22544,7 +22544,7 @@
         <v>8</v>
       </c>
       <c r="H351" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I351" t="n">
         <v>102.3</v>
@@ -22577,7 +22577,7 @@
         <v>0.01016</v>
       </c>
       <c r="S351" t="n">
-        <v>800.0333484583267</v>
+        <v>87.18501338330601</v>
       </c>
     </row>
     <row r="352">
@@ -22607,7 +22607,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H352" t="n">
-        <v>43.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I352" t="n">
         <v>102.48</v>
@@ -22640,7 +22640,7 @@
         <v>0.01016</v>
       </c>
       <c r="S352" t="n">
-        <v>813.2021421084263</v>
+        <v>87.87700876564777</v>
       </c>
     </row>
     <row r="353">
@@ -22670,7 +22670,7 @@
         <v>11.5</v>
       </c>
       <c r="H353" t="n">
-        <v>44.3</v>
+        <v>6.833333333333332</v>
       </c>
       <c r="I353" t="n">
         <v>102.99</v>
@@ -22703,7 +22703,7 @@
         <v>0.01016</v>
       </c>
       <c r="S353" t="n">
-        <v>684.1424942249414</v>
+        <v>73.01206614896311</v>
       </c>
     </row>
     <row r="354">
@@ -22733,7 +22733,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H354" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I354" t="n">
         <v>103.32</v>
@@ -22766,7 +22766,7 @@
         <v>0.01016</v>
       </c>
       <c r="S354" t="n">
-        <v>735.9970913064058</v>
+        <v>79.42300358433094</v>
       </c>
     </row>
     <row r="355">
@@ -22796,7 +22796,7 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H355" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I355" t="n">
         <v>102.81</v>
@@ -22829,7 +22829,7 @@
         <v>0.01016</v>
       </c>
       <c r="S355" t="n">
-        <v>569.5679967290255</v>
+        <v>64.24152197281832</v>
       </c>
     </row>
     <row r="356">
@@ -22859,7 +22859,7 @@
         <v>13.11111111111111</v>
       </c>
       <c r="H356" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I356" t="n">
         <v>102.29</v>
@@ -22892,7 +22892,7 @@
         <v>0.01016</v>
       </c>
       <c r="S356" t="n">
-        <v>467.3783401164638</v>
+        <v>53.73282321468512</v>
       </c>
     </row>
     <row r="357">
@@ -22922,7 +22922,7 @@
         <v>12.72222222222222</v>
       </c>
       <c r="H357" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I357" t="n">
         <v>102.46</v>
@@ -22955,7 +22955,7 @@
         <v>0.01016</v>
       </c>
       <c r="S357" t="n">
-        <v>671.6620409006621</v>
+        <v>70.51238225367604</v>
       </c>
     </row>
     <row r="358">
@@ -22985,7 +22985,7 @@
         <v>10.94444444444445</v>
       </c>
       <c r="H358" t="n">
-        <v>47.9</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I358" t="n">
         <v>102.9</v>
@@ -23018,7 +23018,7 @@
         <v>0.01016</v>
       </c>
       <c r="S358" t="n">
-        <v>853.8052893357124</v>
+        <v>86.80770734070363</v>
       </c>
     </row>
     <row r="359">
@@ -23048,7 +23048,7 @@
         <v>12.83333333333333</v>
       </c>
       <c r="H359" t="n">
-        <v>44.7</v>
+        <v>7.055555555555557</v>
       </c>
       <c r="I359" t="n">
         <v>102.74</v>
@@ -23081,7 +23081,7 @@
         <v>0.01016</v>
       </c>
       <c r="S359" t="n">
-        <v>639.7959692025272</v>
+        <v>67.90449431521648</v>
       </c>
     </row>
     <row r="360">
@@ -23111,7 +23111,7 @@
         <v>16.05555555555556</v>
       </c>
       <c r="H360" t="n">
-        <v>43.7</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="I360" t="n">
         <v>102.44</v>
@@ -23144,7 +23144,7 @@
         <v>0.01016</v>
       </c>
       <c r="S360" t="n">
-        <v>493.1370107266728</v>
+        <v>53.06733105164555</v>
       </c>
     </row>
     <row r="361">
@@ -23174,7 +23174,7 @@
         <v>17.61111111111111</v>
       </c>
       <c r="H361" t="n">
-        <v>44.2</v>
+        <v>6.777777777777779</v>
       </c>
       <c r="I361" t="n">
         <v>102.01</v>
@@ -23207,7 +23207,7 @@
         <v>0.01016</v>
       </c>
       <c r="S361" t="n">
-        <v>458.5489467006486</v>
+        <v>49.00423496457498</v>
       </c>
     </row>
     <row r="362">
@@ -23237,7 +23237,7 @@
         <v>12.55555555555556</v>
       </c>
       <c r="H362" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I362" t="n">
         <v>101.99</v>
@@ -23270,7 +23270,7 @@
         <v>0.01016</v>
       </c>
       <c r="S362" t="n">
-        <v>914.655506105382</v>
+        <v>88.91567457299988</v>
       </c>
     </row>
     <row r="363">
@@ -23300,7 +23300,7 @@
         <v>15.88888888888889</v>
       </c>
       <c r="H363" t="n">
-        <v>54.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I363" t="n">
         <v>102.19</v>
@@ -23333,7 +23333,7 @@
         <v>0.01016</v>
       </c>
       <c r="S363" t="n">
-        <v>870.360464571394</v>
+        <v>81.16798084972044</v>
       </c>
     </row>
     <row r="364">
@@ -23363,7 +23363,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H364" t="n">
-        <v>55.3</v>
+        <v>12.94444444444444</v>
       </c>
       <c r="I364" t="n">
         <v>101.85</v>
@@ -23396,7 +23396,7 @@
         <v>0.01016</v>
       </c>
       <c r="S364" t="n">
-        <v>923.9400644003842</v>
+        <v>85.65415862319172</v>
       </c>
     </row>
     <row r="365">
@@ -23426,7 +23426,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H365" t="n">
-        <v>52.6</v>
+        <v>11.44444444444445</v>
       </c>
       <c r="I365" t="n">
         <v>101.59</v>
@@ -23459,7 +23459,7 @@
         <v>0.01016</v>
       </c>
       <c r="S365" t="n">
-        <v>779.1371985405913</v>
+        <v>74.62281870427675</v>
       </c>
     </row>
     <row r="366">
@@ -23489,7 +23489,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H366" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I366" t="n">
         <v>102.08</v>
@@ -23522,7 +23522,7 @@
         <v>0.01016</v>
       </c>
       <c r="S366" t="n">
-        <v>584.0475415848604</v>
+        <v>58.53603900935894</v>
       </c>
     </row>
     <row r="367">
@@ -23552,7 +23552,7 @@
         <v>14.55555555555556</v>
       </c>
       <c r="H367" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I367" t="n">
         <v>103.2</v>
@@ -23585,7 +23585,7 @@
         <v>0.01016</v>
       </c>
       <c r="S367" t="n">
-        <v>466.0658095350769</v>
+        <v>52.26288497817487</v>
       </c>
     </row>
     <row r="368">
@@ -23615,7 +23615,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H368" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I368" t="n">
         <v>101.9</v>
@@ -23648,7 +23648,7 @@
         <v>0.01016</v>
       </c>
       <c r="S368" t="n">
-        <v>617.8386389145785</v>
+        <v>67.42505048530604</v>
       </c>
     </row>
     <row r="369">
@@ -23678,7 +23678,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H369" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I369" t="n">
         <v>101.21</v>
@@ -23711,7 +23711,7 @@
         <v>0.01016</v>
       </c>
       <c r="S369" t="n">
-        <v>632.2363380057459</v>
+        <v>60.47883703602457</v>
       </c>
     </row>
     <row r="370">
@@ -23741,7 +23741,7 @@
         <v>11.5</v>
       </c>
       <c r="H370" t="n">
-        <v>43.6</v>
+        <v>6.444444444444446</v>
       </c>
       <c r="I370" t="n">
         <v>101.62</v>
@@ -23774,7 +23774,7 @@
         <v>0.01016</v>
       </c>
       <c r="S370" t="n">
-        <v>659.6538384733625</v>
+        <v>71.08543116963743</v>
       </c>
     </row>
     <row r="371">
@@ -23804,7 +23804,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H371" t="n">
-        <v>44.4</v>
+        <v>6.888888888888888</v>
       </c>
       <c r="I371" t="n">
         <v>101.77</v>
@@ -23837,7 +23837,7 @@
         <v>0.01016</v>
       </c>
       <c r="S371" t="n">
-        <v>592.2772933463231</v>
+        <v>63.12104003582718</v>
       </c>
     </row>
     <row r="372">
@@ -23867,7 +23867,7 @@
         <v>12.33333333333334</v>
       </c>
       <c r="H372" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I372" t="n">
         <v>101.63</v>
@@ -23900,7 +23900,7 @@
         <v>0.01016</v>
       </c>
       <c r="S372" t="n">
-        <v>887.5630836602982</v>
+        <v>87.26470319899128</v>
       </c>
     </row>
     <row r="373">
@@ -23930,7 +23930,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="H373" t="n">
-        <v>50.4</v>
+        <v>10.22222222222222</v>
       </c>
       <c r="I373" t="n">
         <v>101.28</v>
@@ -23963,7 +23963,7 @@
         <v>0.01016</v>
       </c>
       <c r="S373" t="n">
-        <v>889.631687085367</v>
+        <v>87.57899394055198</v>
       </c>
     </row>
     <row r="374">
@@ -23993,7 +23993,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H374" t="n">
-        <v>49.9</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="I374" t="n">
         <v>100.6</v>
@@ -24026,7 +24026,7 @@
         <v>0.01016</v>
       </c>
       <c r="S374" t="n">
-        <v>708.8338458227823</v>
+        <v>70.22589460511</v>
       </c>
     </row>
     <row r="375">
@@ -24056,7 +24056,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H375" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I375" t="n">
         <v>100.25</v>
@@ -24089,7 +24089,7 @@
         <v>0.01016</v>
       </c>
       <c r="S375" t="n">
-        <v>726.7645028843351</v>
+        <v>68.67853715524778</v>
       </c>
     </row>
     <row r="376">
@@ -24119,7 +24119,7 @@
         <v>14.38888888888889</v>
       </c>
       <c r="H376" t="n">
-        <v>54.7</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="I376" t="n">
         <v>100.68</v>
@@ -24152,7 +24152,7 @@
         <v>0.01016</v>
       </c>
       <c r="S376" t="n">
-        <v>953.893172377372</v>
+        <v>89.0643034250202</v>
       </c>
     </row>
     <row r="377">
@@ -24182,7 +24182,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H377" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I377" t="n">
         <v>101.11</v>
@@ -24215,7 +24215,7 @@
         <v>0.01016</v>
       </c>
       <c r="S377" t="n">
-        <v>985.9792742374076</v>
+        <v>93.97125319704467</v>
       </c>
     </row>
     <row r="378">
@@ -24245,7 +24245,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H378" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I378" t="n">
         <v>101.73</v>
@@ -24278,7 +24278,7 @@
         <v>0.01016</v>
       </c>
       <c r="S378" t="n">
-        <v>852.256792244661</v>
+        <v>87.10779115988834</v>
       </c>
     </row>
     <row r="379">
@@ -24308,7 +24308,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H379" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I379" t="n">
         <v>102</v>
@@ -24341,7 +24341,7 @@
         <v>0.01016</v>
       </c>
       <c r="S379" t="n">
-        <v>887.5141563074394</v>
+        <v>89.76361381531936</v>
       </c>
     </row>
     <row r="380">
@@ -24371,7 +24371,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H380" t="n">
-        <v>49.9</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="I380" t="n">
         <v>101.97</v>
@@ -24404,7 +24404,7 @@
         <v>0.01016</v>
       </c>
       <c r="S380" t="n">
-        <v>890.234768873707</v>
+        <v>88.19772563224866</v>
       </c>
     </row>
     <row r="381">
@@ -24434,7 +24434,7 @@
         <v>14.66666666666667</v>
       </c>
       <c r="H381" t="n">
-        <v>51.1</v>
+        <v>10.61111111111111</v>
       </c>
       <c r="I381" t="n">
         <v>101.91</v>
@@ -24467,7 +24467,7 @@
         <v>0.01016</v>
       </c>
       <c r="S381" t="n">
-        <v>785.4696421536077</v>
+        <v>76.644832314769</v>
       </c>
     </row>
     <row r="382">
@@ -24497,7 +24497,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H382" t="n">
-        <v>50.2</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="I382" t="n">
         <v>101.35</v>
@@ -24530,7 +24530,7 @@
         <v>0.01016</v>
       </c>
       <c r="S382" t="n">
-        <v>706.8225947748333</v>
+        <v>69.75945479271763</v>
       </c>
     </row>
     <row r="383">
@@ -24560,7 +24560,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H383" t="n">
-        <v>55.8</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="I383" t="n">
         <v>100.46</v>
@@ -24593,7 +24593,7 @@
         <v>0.01016</v>
       </c>
       <c r="S383" t="n">
-        <v>734.8878227921499</v>
+        <v>67.72713357793346</v>
       </c>
     </row>
     <row r="384">
@@ -24623,7 +24623,7 @@
         <v>12.66666666666667</v>
       </c>
       <c r="H384" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I384" t="n">
         <v>101.67</v>
@@ -24656,7 +24656,7 @@
         <v>0.01016</v>
       </c>
       <c r="S384" t="n">
-        <v>881.4017167045193</v>
+        <v>86.33102427883648</v>
       </c>
     </row>
     <row r="385">
@@ -24686,7 +24686,7 @@
         <v>14.27777777777778</v>
       </c>
       <c r="H385" t="n">
-        <v>48.1</v>
+        <v>8.944444444444446</v>
       </c>
       <c r="I385" t="n">
         <v>102.28</v>
@@ -24719,7 +24719,7 @@
         <v>0.01016</v>
       </c>
       <c r="S385" t="n">
-        <v>693.0950109284702</v>
+        <v>70.28350876370897</v>
       </c>
     </row>
     <row r="386">
@@ -24749,7 +24749,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H386" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I386" t="n">
         <v>102.01</v>
@@ -24782,7 +24782,7 @@
         <v>0.01016</v>
       </c>
       <c r="S386" t="n">
-        <v>588.5216523752931</v>
+        <v>60.39105987604824</v>
       </c>
     </row>
     <row r="387">
@@ -24812,7 +24812,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H387" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I387" t="n">
         <v>101.3</v>
@@ -24845,7 +24845,7 @@
         <v>0.01016</v>
       </c>
       <c r="S387" t="n">
-        <v>491.0769770298064</v>
+        <v>49.21808420939676</v>
       </c>
     </row>
     <row r="388">
@@ -24875,7 +24875,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H388" t="n">
-        <v>56.1</v>
+        <v>13.38888888888889</v>
       </c>
       <c r="I388" t="n">
         <v>100.8</v>
@@ -24908,7 +24908,7 @@
         <v>0.01016</v>
       </c>
       <c r="S388" t="n">
-        <v>703.1005011955896</v>
+        <v>64.5698532797459</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H389" t="n">
-        <v>58</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="I389" t="n">
         <v>100.88</v>
@@ -24971,7 +24971,7 @@
         <v>0.01016</v>
       </c>
       <c r="S389" t="n">
-        <v>603.256841648162</v>
+        <v>54.19716603078607</v>
       </c>
     </row>
     <row r="390">
@@ -25001,7 +25001,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H390" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I390" t="n">
         <v>101.01</v>
@@ -25034,7 +25034,7 @@
         <v>0.01016</v>
       </c>
       <c r="S390" t="n">
-        <v>1015.145517608802</v>
+        <v>87.81192310566934</v>
       </c>
     </row>
     <row r="391">
@@ -25064,7 +25064,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H391" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I391" t="n">
         <v>100.8</v>
@@ -25097,7 +25097,7 @@
         <v>0.01016</v>
       </c>
       <c r="S391" t="n">
-        <v>834.5504474156551</v>
+        <v>72.82460444486281</v>
       </c>
     </row>
     <row r="392">
@@ -25127,7 +25127,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H392" t="n">
-        <v>61.1</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="I392" t="n">
         <v>99.86</v>
@@ -25160,7 +25160,7 @@
         <v>0.01016</v>
       </c>
       <c r="S392" t="n">
-        <v>580.0087374818837</v>
+        <v>50.33613597734974</v>
       </c>
     </row>
     <row r="393">
@@ -25190,7 +25190,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H393" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I393" t="n">
         <v>100.5</v>
@@ -25223,7 +25223,7 @@
         <v>0.01016</v>
       </c>
       <c r="S393" t="n">
-        <v>852.8085586130888</v>
+        <v>70.85902941011582</v>
       </c>
     </row>
     <row r="394">
@@ -25253,7 +25253,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H394" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I394" t="n">
         <v>100.14</v>
@@ -25286,7 +25286,7 @@
         <v>0.01016</v>
       </c>
       <c r="S394" t="n">
-        <v>723.0251206401618</v>
+        <v>60.89380195224824</v>
       </c>
     </row>
     <row r="395">
@@ -25316,7 +25316,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H395" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I395" t="n">
         <v>100.25</v>
@@ -25349,7 +25349,7 @@
         <v>0.01016</v>
       </c>
       <c r="S395" t="n">
-        <v>825.4580884921401</v>
+        <v>70.78841090270429</v>
       </c>
     </row>
     <row r="396">
@@ -25379,7 +25379,7 @@
         <v>10.44444444444444</v>
       </c>
       <c r="H396" t="n">
-        <v>47.6</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="I396" t="n">
         <v>101.69</v>
@@ -25412,7 +25412,7 @@
         <v>0.01016</v>
       </c>
       <c r="S396" t="n">
-        <v>869.3805204263658</v>
+        <v>88.74082696466154</v>
       </c>
     </row>
     <row r="397">
@@ -25442,7 +25442,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H397" t="n">
-        <v>47.6</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="I397" t="n">
         <v>102.27</v>
@@ -25475,7 +25475,7 @@
         <v>0.01016</v>
       </c>
       <c r="S397" t="n">
-        <v>822.5115370956435</v>
+        <v>83.95673962656306</v>
       </c>
     </row>
     <row r="398">
@@ -25505,7 +25505,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H398" t="n">
-        <v>55.1</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="I398" t="n">
         <v>101.4</v>
@@ -25538,7 +25538,7 @@
         <v>0.01016</v>
       </c>
       <c r="S398" t="n">
-        <v>794.3292048362441</v>
+        <v>73.81343222835906</v>
       </c>
     </row>
     <row r="399">
@@ -25568,7 +25568,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H399" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I399" t="n">
         <v>100.77</v>
@@ -25601,7 +25601,7 @@
         <v>0.01016</v>
       </c>
       <c r="S399" t="n">
-        <v>723.3064941904732</v>
+        <v>65.20575643468237</v>
       </c>
     </row>
     <row r="400">
@@ -25631,7 +25631,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H400" t="n">
-        <v>58.1</v>
+        <v>14.5</v>
       </c>
       <c r="I400" t="n">
         <v>101.43</v>
@@ -25664,7 +25664,7 @@
         <v>0.01016</v>
       </c>
       <c r="S400" t="n">
-        <v>885.21188515312</v>
+        <v>79.43767512895219</v>
       </c>
     </row>
     <row r="401">
@@ -25694,7 +25694,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H401" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I401" t="n">
         <v>101.94</v>
@@ -25727,7 +25727,7 @@
         <v>0.01016</v>
       </c>
       <c r="S401" t="n">
-        <v>605.1976839776623</v>
+        <v>59.20290116240713</v>
       </c>
     </row>
     <row r="402">
@@ -25757,7 +25757,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H402" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I402" t="n">
         <v>101.21</v>
@@ -25790,7 +25790,7 @@
         <v>0.01016</v>
       </c>
       <c r="S402" t="n">
-        <v>459.6619969940975</v>
+        <v>46.49043814177051</v>
       </c>
     </row>
     <row r="403">
@@ -25820,7 +25820,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H403" t="n">
-        <v>51.9</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="I403" t="n">
         <v>100.65</v>
@@ -25853,7 +25853,7 @@
         <v>0.01016</v>
       </c>
       <c r="S403" t="n">
-        <v>455.3184572378249</v>
+        <v>43.98756928155074</v>
       </c>
     </row>
     <row r="404">
@@ -25883,7 +25883,7 @@
         <v>22.5</v>
       </c>
       <c r="H404" t="n">
-        <v>65.5</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="I404" t="n">
         <v>100.695</v>
@@ -25916,7 +25916,7 @@
         <v>0.01016</v>
       </c>
       <c r="S404" t="n">
-        <v>949.6655339878297</v>
+        <v>78.66353639115219</v>
       </c>
     </row>
     <row r="405">
@@ -25946,7 +25946,7 @@
         <v>19.83333333333334</v>
       </c>
       <c r="H405" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I405" t="n">
         <v>100.74</v>
@@ -25979,7 +25979,7 @@
         <v>0.01016</v>
       </c>
       <c r="S405" t="n">
-        <v>1040.477597619408</v>
+        <v>87.62992454410146</v>
       </c>
     </row>
     <row r="406">
@@ -26009,7 +26009,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H406" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I406" t="n">
         <v>101.77</v>
@@ -26042,7 +26042,7 @@
         <v>0.01016</v>
       </c>
       <c r="S406" t="n">
-        <v>773.7171941688479</v>
+        <v>68.57432698681966</v>
       </c>
     </row>
     <row r="407">
@@ -26072,7 +26072,7 @@
         <v>23.5</v>
       </c>
       <c r="H407" t="n">
-        <v>60.2</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I407" t="n">
         <v>101.27</v>
@@ -26105,7 +26105,7 @@
         <v>0.01016</v>
       </c>
       <c r="S407" t="n">
-        <v>701.0133715263374</v>
+        <v>61.44237893426071</v>
       </c>
     </row>
     <row r="408">
@@ -26135,7 +26135,7 @@
         <v>23</v>
       </c>
       <c r="H408" t="n">
-        <v>59.3</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I408" t="n">
         <v>100.98</v>
@@ -26168,7 +26168,7 @@
         <v>0.01016</v>
       </c>
       <c r="S408" t="n">
-        <v>692.7379753670559</v>
+        <v>61.32838039072625</v>
       </c>
     </row>
     <row r="409">
@@ -26198,7 +26198,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H409" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I409" t="n">
         <v>100.41</v>
@@ -26231,7 +26231,7 @@
         <v>0.01016</v>
       </c>
       <c r="S409" t="n">
-        <v>694.2310946182096</v>
+        <v>59.98700625333628</v>
       </c>
     </row>
     <row r="410">
@@ -26261,7 +26261,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H410" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I410" t="n">
         <v>100.44</v>
@@ -26294,7 +26294,7 @@
         <v>0.01016</v>
       </c>
       <c r="S410" t="n">
-        <v>650.6488835970631</v>
+        <v>53.56543611206214</v>
       </c>
     </row>
     <row r="411">
@@ -26324,7 +26324,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H411" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I411" t="n">
         <v>100.42</v>
@@ -26357,7 +26357,7 @@
         <v>0.01016</v>
       </c>
       <c r="S411" t="n">
-        <v>919.4585974450856</v>
+        <v>74.93390368436103</v>
       </c>
     </row>
     <row r="412">
@@ -26387,7 +26387,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H412" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I412" t="n">
         <v>101.31</v>
@@ -26420,7 +26420,7 @@
         <v>0.01016</v>
       </c>
       <c r="S412" t="n">
-        <v>1045.588335976521</v>
+        <v>91.84691343592263</v>
       </c>
     </row>
     <row r="413">
@@ -26450,7 +26450,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H413" t="n">
-        <v>64.5</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="I413" t="n">
         <v>100.7</v>
@@ -26483,7 +26483,7 @@
         <v>0.01016</v>
       </c>
       <c r="S413" t="n">
-        <v>1015.522669814876</v>
+        <v>84.99316142937977</v>
       </c>
     </row>
     <row r="414">
@@ -26513,7 +26513,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H414" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I414" t="n">
         <v>100.41</v>
@@ -26546,7 +26546,7 @@
         <v>0.01016</v>
       </c>
       <c r="S414" t="n">
-        <v>1223.254854266368</v>
+        <v>96.33177852818362</v>
       </c>
     </row>
     <row r="415">
@@ -26576,7 +26576,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H415" t="n">
-        <v>71.7</v>
+        <v>22.05555555555556</v>
       </c>
       <c r="I415" t="n">
         <v>100.55</v>
@@ -26609,7 +26609,7 @@
         <v>0.01016</v>
       </c>
       <c r="S415" t="n">
-        <v>1215.63571189003</v>
+        <v>94.73817608065286</v>
       </c>
     </row>
     <row r="416">
@@ -26639,7 +26639,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H416" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I416" t="n">
         <v>100.59</v>
@@ -26672,7 +26672,7 @@
         <v>0.01016</v>
       </c>
       <c r="S416" t="n">
-        <v>1047.614500382812</v>
+        <v>79.85062333978325</v>
       </c>
     </row>
     <row r="417">
@@ -26702,7 +26702,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H417" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I417" t="n">
         <v>100.46</v>
@@ -26735,7 +26735,7 @@
         <v>0.01016</v>
       </c>
       <c r="S417" t="n">
-        <v>1161.377272661514</v>
+        <v>92.16493758228205</v>
       </c>
     </row>
     <row r="418">
@@ -26765,7 +26765,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H418" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I418" t="n">
         <v>100.85</v>
@@ -26798,7 +26798,7 @@
         <v>0.01016</v>
       </c>
       <c r="S418" t="n">
-        <v>1206.028339633722</v>
+        <v>98.28872305272083</v>
       </c>
     </row>
     <row r="419">
@@ -26828,7 +26828,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H419" t="n">
-        <v>63.6</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="I419" t="n">
         <v>101</v>
@@ -26861,7 +26861,7 @@
         <v>0.01016</v>
       </c>
       <c r="S419" t="n">
-        <v>1119.229462940425</v>
+        <v>94.56058080175664</v>
       </c>
     </row>
     <row r="420">
@@ -26891,7 +26891,7 @@
         <v>18.72222222222222</v>
       </c>
       <c r="H420" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I420" t="n">
         <v>101.33</v>
@@ -26924,7 +26924,7 @@
         <v>0.01016</v>
       </c>
       <c r="S420" t="n">
-        <v>1070.165577087861</v>
+        <v>90.99172905434236</v>
       </c>
     </row>
     <row r="421">
@@ -26954,7 +26954,7 @@
         <v>21.5</v>
       </c>
       <c r="H421" t="n">
-        <v>65.8</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="I421" t="n">
         <v>101.08</v>
@@ -26987,7 +26987,7 @@
         <v>0.01016</v>
       </c>
       <c r="S421" t="n">
-        <v>1023.163601289788</v>
+        <v>84.49142763559388</v>
       </c>
     </row>
     <row r="422">
@@ -27017,7 +27017,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H422" t="n">
-        <v>68.5</v>
+        <v>20.27777777777778</v>
       </c>
       <c r="I422" t="n">
         <v>100.99</v>
@@ -27050,7 +27050,7 @@
         <v>0.01016</v>
       </c>
       <c r="S422" t="n">
-        <v>1074.778522089378</v>
+        <v>86.38125408050666</v>
       </c>
     </row>
     <row r="423">
@@ -27080,7 +27080,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H423" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I423" t="n">
         <v>100.99</v>
@@ -27113,7 +27113,7 @@
         <v>0.01016</v>
       </c>
       <c r="S423" t="n">
-        <v>1161.377272661514</v>
+        <v>92.16493758228205</v>
       </c>
     </row>
     <row r="424">
@@ -27143,7 +27143,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H424" t="n">
-        <v>70.8</v>
+        <v>21.55555555555555</v>
       </c>
       <c r="I424" t="n">
         <v>100.75</v>
@@ -27176,7 +27176,7 @@
         <v>0.01016</v>
       </c>
       <c r="S424" t="n">
-        <v>1012.762938301356</v>
+        <v>79.60335259814852</v>
       </c>
     </row>
     <row r="425">
@@ -27206,7 +27206,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H425" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I425" t="n">
         <v>100.35</v>
@@ -27239,7 +27239,7 @@
         <v>0.01016</v>
       </c>
       <c r="S425" t="n">
-        <v>831.4830608730832</v>
+        <v>66.69602482402583</v>
       </c>
     </row>
     <row r="426">
@@ -27269,7 +27269,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H426" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I426" t="n">
         <v>100.51</v>
@@ -27302,7 +27302,7 @@
         <v>0.01016</v>
       </c>
       <c r="S426" t="n">
-        <v>720.6470135365474</v>
+        <v>60.69351571204054</v>
       </c>
     </row>
     <row r="427">
@@ -27332,7 +27332,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H427" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I427" t="n">
         <v>100.8</v>
@@ -27365,7 +27365,7 @@
         <v>0.01016</v>
       </c>
       <c r="S427" t="n">
-        <v>922.5608158622766</v>
+        <v>74.96104716735643</v>
       </c>
     </row>
     <row r="428">
@@ -27395,7 +27395,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H428" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I428" t="n">
         <v>100.59</v>
@@ -27428,7 +27428,7 @@
         <v>0.01016</v>
       </c>
       <c r="S428" t="n">
-        <v>852.2892218105501</v>
+        <v>68.8387579430396</v>
       </c>
     </row>
     <row r="429">
@@ -27458,7 +27458,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H429" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I429" t="n">
         <v>100.61</v>
@@ -27491,7 +27491,7 @@
         <v>0.01016</v>
       </c>
       <c r="S429" t="n">
-        <v>1028.787459003488</v>
+        <v>81.17264677868654</v>
       </c>
     </row>
     <row r="430">
@@ -27521,7 +27521,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H430" t="n">
-        <v>69.59999999999999</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="I430" t="n">
         <v>100.51</v>
@@ -27554,7 +27554,7 @@
         <v>0.01016</v>
       </c>
       <c r="S430" t="n">
-        <v>802.7980901853946</v>
+        <v>63.83216720965203</v>
       </c>
     </row>
     <row r="431">
@@ -27584,7 +27584,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H431" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I431" t="n">
         <v>100.19</v>
@@ -27617,7 +27617,7 @@
         <v>0.01016</v>
       </c>
       <c r="S431" t="n">
-        <v>1283.145031531291</v>
+        <v>97.36080423800234</v>
       </c>
     </row>
     <row r="432">
@@ -27647,7 +27647,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H432" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I432" t="n">
         <v>100.13</v>
@@ -27680,7 +27680,7 @@
         <v>0.01016</v>
       </c>
       <c r="S432" t="n">
-        <v>1138.59968148772</v>
+        <v>85.62178605443746</v>
       </c>
     </row>
     <row r="433">
@@ -27710,7 +27710,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H433" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I433" t="n">
         <v>99.92999999999999</v>
@@ -27743,7 +27743,7 @@
         <v>0.01016</v>
       </c>
       <c r="S433" t="n">
-        <v>1336.053759110841</v>
+        <v>98.04388993230836</v>
       </c>
     </row>
     <row r="434">
@@ -27773,7 +27773,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H434" t="n">
-        <v>69.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="I434" t="n">
         <v>100.51</v>
@@ -27806,7 +27806,7 @@
         <v>0.01016</v>
       </c>
       <c r="S434" t="n">
-        <v>866.8419483463576</v>
+        <v>69.19297499271285</v>
       </c>
     </row>
     <row r="435">
@@ -27836,7 +27836,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H435" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I435" t="n">
         <v>99.87</v>
@@ -27869,7 +27869,7 @@
         <v>0.01016</v>
       </c>
       <c r="S435" t="n">
-        <v>831.4124974452616</v>
+        <v>65.59950978395531</v>
       </c>
     </row>
     <row r="436">
@@ -27899,7 +27899,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H436" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I436" t="n">
         <v>99.89</v>
@@ -27932,7 +27932,7 @@
         <v>0.01016</v>
       </c>
       <c r="S436" t="n">
-        <v>1128.300563815392</v>
+        <v>86.6323726172281</v>
       </c>
     </row>
     <row r="437">
@@ -27962,7 +27962,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H437" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I437" t="n">
         <v>100.28</v>
@@ -27995,7 +27995,7 @@
         <v>0.01016</v>
       </c>
       <c r="S437" t="n">
-        <v>980.9642217698361</v>
+        <v>75.25048010370203</v>
       </c>
     </row>
     <row r="438">
@@ -28025,7 +28025,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H438" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I438" t="n">
         <v>100.1</v>
@@ -28058,7 +28058,7 @@
         <v>0.01016</v>
       </c>
       <c r="S438" t="n">
-        <v>1066.463642223242</v>
+        <v>79.98369514468968</v>
       </c>
     </row>
     <row r="439">
@@ -28088,7 +28088,7 @@
         <v>31.5</v>
       </c>
       <c r="H439" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I439" t="n">
         <v>99.76000000000001</v>
@@ -28121,7 +28121,7 @@
         <v>0.01016</v>
       </c>
       <c r="S439" t="n">
-        <v>921.8316480646384</v>
+        <v>68.47052774722462</v>
       </c>
     </row>
     <row r="440">
@@ -28151,7 +28151,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H440" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I440" t="n">
         <v>100.04</v>
@@ -28184,7 +28184,7 @@
         <v>0.01016</v>
       </c>
       <c r="S440" t="n">
-        <v>941.200911170711</v>
+        <v>71.35078173724753</v>
       </c>
     </row>
     <row r="441">
@@ -28214,7 +28214,7 @@
         <v>23.33333333333334</v>
       </c>
       <c r="H441" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I441" t="n">
         <v>100.84</v>
@@ -28247,7 +28247,7 @@
         <v>0.01016</v>
       </c>
       <c r="S441" t="n">
-        <v>1050.624041358021</v>
+        <v>84.10896690745311</v>
       </c>
     </row>
     <row r="442">
@@ -28277,7 +28277,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H442" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I442" t="n">
         <v>100.67</v>
@@ -28310,7 +28310,7 @@
         <v>0.01016</v>
       </c>
       <c r="S442" t="n">
-        <v>944.819330140357</v>
+        <v>73.2197710771183</v>
       </c>
     </row>
     <row r="443">
@@ -28340,7 +28340,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H443" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I443" t="n">
         <v>100.51</v>
@@ -28373,7 +28373,7 @@
         <v>0.01016</v>
       </c>
       <c r="S443" t="n">
-        <v>884.5526905351089</v>
+        <v>68.80642354177375</v>
       </c>
     </row>
     <row r="444">
@@ -28403,7 +28403,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H444" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I444" t="n">
         <v>100.65</v>
@@ -28436,7 +28436,7 @@
         <v>0.01016</v>
       </c>
       <c r="S444" t="n">
-        <v>671.2769137234858</v>
+        <v>54.59802329233578</v>
       </c>
     </row>
     <row r="445">
@@ -28466,7 +28466,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H445" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I445" t="n">
         <v>100.68</v>
@@ -28499,7 +28499,7 @@
         <v>0.01016</v>
       </c>
       <c r="S445" t="n">
-        <v>938.8778657306005</v>
+        <v>73.58570106761634</v>
       </c>
     </row>
     <row r="446">
@@ -28529,7 +28529,7 @@
         <v>29.5</v>
       </c>
       <c r="H446" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I446" t="n">
         <v>100.28</v>
@@ -28562,7 +28562,7 @@
         <v>0.01016</v>
       </c>
       <c r="S446" t="n">
-        <v>832.062128501512</v>
+        <v>64.72335660650216</v>
       </c>
     </row>
     <row r="447">
@@ -28592,7 +28592,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H447" t="n">
-        <v>70.8</v>
+        <v>21.55555555555555</v>
       </c>
       <c r="I447" t="n">
         <v>100.38</v>
@@ -28625,7 +28625,7 @@
         <v>0.01016</v>
       </c>
       <c r="S447" t="n">
-        <v>843.312607667532</v>
+        <v>66.28452554870982</v>
       </c>
     </row>
     <row r="448">
@@ -28655,7 +28655,7 @@
         <v>30.33333333333333</v>
       </c>
       <c r="H448" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I448" t="n">
         <v>100.3</v>
@@ -28688,7 +28688,7 @@
         <v>0.01016</v>
       </c>
       <c r="S448" t="n">
-        <v>875.4210678287226</v>
+        <v>66.66517236901801</v>
       </c>
     </row>
     <row r="449">
@@ -28718,7 +28718,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H449" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I449" t="n">
         <v>100.34</v>
@@ -28751,7 +28751,7 @@
         <v>0.01016</v>
       </c>
       <c r="S449" t="n">
-        <v>987.2523484449838</v>
+        <v>74.24058756967869</v>
       </c>
     </row>
     <row r="450">
@@ -28781,7 +28781,7 @@
         <v>27</v>
       </c>
       <c r="H450" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I450" t="n">
         <v>100.32</v>
@@ -28814,7 +28814,7 @@
         <v>0.01016</v>
       </c>
       <c r="S450" t="n">
-        <v>1122.732807765131</v>
+        <v>84.50388464562479</v>
       </c>
     </row>
     <row r="451">
@@ -28844,7 +28844,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H451" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I451" t="n">
         <v>100.2</v>
@@ -28877,7 +28877,7 @@
         <v>0.01016</v>
       </c>
       <c r="S451" t="n">
-        <v>1011.791181802891</v>
+        <v>77.05004598945644</v>
       </c>
     </row>
     <row r="452">
@@ -28907,7 +28907,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H452" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I452" t="n">
         <v>99.97</v>
@@ -28940,7 +28940,7 @@
         <v>0.01016</v>
       </c>
       <c r="S452" t="n">
-        <v>911.5080188282949</v>
+        <v>68.91348178326656</v>
       </c>
     </row>
     <row r="453">
@@ -28970,7 +28970,7 @@
         <v>30.16666666666667</v>
       </c>
       <c r="H453" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I453" t="n">
         <v>100.01</v>
@@ -29003,7 +29003,7 @@
         <v>0.01016</v>
       </c>
       <c r="S453" t="n">
-        <v>941.9164900637934</v>
+        <v>70.76836118875474</v>
       </c>
     </row>
     <row r="454">
@@ -29033,7 +29033,7 @@
         <v>30.38888888888889</v>
       </c>
       <c r="H454" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I454" t="n">
         <v>100.04</v>
@@ -29066,7 +29066,7 @@
         <v>0.01016</v>
       </c>
       <c r="S454" t="n">
-        <v>906.6669709029197</v>
+        <v>68.48598440089249</v>
       </c>
     </row>
     <row r="455">
@@ -29096,7 +29096,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H455" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I455" t="n">
         <v>100.29</v>
@@ -29129,7 +29129,7 @@
         <v>0.01016</v>
       </c>
       <c r="S455" t="n">
-        <v>974.8046958125489</v>
+        <v>73.50105861723789</v>
       </c>
     </row>
     <row r="456">
@@ -29159,7 +29159,7 @@
         <v>31.22222222222222</v>
       </c>
       <c r="H456" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I456" t="n">
         <v>100.15</v>
@@ -29192,7 +29192,7 @@
         <v>0.01016</v>
       </c>
       <c r="S456" t="n">
-        <v>917.0907038110716</v>
+        <v>68.41744008189391</v>
       </c>
     </row>
     <row r="457">
@@ -29222,7 +29222,7 @@
         <v>32.44444444444445</v>
       </c>
       <c r="H457" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I457" t="n">
         <v>100.185</v>
@@ -29255,7 +29255,7 @@
         <v>0.01016</v>
       </c>
       <c r="S457" t="n">
-        <v>827.2756492940096</v>
+        <v>62.15513006671639</v>
       </c>
     </row>
     <row r="458">
@@ -29285,7 +29285,7 @@
         <v>27.5</v>
       </c>
       <c r="H458" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I458" t="n">
         <v>100.22</v>
@@ -29318,7 +29318,7 @@
         <v>0.01016</v>
       </c>
       <c r="S458" t="n">
-        <v>1053.910814727576</v>
+        <v>79.89512081816611</v>
       </c>
     </row>
     <row r="459">
@@ -29348,7 +29348,7 @@
         <v>31.16666666666666</v>
       </c>
       <c r="H459" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I459" t="n">
         <v>100.13</v>
@@ -29381,7 +29381,7 @@
         <v>0.01016</v>
       </c>
       <c r="S459" t="n">
-        <v>746.4168652871895</v>
+        <v>58.22533895038951</v>
       </c>
     </row>
     <row r="460">
@@ -29411,7 +29411,7 @@
         <v>31.5</v>
       </c>
       <c r="H460" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I460" t="n">
         <v>100.29</v>
@@ -29444,7 +29444,7 @@
         <v>0.01016</v>
       </c>
       <c r="S460" t="n">
-        <v>611.7236458946887</v>
+        <v>49.65488163357825</v>
       </c>
     </row>
     <row r="461">
@@ -29474,7 +29474,7 @@
         <v>30.72222222222222</v>
       </c>
       <c r="H461" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I461" t="n">
         <v>100.31</v>
@@ -29507,7 +29507,7 @@
         <v>0.01016</v>
       </c>
       <c r="S461" t="n">
-        <v>707.8428042741053</v>
+        <v>56.17320866326634</v>
       </c>
     </row>
     <row r="462">
@@ -29537,7 +29537,7 @@
         <v>31</v>
       </c>
       <c r="H462" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I462" t="n">
         <v>100.35</v>
@@ -29570,7 +29570,7 @@
         <v>0.01016</v>
       </c>
       <c r="S462" t="n">
-        <v>743.8077287805793</v>
+        <v>58.18643875981903</v>
       </c>
     </row>
     <row r="463">
@@ -29600,7 +29600,7 @@
         <v>33.16666666666667</v>
       </c>
       <c r="H463" t="n">
-        <v>72.7</v>
+        <v>22.61111111111111</v>
       </c>
       <c r="I463" t="n">
         <v>100.34</v>
@@ -29633,7 +29633,7 @@
         <v>0.01016</v>
       </c>
       <c r="S463" t="n">
-        <v>698.9269011725511</v>
+        <v>53.96284538683843</v>
       </c>
     </row>
     <row r="464">
@@ -29663,7 +29663,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H464" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I464" t="n">
         <v>100.51</v>
@@ -29696,7 +29696,7 @@
         <v>0.01016</v>
       </c>
       <c r="S464" t="n">
-        <v>967.3029478004768</v>
+        <v>72.61114942894832</v>
       </c>
     </row>
     <row r="465">
@@ -29726,7 +29726,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H465" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I465" t="n">
         <v>100.52</v>
@@ -29759,7 +29759,7 @@
         <v>0.01016</v>
       </c>
       <c r="S465" t="n">
-        <v>1069.593342643778</v>
+        <v>80.00575149911219</v>
       </c>
     </row>
     <row r="466">
@@ -29789,7 +29789,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H466" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I466" t="n">
         <v>100.45</v>
@@ -29822,7 +29822,7 @@
         <v>0.01016</v>
       </c>
       <c r="S466" t="n">
-        <v>915.4916501183243</v>
+        <v>69.71663225892993</v>
       </c>
     </row>
     <row r="467">
@@ -29852,7 +29852,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H467" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I467" t="n">
         <v>100.22</v>
@@ -29885,7 +29885,7 @@
         <v>0.01016</v>
       </c>
       <c r="S467" t="n">
-        <v>754.8872458862702</v>
+        <v>60.19786280404055</v>
       </c>
     </row>
     <row r="468">
@@ -29915,7 +29915,7 @@
         <v>25</v>
       </c>
       <c r="H468" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I468" t="n">
         <v>100.6</v>
@@ -29948,7 +29948,7 @@
         <v>0.01016</v>
       </c>
       <c r="S468" t="n">
-        <v>988.9186313532075</v>
+        <v>78.47891127036732</v>
       </c>
     </row>
     <row r="469">
@@ -29978,7 +29978,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H469" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I469" t="n">
         <v>100.12</v>
@@ -30011,7 +30011,7 @@
         <v>0.01016</v>
       </c>
       <c r="S469" t="n">
-        <v>1255.491304372586</v>
+        <v>97.66050950499637</v>
       </c>
     </row>
     <row r="470">
@@ -30041,7 +30041,7 @@
         <v>24</v>
       </c>
       <c r="H470" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I470" t="n">
         <v>100.49</v>
@@ -30074,7 +30074,7 @@
         <v>0.01016</v>
       </c>
       <c r="S470" t="n">
-        <v>1073.199784133052</v>
+        <v>84.75809953634943</v>
       </c>
     </row>
     <row r="471">
@@ -30104,7 +30104,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H471" t="n">
-        <v>68.8</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="I471" t="n">
         <v>100.77</v>
@@ -30137,7 +30137,7 @@
         <v>0.01016</v>
       </c>
       <c r="S471" t="n">
-        <v>937.0123084405757</v>
+        <v>75.08717236959367</v>
       </c>
     </row>
     <row r="472">
@@ -30167,7 +30167,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H472" t="n">
-        <v>64.09999999999999</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="I472" t="n">
         <v>101.07</v>
@@ -30200,7 +30200,7 @@
         <v>0.01016</v>
       </c>
       <c r="S472" t="n">
-        <v>636.0865591847147</v>
+        <v>53.45950412709823</v>
       </c>
     </row>
     <row r="473">
@@ -30230,7 +30230,7 @@
         <v>26</v>
       </c>
       <c r="H473" t="n">
-        <v>61.7</v>
+        <v>16.5</v>
       </c>
       <c r="I473" t="n">
         <v>100.93</v>
@@ -30263,7 +30263,7 @@
         <v>0.01016</v>
       </c>
       <c r="S473" t="n">
-        <v>647.2090960064909</v>
+        <v>55.80274937778525</v>
       </c>
     </row>
     <row r="474">
@@ -30293,7 +30293,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H474" t="n">
-        <v>66</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="I474" t="n">
         <v>101.05</v>
@@ -30326,7 +30326,7 @@
         <v>0.01016</v>
       </c>
       <c r="S474" t="n">
-        <v>805.6154542912758</v>
+        <v>66.39086485075181</v>
       </c>
     </row>
     <row r="475">
@@ -30356,7 +30356,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H475" t="n">
-        <v>66.5</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="I475" t="n">
         <v>100.86</v>
@@ -30389,7 +30389,7 @@
         <v>0.01016</v>
       </c>
       <c r="S475" t="n">
-        <v>639.4816944482606</v>
+        <v>52.43266753052301</v>
       </c>
     </row>
     <row r="476">
@@ -30419,7 +30419,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H476" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I476" t="n">
         <v>100.72</v>
@@ -30452,7 +30452,7 @@
         <v>0.01016</v>
       </c>
       <c r="S476" t="n">
-        <v>799.6204982578017</v>
+        <v>64.14022258685883</v>
       </c>
     </row>
     <row r="477">
@@ -30482,7 +30482,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H477" t="n">
-        <v>68.8</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="I477" t="n">
         <v>100.75</v>
@@ -30515,7 +30515,7 @@
         <v>0.01016</v>
       </c>
       <c r="S477" t="n">
-        <v>871.4613875967336</v>
+        <v>69.83427094231288</v>
       </c>
     </row>
     <row r="478">
@@ -30545,7 +30545,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H478" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I478" t="n">
         <v>100.86</v>
@@ -30578,7 +30578,7 @@
         <v>0.01016</v>
       </c>
       <c r="S478" t="n">
-        <v>679.4632419354189</v>
+        <v>57.83345763127991</v>
       </c>
     </row>
     <row r="479">
@@ -30608,7 +30608,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H479" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I479" t="n">
         <v>100.92</v>
@@ -30641,7 +30641,7 @@
         <v>0.01016</v>
       </c>
       <c r="S479" t="n">
-        <v>719.934183042407</v>
+        <v>58.43855617294842</v>
       </c>
     </row>
     <row r="480">
@@ -30671,7 +30671,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H480" t="n">
-        <v>73.59999999999999</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="I480" t="n">
         <v>100.38</v>
@@ -30704,7 +30704,7 @@
         <v>0.01016</v>
       </c>
       <c r="S480" t="n">
-        <v>933.412884424815</v>
+        <v>71.47151698166812</v>
       </c>
     </row>
     <row r="481">
@@ -30734,7 +30734,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H481" t="n">
-        <v>72</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I481" t="n">
         <v>100.57</v>
@@ -30767,7 +30767,7 @@
         <v>0.01016</v>
       </c>
       <c r="S481" t="n">
-        <v>1113.895634082761</v>
+        <v>86.56503247194122</v>
       </c>
     </row>
     <row r="482">
@@ -30797,7 +30797,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H482" t="n">
-        <v>68.40000000000001</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I482" t="n">
         <v>101.03</v>
@@ -30830,7 +30830,7 @@
         <v>0.01016</v>
       </c>
       <c r="S482" t="n">
-        <v>1141.172187431775</v>
+        <v>91.80780365839203</v>
       </c>
     </row>
     <row r="483">
@@ -30860,7 +30860,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H483" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I483" t="n">
         <v>101.08</v>
@@ -30893,7 +30893,7 @@
         <v>0.01016</v>
       </c>
       <c r="S483" t="n">
-        <v>807.5343681131964</v>
+        <v>66.41359829865731</v>
       </c>
     </row>
     <row r="484">
@@ -30923,7 +30923,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H484" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I484" t="n">
         <v>101.07</v>
@@ -30956,7 +30956,7 @@
         <v>0.01016</v>
       </c>
       <c r="S484" t="n">
-        <v>873.9409165132256</v>
+        <v>70.86885369724413</v>
       </c>
     </row>
     <row r="485">
@@ -30986,7 +30986,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H485" t="n">
-        <v>66</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="I485" t="n">
         <v>101.55</v>
@@ -31019,7 +31019,7 @@
         <v>0.01016</v>
       </c>
       <c r="S485" t="n">
-        <v>1152.055512476549</v>
+        <v>94.94103101172654</v>
       </c>
     </row>
     <row r="486">
@@ -31049,7 +31049,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H486" t="n">
-        <v>66.40000000000001</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="I486" t="n">
         <v>101.37</v>
@@ -31082,7 +31082,7 @@
         <v>0.01016</v>
       </c>
       <c r="S486" t="n">
-        <v>1121.609094355855</v>
+        <v>92.05671201138598</v>
       </c>
     </row>
     <row r="487">
@@ -31112,7 +31112,7 @@
         <v>19.5</v>
       </c>
       <c r="H487" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I487" t="n">
         <v>101.08</v>
@@ -31145,7 +31145,7 @@
         <v>0.01016</v>
       </c>
       <c r="S487" t="n">
-        <v>1227.026155367614</v>
+        <v>100</v>
       </c>
     </row>
     <row r="488">
@@ -31175,7 +31175,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H488" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I488" t="n">
         <v>101.48</v>
@@ -31208,7 +31208,7 @@
         <v>0.01016</v>
       </c>
       <c r="S488" t="n">
-        <v>1178.664211134012</v>
+        <v>97.93405701418118</v>
       </c>
     </row>
     <row r="489">
@@ -31238,7 +31238,7 @@
         <v>16.5</v>
       </c>
       <c r="H489" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I489" t="n">
         <v>101.92</v>
@@ -31271,7 +31271,7 @@
         <v>0.01016</v>
       </c>
       <c r="S489" t="n">
-        <v>1071.752320788033</v>
+        <v>94.14521876837208</v>
       </c>
     </row>
     <row r="490">
@@ -31301,7 +31301,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H490" t="n">
-        <v>60.3</v>
+        <v>15.72222222222222</v>
       </c>
       <c r="I490" t="n">
         <v>102</v>
@@ -31334,7 +31334,7 @@
         <v>0.01016</v>
       </c>
       <c r="S490" t="n">
-        <v>991.8984953413677</v>
+        <v>86.84181700007898</v>
       </c>
     </row>
     <row r="491">
@@ -31364,7 +31364,7 @@
         <v>19.22222222222222</v>
       </c>
       <c r="H491" t="n">
-        <v>61.6</v>
+        <v>16.44444444444445</v>
       </c>
       <c r="I491" t="n">
         <v>102.36</v>
@@ -31397,7 +31397,7 @@
         <v>0.01016</v>
       </c>
       <c r="S491" t="n">
-        <v>972.5538484570179</v>
+        <v>83.94510616560353</v>
       </c>
     </row>
     <row r="492">
@@ -31427,7 +31427,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H492" t="n">
-        <v>61.1</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="I492" t="n">
         <v>102.07</v>
@@ -31460,7 +31460,7 @@
         <v>0.01016</v>
       </c>
       <c r="S492" t="n">
-        <v>890.0166148387913</v>
+        <v>77.24021114082821</v>
       </c>
     </row>
     <row r="493">
@@ -31490,7 +31490,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H493" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I493" t="n">
         <v>102.34</v>
@@ -31523,7 +31523,7 @@
         <v>0.01016</v>
       </c>
       <c r="S493" t="n">
-        <v>1002.38485869317</v>
+        <v>88.05181941886016</v>
       </c>
     </row>
     <row r="494">
@@ -31553,7 +31553,7 @@
         <v>19.44444444444445</v>
       </c>
       <c r="H494" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I494" t="n">
         <v>102.06</v>
@@ -31586,7 +31586,7 @@
         <v>0.01016</v>
       </c>
       <c r="S494" t="n">
-        <v>845.704702092852</v>
+        <v>75.20774311246792</v>
       </c>
     </row>
     <row r="495">
@@ -31616,7 +31616,7 @@
         <v>14.66666666666667</v>
       </c>
       <c r="H495" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I495" t="n">
         <v>102.28</v>
@@ -31649,7 +31649,7 @@
         <v>0.01016</v>
       </c>
       <c r="S495" t="n">
-        <v>910.0595549295854</v>
+        <v>85.58527489392301</v>
       </c>
     </row>
     <row r="496">
@@ -31679,7 +31679,7 @@
         <v>17.05555555555556</v>
       </c>
       <c r="H496" t="n">
-        <v>51.9</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="I496" t="n">
         <v>102.41</v>
@@ -31712,7 +31712,7 @@
         <v>0.01016</v>
       </c>
       <c r="S496" t="n">
-        <v>701.3677741050368</v>
+        <v>67.75799018219418</v>
       </c>
     </row>
     <row r="497">
@@ -31742,7 +31742,7 @@
         <v>19.83333333333334</v>
       </c>
       <c r="H497" t="n">
-        <v>53.2</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="I497" t="n">
         <v>102.04</v>
@@ -31775,7 +31775,7 @@
         <v>0.01016</v>
       </c>
       <c r="S497" t="n">
-        <v>628.0752988862868</v>
+        <v>59.7142729011896</v>
       </c>
     </row>
     <row r="498">
@@ -31805,7 +31805,7 @@
         <v>20.5</v>
       </c>
       <c r="H498" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I498" t="n">
         <v>101.75</v>
@@ -31838,7 +31838,7 @@
         <v>0.01016</v>
       </c>
       <c r="S498" t="n">
-        <v>734.4059412553936</v>
+        <v>66.51125569757545</v>
       </c>
     </row>
     <row r="499">
@@ -31868,7 +31868,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H499" t="n">
-        <v>58.1</v>
+        <v>14.5</v>
       </c>
       <c r="I499" t="n">
         <v>102.17</v>
@@ -31901,7 +31901,7 @@
         <v>0.01016</v>
       </c>
       <c r="S499" t="n">
-        <v>963.0248165274322</v>
+        <v>86.42049863936501</v>
       </c>
     </row>
     <row r="500">
@@ -31931,7 +31931,7 @@
         <v>18.94444444444444</v>
       </c>
       <c r="H500" t="n">
-        <v>58.7</v>
+        <v>14.83333333333334</v>
       </c>
       <c r="I500" t="n">
         <v>101.55</v>
@@ -31964,7 +31964,7 @@
         <v>0.01016</v>
       </c>
       <c r="S500" t="n">
-        <v>864.3074800331132</v>
+        <v>77.03566469738163</v>
       </c>
     </row>
     <row r="501">
@@ -31994,7 +31994,7 @@
         <v>20.88888888888889</v>
       </c>
       <c r="H501" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I501" t="n">
         <v>101.28</v>
@@ -32027,7 +32027,7 @@
         <v>0.01016</v>
       </c>
       <c r="S501" t="n">
-        <v>873.1109108973488</v>
+        <v>75.44362400053407</v>
       </c>
     </row>
     <row r="502">
@@ -32057,7 +32057,7 @@
         <v>16.5</v>
       </c>
       <c r="H502" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I502" t="n">
         <v>101.12</v>
@@ -32090,7 +32090,7 @@
         <v>0.01016</v>
       </c>
       <c r="S502" t="n">
-        <v>943.6910332910145</v>
+        <v>85.46509782782464</v>
       </c>
     </row>
     <row r="503">
@@ -32120,7 +32120,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H503" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I503" t="n">
         <v>101.77</v>
@@ -32153,7 +32153,7 @@
         <v>0.01016</v>
       </c>
       <c r="S503" t="n">
-        <v>599.5116456698751</v>
+        <v>58.94364782272056</v>
       </c>
     </row>
     <row r="504">
@@ -32183,7 +32183,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H504" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I504" t="n">
         <v>101.58</v>
@@ -32216,7 +32216,7 @@
         <v>0.01016</v>
       </c>
       <c r="S504" t="n">
-        <v>829.4655773196793</v>
+        <v>78.00592726642387</v>
       </c>
     </row>
     <row r="505">
@@ -32246,7 +32246,7 @@
         <v>17</v>
       </c>
       <c r="H505" t="n">
-        <v>55</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="I505" t="n">
         <v>101.37</v>
@@ -32279,7 +32279,7 @@
         <v>0.01016</v>
       </c>
       <c r="S505" t="n">
-        <v>818.7841382167086</v>
+        <v>76.17640550763763</v>
       </c>
     </row>
     <row r="506">
@@ -32309,7 +32309,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H506" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I506" t="n">
         <v>101.63</v>
@@ -32342,7 +32342,7 @@
         <v>0.01016</v>
       </c>
       <c r="S506" t="n">
-        <v>979.207248340666</v>
+        <v>86.49590460331137</v>
       </c>
     </row>
     <row r="507">
@@ -32372,7 +32372,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H507" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I507" t="n">
         <v>101.83</v>
@@ -32405,7 +32405,7 @@
         <v>0.01016</v>
       </c>
       <c r="S507" t="n">
-        <v>850.6088426397228</v>
+        <v>76.68200612028095</v>
       </c>
     </row>
     <row r="508">
@@ -32435,7 +32435,7 @@
         <v>10.11111111111111</v>
       </c>
       <c r="H508" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I508" t="n">
         <v>103.09</v>
@@ -32468,7 +32468,7 @@
         <v>0.01016</v>
       </c>
       <c r="S508" t="n">
-        <v>840.4905780796323</v>
+        <v>87.05485937810286</v>
       </c>
     </row>
     <row r="509">
@@ -32498,7 +32498,7 @@
         <v>12</v>
       </c>
       <c r="H509" t="n">
-        <v>49.1</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="I509" t="n">
         <v>102.68</v>
@@ -32531,7 +32531,7 @@
         <v>0.01016</v>
       </c>
       <c r="S509" t="n">
-        <v>845.8972543535717</v>
+        <v>84.67039874646703</v>
       </c>
     </row>
     <row r="510">
@@ -32561,7 +32561,7 @@
         <v>12.16666666666667</v>
       </c>
       <c r="H510" t="n">
-        <v>47.9</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I510" t="n">
         <v>103.1</v>
@@ -32594,7 +32594,7 @@
         <v>0.01016</v>
       </c>
       <c r="S510" t="n">
-        <v>787.5009695880569</v>
+        <v>80.06644436661612</v>
       </c>
     </row>
     <row r="511">
@@ -32624,7 +32624,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H511" t="n">
-        <v>41.8</v>
+        <v>5.444444444444443</v>
       </c>
       <c r="I511" t="n">
         <v>103.21</v>
@@ -32657,7 +32657,7 @@
         <v>0.01016</v>
       </c>
       <c r="S511" t="n">
-        <v>624.9655366335005</v>
+        <v>69.08009498156777</v>
       </c>
     </row>
     <row r="512">
@@ -32687,7 +32687,7 @@
         <v>11.05555555555556</v>
       </c>
       <c r="H512" t="n">
-        <v>45.3</v>
+        <v>7.388888888888888</v>
       </c>
       <c r="I512" t="n">
         <v>102.76</v>
@@ -32720,7 +32720,7 @@
         <v>0.01016</v>
       </c>
       <c r="S512" t="n">
-        <v>742.0320229973167</v>
+        <v>78.11202634948282</v>
       </c>
     </row>
     <row r="513">
@@ -32750,7 +32750,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H513" t="n">
-        <v>49.1</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="I513" t="n">
         <v>102.08</v>
@@ -32783,7 +32783,7 @@
         <v>0.01016</v>
       </c>
       <c r="S513" t="n">
-        <v>861.5441170347857</v>
+        <v>86.23657725754641</v>
       </c>
     </row>
     <row r="514">
@@ -32813,7 +32813,7 @@
         <v>13.61111111111111</v>
       </c>
       <c r="H514" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I514" t="n">
         <v>101.64</v>
@@ -32846,7 +32846,7 @@
         <v>0.01016</v>
       </c>
       <c r="S514" t="n">
-        <v>910.1383701791118</v>
+        <v>87.0625537657648</v>
       </c>
     </row>
     <row r="515">
@@ -32876,7 +32876,7 @@
         <v>12.83333333333333</v>
       </c>
       <c r="H515" t="n">
-        <v>53.9</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="I515" t="n">
         <v>101.9</v>
@@ -32909,7 +32909,7 @@
         <v>0.01016</v>
       </c>
       <c r="S515" t="n">
-        <v>1015.347284665066</v>
+        <v>95.71751901098526</v>
       </c>
     </row>
     <row r="516">
@@ -32939,7 +32939,7 @@
         <v>13</v>
       </c>
       <c r="H516" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I516" t="n">
         <v>102.19</v>
@@ -32972,7 +32972,7 @@
         <v>0.01016</v>
       </c>
       <c r="S516" t="n">
-        <v>1014.145972035161</v>
+        <v>95.3739360562065</v>
       </c>
     </row>
     <row r="517">
@@ -33002,7 +33002,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H517" t="n">
-        <v>56.7</v>
+        <v>13.72222222222222</v>
       </c>
       <c r="I517" t="n">
         <v>101.88</v>
@@ -33035,7 +33035,7 @@
         <v>0.01016</v>
       </c>
       <c r="S517" t="n">
-        <v>1024.088088860582</v>
+        <v>93.39214028149239</v>
       </c>
     </row>
     <row r="518">
@@ -33065,7 +33065,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H518" t="n">
-        <v>51.9</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="I518" t="n">
         <v>102.15</v>
@@ -33098,7 +33098,7 @@
         <v>0.01016</v>
       </c>
       <c r="S518" t="n">
-        <v>934.1136508504278</v>
+        <v>90.24318755469079</v>
       </c>
     </row>
     <row r="519">
@@ -33128,7 +33128,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H519" t="n">
-        <v>49.9</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="I519" t="n">
         <v>101.63</v>
@@ -33161,7 +33161,7 @@
         <v>0.01016</v>
       </c>
       <c r="S519" t="n">
-        <v>836.6325337124509</v>
+        <v>82.88722171201995</v>
       </c>
     </row>
     <row r="520">
@@ -33191,7 +33191,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H520" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I520" t="n">
         <v>102.18</v>
@@ -33224,7 +33224,7 @@
         <v>0.01016</v>
       </c>
       <c r="S520" t="n">
-        <v>852.0600878922277</v>
+        <v>82.41848723691018</v>
       </c>
     </row>
     <row r="521">
@@ -33254,7 +33254,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H521" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I521" t="n">
         <v>103.05</v>
@@ -33287,7 +33287,7 @@
         <v>0.01016</v>
       </c>
       <c r="S521" t="n">
-        <v>831.3967958882527</v>
+        <v>87.63854739289349</v>
       </c>
     </row>
     <row r="522">
@@ -33317,7 +33317,7 @@
         <v>10</v>
       </c>
       <c r="H522" t="n">
-        <v>47.9</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I522" t="n">
         <v>102.71</v>
@@ -33350,7 +33350,7 @@
         <v>0.01016</v>
       </c>
       <c r="S522" t="n">
-        <v>909.3256073606286</v>
+        <v>92.45254414221783</v>
       </c>
     </row>
     <row r="523">
@@ -33380,7 +33380,7 @@
         <v>10.11111111111111</v>
       </c>
       <c r="H523" t="n">
-        <v>47.8</v>
+        <v>8.777777777777777</v>
       </c>
       <c r="I523" t="n">
         <v>102.71</v>
@@ -33413,7 +33413,7 @@
         <v>0.01016</v>
       </c>
       <c r="S523" t="n">
-        <v>898.0253557468949</v>
+        <v>91.42366437132426</v>
       </c>
     </row>
     <row r="524">
@@ -33443,7 +33443,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H524" t="n">
-        <v>47.6</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="I524" t="n">
         <v>101.9</v>
@@ -33476,7 +33476,7 @@
         <v>0.01016</v>
       </c>
       <c r="S524" t="n">
-        <v>929.6098679396348</v>
+        <v>94.88865519440867</v>
       </c>
     </row>
     <row r="525">
@@ -33506,7 +33506,7 @@
         <v>12.33333333333334</v>
       </c>
       <c r="H525" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I525" t="n">
         <v>101.37</v>
@@ -33539,7 +33539,7 @@
         <v>0.01016</v>
       </c>
       <c r="S525" t="n">
-        <v>815.1434991747049</v>
+        <v>81.90941546060131</v>
       </c>
     </row>
     <row r="526">
@@ -33569,7 +33569,7 @@
         <v>12.5</v>
       </c>
       <c r="H526" t="n">
-        <v>51.5</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I526" t="n">
         <v>101.07</v>
@@ -33602,7 +33602,7 @@
         <v>0.01016</v>
       </c>
       <c r="S526" t="n">
-        <v>922.5484815896803</v>
+        <v>89.57096486485902</v>
       </c>
     </row>
     <row r="527">
@@ -33632,7 +33632,7 @@
         <v>10.5</v>
       </c>
       <c r="H527" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I527" t="n">
         <v>102.13</v>
@@ -33665,7 +33665,7 @@
         <v>0.01016</v>
       </c>
       <c r="S527" t="n">
-        <v>853.0573543201097</v>
+        <v>87.42045855488503</v>
       </c>
     </row>
     <row r="528">
@@ -33695,7 +33695,7 @@
         <v>10.61111111111111</v>
       </c>
       <c r="H528" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I528" t="n">
         <v>101.73</v>
@@ -33728,7 +33728,7 @@
         <v>0.01016</v>
       </c>
       <c r="S528" t="n">
-        <v>855.4168509121777</v>
+        <v>87.43077565583826</v>
       </c>
     </row>
     <row r="529">
@@ -33758,7 +33758,7 @@
         <v>4.944444444444444</v>
       </c>
       <c r="H529" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I529" t="n">
         <v>103.56</v>
@@ -33791,7 +33791,7 @@
         <v>0.01016</v>
       </c>
       <c r="S529" t="n">
-        <v>422.669232875993</v>
+        <v>58.56925977848476</v>
       </c>
     </row>
     <row r="530">
@@ -33821,7 +33821,7 @@
         <v>4.722222222222222</v>
       </c>
       <c r="H530" t="n">
-        <v>35.8</v>
+        <v>2.11111111111111</v>
       </c>
       <c r="I530" t="n">
         <v>102.83</v>
@@ -33854,7 +33854,7 @@
         <v>0.01016</v>
       </c>
       <c r="S530" t="n">
-        <v>688.0840718287398</v>
+        <v>83.17050135552584</v>
       </c>
     </row>
     <row r="531">
@@ -33884,7 +33884,7 @@
         <v>4.666666666666666</v>
       </c>
       <c r="H531" t="n">
-        <v>34.5</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="I531" t="n">
         <v>103.11</v>
@@ -33917,7 +33917,7 @@
         <v>0.01016</v>
       </c>
       <c r="S531" t="n">
-        <v>642.7483007662154</v>
+        <v>79.28976135142929</v>
       </c>
     </row>
     <row r="532">
@@ -33947,7 +33947,7 @@
         <v>5.055555555555556</v>
       </c>
       <c r="H532" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I532" t="n">
         <v>103.71</v>
@@ -33980,7 +33980,7 @@
         <v>0.01016</v>
       </c>
       <c r="S532" t="n">
-        <v>733.9288114689793</v>
+        <v>86.55825689241662</v>
       </c>
     </row>
     <row r="533">
@@ -34010,7 +34010,7 @@
         <v>7.944444444444443</v>
       </c>
       <c r="H533" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I533" t="n">
         <v>103.58</v>
@@ -34043,7 +34043,7 @@
         <v>0.01016</v>
       </c>
       <c r="S533" t="n">
-        <v>588.5634008087595</v>
+        <v>69.83834498792565</v>
       </c>
     </row>
     <row r="534">
@@ -34073,7 +34073,7 @@
         <v>5.499999999999999</v>
       </c>
       <c r="H534" t="n">
-        <v>36.6</v>
+        <v>2.555555555555556</v>
       </c>
       <c r="I534" t="n">
         <v>103.7</v>
@@ -34106,7 +34106,7 @@
         <v>0.01016</v>
       </c>
       <c r="S534" t="n">
-        <v>681.1385959552927</v>
+        <v>81.31993756187053</v>
       </c>
     </row>
     <row r="535">
@@ -34136,7 +34136,7 @@
         <v>9.833333333333336</v>
       </c>
       <c r="H535" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I535" t="n">
         <v>102.35</v>
@@ -34169,7 +34169,7 @@
         <v>0.01016</v>
       </c>
       <c r="S535" t="n">
-        <v>788.6135960150197</v>
+        <v>83.47006003785425</v>
       </c>
     </row>
     <row r="536">
@@ -34199,7 +34199,7 @@
         <v>7.5</v>
       </c>
       <c r="H536" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I536" t="n">
         <v>102.3</v>
@@ -34232,7 +34232,7 @@
         <v>0.01016</v>
       </c>
       <c r="S536" t="n">
-        <v>876.777381654373</v>
+        <v>94.08963452850816</v>
       </c>
     </row>
   </sheetData>
